--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="909" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{3A91DBAF-8331-4147-B29E-1C1BDA3756DE}"/>
+  <xr:revisionPtr revIDLastSave="1057" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{447E6585-8488-4A2C-BBC9-E32AC8DBE756}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1712">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -4780,6 +4780,387 @@
   </si>
   <si>
     <t>BABOOM</t>
+  </si>
+  <si>
+    <t>Mega</t>
+  </si>
+  <si>
+    <t>Sprite Downloaded</t>
+  </si>
+  <si>
+    <t>Shiny Created</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Venusaur</t>
+  </si>
+  <si>
+    <t>Charizard X</t>
+  </si>
+  <si>
+    <t>Charizard Y</t>
+  </si>
+  <si>
+    <t>Blastoise</t>
+  </si>
+  <si>
+    <t>Alakazam</t>
+  </si>
+  <si>
+    <t>Gengar</t>
+  </si>
+  <si>
+    <t>Kangaskhan</t>
+  </si>
+  <si>
+    <t>Pinsir</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
+  </si>
+  <si>
+    <t>Aerodactyl</t>
+  </si>
+  <si>
+    <t>Mewtwo X</t>
+  </si>
+  <si>
+    <t>Mewtwo Y</t>
+  </si>
+  <si>
+    <t>Ampharos</t>
+  </si>
+  <si>
+    <t>Scizor</t>
+  </si>
+  <si>
+    <t>Heracross</t>
+  </si>
+  <si>
+    <t>Houndoom</t>
+  </si>
+  <si>
+    <t>Tyranitar</t>
+  </si>
+  <si>
+    <t>Blazekin</t>
+  </si>
+  <si>
+    <t>Gardevoir</t>
+  </si>
+  <si>
+    <t>Mawile</t>
+  </si>
+  <si>
+    <t>Aggron</t>
+  </si>
+  <si>
+    <t>Medicham</t>
+  </si>
+  <si>
+    <t>Manectric</t>
+  </si>
+  <si>
+    <t>Banette</t>
+  </si>
+  <si>
+    <t>Absol</t>
+  </si>
+  <si>
+    <t>Latias</t>
+  </si>
+  <si>
+    <t>Latios</t>
+  </si>
+  <si>
+    <t>Garchomp</t>
+  </si>
+  <si>
+    <t>Lucario</t>
+  </si>
+  <si>
+    <t>Abomnasnow</t>
+  </si>
+  <si>
+    <t>Beedrill</t>
+  </si>
+  <si>
+    <t>Pidgeot</t>
+  </si>
+  <si>
+    <t>Slowbro</t>
+  </si>
+  <si>
+    <t>Steelix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sceptile </t>
+  </si>
+  <si>
+    <t>Sawmpert</t>
+  </si>
+  <si>
+    <t>Sableye</t>
+  </si>
+  <si>
+    <t>Sharpedo</t>
+  </si>
+  <si>
+    <t>Camerupt</t>
+  </si>
+  <si>
+    <t>Altaria</t>
+  </si>
+  <si>
+    <t>Glalie</t>
+  </si>
+  <si>
+    <t>Salamence</t>
+  </si>
+  <si>
+    <t>Metagross</t>
+  </si>
+  <si>
+    <t>Kyogre</t>
+  </si>
+  <si>
+    <t>Groudon</t>
+  </si>
+  <si>
+    <t>Rayquaza</t>
+  </si>
+  <si>
+    <t>Lopunny</t>
+  </si>
+  <si>
+    <t>Gallade</t>
+  </si>
+  <si>
+    <t>Audino</t>
+  </si>
+  <si>
+    <t>Diancie</t>
+  </si>
+  <si>
+    <t>Hoopa</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Renamed</t>
+  </si>
+  <si>
+    <t>POOCHYENA</t>
+  </si>
+  <si>
+    <t>MIGHTYENA</t>
+  </si>
+  <si>
+    <t>ZIGZAGOON</t>
+  </si>
+  <si>
+    <t>LINOONE</t>
+  </si>
+  <si>
+    <t>WURMPLE</t>
+  </si>
+  <si>
+    <t>SILCOON</t>
+  </si>
+  <si>
+    <t>BEAUTIFLY</t>
+  </si>
+  <si>
+    <t>CASCOON</t>
+  </si>
+  <si>
+    <t>DUSTOX</t>
+  </si>
+  <si>
+    <t>LOTAD</t>
+  </si>
+  <si>
+    <t>LOMBRE</t>
+  </si>
+  <si>
+    <t>LUDICOLO</t>
+  </si>
+  <si>
+    <t>SEEDOT</t>
+  </si>
+  <si>
+    <t>NULEAF</t>
+  </si>
+  <si>
+    <t>SHIFTRY</t>
+  </si>
+  <si>
+    <t>TAILLOW</t>
+  </si>
+  <si>
+    <t>SWELLOW</t>
+  </si>
+  <si>
+    <t>WINGULL</t>
+  </si>
+  <si>
+    <t>PELLIPER</t>
+  </si>
+  <si>
+    <t>RALTS</t>
+  </si>
+  <si>
+    <t>KIRLIA</t>
+  </si>
+  <si>
+    <t>SURSKIT</t>
+  </si>
+  <si>
+    <t>MASQUERAIN</t>
+  </si>
+  <si>
+    <t>SHROOMISH</t>
+  </si>
+  <si>
+    <t>BRELOOM</t>
+  </si>
+  <si>
+    <t>SLAKOTH</t>
+  </si>
+  <si>
+    <t>VIGOROTH</t>
+  </si>
+  <si>
+    <t>SLAKING</t>
+  </si>
+  <si>
+    <t>NINCADA</t>
+  </si>
+  <si>
+    <t>NINJASK</t>
+  </si>
+  <si>
+    <t>SHEDINJA</t>
+  </si>
+  <si>
+    <t>WHISMUR</t>
+  </si>
+  <si>
+    <t>LOUDRED</t>
+  </si>
+  <si>
+    <t>EXPLOUD</t>
+  </si>
+  <si>
+    <t>MAKUHITA</t>
+  </si>
+  <si>
+    <t>HARIYAMA</t>
+  </si>
+  <si>
+    <t>AZURILL</t>
+  </si>
+  <si>
+    <t>NOSEPASS</t>
+  </si>
+  <si>
+    <t>SKITTY</t>
+  </si>
+  <si>
+    <t>DELCATTY</t>
+  </si>
+  <si>
+    <t>SABLEYE</t>
+  </si>
+  <si>
+    <t>SABLEYE-1</t>
+  </si>
+  <si>
+    <t>MEGA SABLEYE</t>
+  </si>
+  <si>
+    <t>MAWILE</t>
+  </si>
+  <si>
+    <t>MAWILE-1</t>
+  </si>
+  <si>
+    <t>MEGA MAWILE</t>
+  </si>
+  <si>
+    <t>ARON</t>
+  </si>
+  <si>
+    <t>LAIRON</t>
+  </si>
+  <si>
+    <t>AGGRON</t>
+  </si>
+  <si>
+    <t>MEGA AGGRON</t>
+  </si>
+  <si>
+    <t>AGGRON-1</t>
+  </si>
+  <si>
+    <t>MEDITITE</t>
+  </si>
+  <si>
+    <t>MEDICHAM</t>
+  </si>
+  <si>
+    <t>MEDICHAM-1</t>
+  </si>
+  <si>
+    <t>MEGA MEDICHAM</t>
+  </si>
+  <si>
+    <t>ELECTRIKE</t>
+  </si>
+  <si>
+    <t>MANECTRIC</t>
+  </si>
+  <si>
+    <t>MANECTRIC-1</t>
+  </si>
+  <si>
+    <t>MEGA MANECTRIC</t>
+  </si>
+  <si>
+    <t>PLUSLE</t>
+  </si>
+  <si>
+    <t>MINUN</t>
+  </si>
+  <si>
+    <t>VOLBEAT</t>
+  </si>
+  <si>
+    <t>ILLUMISE</t>
+  </si>
+  <si>
+    <t>ROSELIA</t>
+  </si>
+  <si>
+    <t>GULPIN</t>
+  </si>
+  <si>
+    <t>SWALOT</t>
+  </si>
+  <si>
+    <t>CARVANHA</t>
+  </si>
+  <si>
+    <t>SHARPEDO</t>
+  </si>
+  <si>
+    <t>SHARPEDO-1</t>
+  </si>
+  <si>
+    <t>MEGA SHARPEDO</t>
   </si>
 </sst>
 </file>
@@ -5132,10 +5513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:J1222"/>
+  <dimension ref="A1:T1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
-      <selection activeCell="C1104" sqref="C1104"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="D422" sqref="D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5148,9 +5529,13 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5181,32 +5566,68 @@
       <c r="J1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>892</v>
       </c>
@@ -5216,32 +5637,44 @@
       <c r="D5" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>893</v>
       </c>
@@ -5251,8 +5684,11 @@
       <c r="D9" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>894</v>
       </c>
@@ -5262,8 +5698,11 @@
       <c r="D10" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>895</v>
       </c>
@@ -5273,32 +5712,44 @@
       <c r="D11" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>896</v>
       </c>
@@ -5308,32 +5759,44 @@
       <c r="D15" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>897</v>
       </c>
@@ -5343,32 +5806,44 @@
       <c r="D19" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>898</v>
       </c>
@@ -5378,32 +5853,44 @@
       <c r="D23" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>899</v>
       </c>
@@ -5413,16 +5900,22 @@
       <c r="D27" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>900</v>
       </c>
@@ -5432,16 +5925,22 @@
       <c r="D29" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>901</v>
       </c>
@@ -5451,48 +5950,66 @@
       <c r="D31" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>937</v>
       </c>
@@ -5502,16 +6019,22 @@
       <c r="D37" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>902</v>
       </c>
@@ -5521,16 +6044,22 @@
       <c r="D39" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>903</v>
       </c>
@@ -5540,16 +6069,22 @@
       <c r="D41" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>904</v>
       </c>
@@ -5559,80 +6094,110 @@
       <c r="D43" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C47" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C49" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C50" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C51" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C52" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>905</v>
       </c>
@@ -5643,7 +6208,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -5651,7 +6216,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>906</v>
       </c>
@@ -5662,7 +6227,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5670,7 +6235,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5678,7 +6243,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -5686,7 +6251,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -5694,7 +6259,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
@@ -5702,7 +6267,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
@@ -5710,7 +6275,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
@@ -5718,7 +6283,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
@@ -5726,7 +6291,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
@@ -8311,106 +8876,169 @@
       <c r="A357" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="C357" t="s">
+        <v>1642</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="C358" t="s">
+        <v>1643</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="C359" t="s">
+        <v>1644</v>
+      </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="C360" t="s">
+        <v>1645</v>
+      </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="C361" t="s">
+        <v>1646</v>
+      </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="C362" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="C363" t="s">
+        <v>1648</v>
+      </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="C364" t="s">
+        <v>1649</v>
+      </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="C365" t="s">
+        <v>1650</v>
+      </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="C366" t="s">
+        <v>1651</v>
+      </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="C367" t="s">
+        <v>1652</v>
+      </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C368" t="s">
+        <v>1653</v>
+      </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="C369" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="C370" t="s">
+        <v>1655</v>
+      </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="C371" t="s">
+        <v>1656</v>
+      </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="C372" t="s">
+        <v>1657</v>
+      </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="C373" t="s">
+        <v>1658</v>
+      </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="C374" t="s">
+        <v>1659</v>
+      </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="C375" t="s">
+        <v>1660</v>
+      </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="C376" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="C377" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
@@ -8435,263 +9063,410 @@
       <c r="A380" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="C380" t="s">
+        <v>1663</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="C381" t="s">
+        <v>1664</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="C382" t="s">
+        <v>1665</v>
+      </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="C383" t="s">
+        <v>1666</v>
+      </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C384" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C386" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C387" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C388" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C389" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C390" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C391" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C392" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C393" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C394" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C396" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C397" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C398" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C399" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C401" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C402" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C403" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C404" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C405" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C406" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C407" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C408" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C409" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C410" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C411" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C412" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C413" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C414" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C415" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C416" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C417" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C419" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C420" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C421" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C422" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>336</v>
       </c>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1057" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{447E6585-8488-4A2C-BBC9-E32AC8DBE756}"/>
+  <xr:revisionPtr revIDLastSave="1325" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DDBA2A28-212E-4D2C-8B87-CC204984FB1C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1971">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -5161,6 +5161,783 @@
   </si>
   <si>
     <t>MEGA SHARPEDO</t>
+  </si>
+  <si>
+    <t>WAILMER</t>
+  </si>
+  <si>
+    <t>WAILORD</t>
+  </si>
+  <si>
+    <t>NUMEL</t>
+  </si>
+  <si>
+    <t>CAMERUPT</t>
+  </si>
+  <si>
+    <t>CAMERUPT-1</t>
+  </si>
+  <si>
+    <t>MEGA CAMERUPT</t>
+  </si>
+  <si>
+    <t>TORKOAL</t>
+  </si>
+  <si>
+    <t>SPOINK</t>
+  </si>
+  <si>
+    <t>GRUMPIG</t>
+  </si>
+  <si>
+    <t>SPINDA</t>
+  </si>
+  <si>
+    <t>TRAPINCH</t>
+  </si>
+  <si>
+    <t>VIBRAVA</t>
+  </si>
+  <si>
+    <t>FLYGON</t>
+  </si>
+  <si>
+    <t>FLYGON-1</t>
+  </si>
+  <si>
+    <t>MEGA FLYGON</t>
+  </si>
+  <si>
+    <t>CACNEA</t>
+  </si>
+  <si>
+    <t>CACTURNE</t>
+  </si>
+  <si>
+    <t>SWABLU</t>
+  </si>
+  <si>
+    <t>ALTARIA</t>
+  </si>
+  <si>
+    <t>ALTARIA-1</t>
+  </si>
+  <si>
+    <t>ALTARIA-2</t>
+  </si>
+  <si>
+    <t>ALTARIA-3</t>
+  </si>
+  <si>
+    <t>MEGA ALTARIA</t>
+  </si>
+  <si>
+    <t>THUNDER ALTARIA</t>
+  </si>
+  <si>
+    <t>M THUNDER ALTARIA</t>
+  </si>
+  <si>
+    <t>ZANGOOSE</t>
+  </si>
+  <si>
+    <t>SEVIPER</t>
+  </si>
+  <si>
+    <t>LUNATONE</t>
+  </si>
+  <si>
+    <t>SOLROCK</t>
+  </si>
+  <si>
+    <t>BARBOACH</t>
+  </si>
+  <si>
+    <t>WHISCASH</t>
+  </si>
+  <si>
+    <t>CORPHISH</t>
+  </si>
+  <si>
+    <t>CRAWDAUNT</t>
+  </si>
+  <si>
+    <t>BALTOY</t>
+  </si>
+  <si>
+    <t>CLAYDOL</t>
+  </si>
+  <si>
+    <t>LILEEP</t>
+  </si>
+  <si>
+    <t>CRADILY</t>
+  </si>
+  <si>
+    <t>ANORITH</t>
+  </si>
+  <si>
+    <t>ARMALDO</t>
+  </si>
+  <si>
+    <t>FEEBAS</t>
+  </si>
+  <si>
+    <t>MILOTIC</t>
+  </si>
+  <si>
+    <t>CASTFORM</t>
+  </si>
+  <si>
+    <t>CASTFORM-1</t>
+  </si>
+  <si>
+    <t>CASTFORM-2</t>
+  </si>
+  <si>
+    <t>CASTFORM-3</t>
+  </si>
+  <si>
+    <t>SUNNY</t>
+  </si>
+  <si>
+    <t>RAINY</t>
+  </si>
+  <si>
+    <t>SNOWY</t>
+  </si>
+  <si>
+    <t>KECLEON</t>
+  </si>
+  <si>
+    <t>SHUPPET</t>
+  </si>
+  <si>
+    <t>BANETTE</t>
+  </si>
+  <si>
+    <t>BANETTE-1</t>
+  </si>
+  <si>
+    <t>MEGA BANETTE</t>
+  </si>
+  <si>
+    <t>DUSKULL</t>
+  </si>
+  <si>
+    <t>DUSCLOPS</t>
+  </si>
+  <si>
+    <t>TROPIUS</t>
+  </si>
+  <si>
+    <t>CHIMECHO</t>
+  </si>
+  <si>
+    <t>ABSOL</t>
+  </si>
+  <si>
+    <t>ABSOL-1</t>
+  </si>
+  <si>
+    <t>MEGA ABSOL</t>
+  </si>
+  <si>
+    <t>WYNAUT</t>
+  </si>
+  <si>
+    <t>SNORUNT</t>
+  </si>
+  <si>
+    <t>GLALIE</t>
+  </si>
+  <si>
+    <t>MEGA GLALIE</t>
+  </si>
+  <si>
+    <t>SPHEAL</t>
+  </si>
+  <si>
+    <t>SEALEO</t>
+  </si>
+  <si>
+    <t>WALREIN</t>
+  </si>
+  <si>
+    <t>CLAMPEARL</t>
+  </si>
+  <si>
+    <t>HUNTAIL</t>
+  </si>
+  <si>
+    <t>GOREBYSS</t>
+  </si>
+  <si>
+    <t>RELICANTH</t>
+  </si>
+  <si>
+    <t>LUVDISC</t>
+  </si>
+  <si>
+    <t>BAGON</t>
+  </si>
+  <si>
+    <t>SHELGON</t>
+  </si>
+  <si>
+    <t>SALAMENCE</t>
+  </si>
+  <si>
+    <t>GLALIE-1</t>
+  </si>
+  <si>
+    <t>SALAMENCE-1</t>
+  </si>
+  <si>
+    <t>SALAMENCE-2</t>
+  </si>
+  <si>
+    <t>MEGA SALAMENCE</t>
+  </si>
+  <si>
+    <t>SKY SALAMENCE</t>
+  </si>
+  <si>
+    <t>BELDUM</t>
+  </si>
+  <si>
+    <t>METANG</t>
+  </si>
+  <si>
+    <t>METAGROSS</t>
+  </si>
+  <si>
+    <t>METAGROSS-1</t>
+  </si>
+  <si>
+    <t>MEGA METAGROSS</t>
+  </si>
+  <si>
+    <t>REGIROCK</t>
+  </si>
+  <si>
+    <t>REGICE</t>
+  </si>
+  <si>
+    <t>REGISTEEL</t>
+  </si>
+  <si>
+    <t>LATIAS</t>
+  </si>
+  <si>
+    <t>LATIAS-1</t>
+  </si>
+  <si>
+    <t>MEGA LATIAS</t>
+  </si>
+  <si>
+    <t>LATIOS</t>
+  </si>
+  <si>
+    <t>LATIOS-1</t>
+  </si>
+  <si>
+    <t>MEGA LATIOS</t>
+  </si>
+  <si>
+    <t>TURTWIG</t>
+  </si>
+  <si>
+    <t>GROTLE</t>
+  </si>
+  <si>
+    <t>TORTERRA</t>
+  </si>
+  <si>
+    <t>CHIMCHAR</t>
+  </si>
+  <si>
+    <t>MONFERNO</t>
+  </si>
+  <si>
+    <t>INFERNAPE</t>
+  </si>
+  <si>
+    <t>PIPLUP</t>
+  </si>
+  <si>
+    <t>PRINPLUP</t>
+  </si>
+  <si>
+    <t>EMPOLEON</t>
+  </si>
+  <si>
+    <t>STARLY</t>
+  </si>
+  <si>
+    <t>STARAVIA</t>
+  </si>
+  <si>
+    <t>STARAPTOR</t>
+  </si>
+  <si>
+    <t>BIDOOF</t>
+  </si>
+  <si>
+    <t>BIBAREL</t>
+  </si>
+  <si>
+    <t>KRICKETOT</t>
+  </si>
+  <si>
+    <t>KRICKETUNE</t>
+  </si>
+  <si>
+    <t>SHINX</t>
+  </si>
+  <si>
+    <t>LUXIO</t>
+  </si>
+  <si>
+    <t>LUXRAY</t>
+  </si>
+  <si>
+    <t>BUDEW</t>
+  </si>
+  <si>
+    <t>ROSERADE</t>
+  </si>
+  <si>
+    <t>CRANIDOS</t>
+  </si>
+  <si>
+    <t>RAMPARDOS</t>
+  </si>
+  <si>
+    <t>SHIELDON</t>
+  </si>
+  <si>
+    <t>BASTIODON</t>
+  </si>
+  <si>
+    <t>412-1</t>
+  </si>
+  <si>
+    <t>412-2</t>
+  </si>
+  <si>
+    <t>BURMY</t>
+  </si>
+  <si>
+    <t>BURMY-1</t>
+  </si>
+  <si>
+    <t>BURMY-2</t>
+  </si>
+  <si>
+    <t>WORMADAM</t>
+  </si>
+  <si>
+    <t>WORMADAM-1</t>
+  </si>
+  <si>
+    <t>WORMADAM-2</t>
+  </si>
+  <si>
+    <t>GRASS</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>TRASH</t>
+  </si>
+  <si>
+    <t>MOTHIM</t>
+  </si>
+  <si>
+    <t>COMBEE</t>
+  </si>
+  <si>
+    <t>VESPIQUEN</t>
+  </si>
+  <si>
+    <t>PACHIRISU</t>
+  </si>
+  <si>
+    <t>BUIZEL</t>
+  </si>
+  <si>
+    <t>FLOATZEL</t>
+  </si>
+  <si>
+    <t>CHERUBI</t>
+  </si>
+  <si>
+    <t>CHERRIM</t>
+  </si>
+  <si>
+    <t>SHELLOS</t>
+  </si>
+  <si>
+    <t>SHELLOS-1</t>
+  </si>
+  <si>
+    <t>GASTRODON</t>
+  </si>
+  <si>
+    <t>GASTRODON-1</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>AMBIPOM</t>
+  </si>
+  <si>
+    <t>DRIFLOON</t>
+  </si>
+  <si>
+    <t>DRIFBLIM</t>
+  </si>
+  <si>
+    <t>BUNEARY</t>
+  </si>
+  <si>
+    <t>LOPUNNY</t>
+  </si>
+  <si>
+    <t>LOPUNNY-1</t>
+  </si>
+  <si>
+    <t>MEGA LOPUNNY</t>
+  </si>
+  <si>
+    <t>MISMAGIUS</t>
+  </si>
+  <si>
+    <t>HONCHKROW</t>
+  </si>
+  <si>
+    <t>GLAMEOW</t>
+  </si>
+  <si>
+    <t>PURUGLY</t>
+  </si>
+  <si>
+    <t>CHINGLING</t>
+  </si>
+  <si>
+    <t>STUNKY</t>
+  </si>
+  <si>
+    <t>SKUNTANK</t>
+  </si>
+  <si>
+    <t>BRONZOR</t>
+  </si>
+  <si>
+    <t>BRONZONG</t>
+  </si>
+  <si>
+    <t>BONSLY</t>
+  </si>
+  <si>
+    <t>MIMEJR</t>
+  </si>
+  <si>
+    <t>HAPPINY</t>
+  </si>
+  <si>
+    <t>CHATOT</t>
+  </si>
+  <si>
+    <t>SPIRITOMB</t>
+  </si>
+  <si>
+    <t>GIBLE</t>
+  </si>
+  <si>
+    <t>GABITE</t>
+  </si>
+  <si>
+    <t>GARCHOMP</t>
+  </si>
+  <si>
+    <t>GARCHOMP-1</t>
+  </si>
+  <si>
+    <t>MEGA GARCHOMP</t>
+  </si>
+  <si>
+    <t>MUNCHLAX</t>
+  </si>
+  <si>
+    <t>RIOLU</t>
+  </si>
+  <si>
+    <t>LUCARIO</t>
+  </si>
+  <si>
+    <t>LUCARIO-1</t>
+  </si>
+  <si>
+    <t>LUCARIO-2</t>
+  </si>
+  <si>
+    <t>LUCARIO-3</t>
+  </si>
+  <si>
+    <t>MEGA LUCARIO</t>
+  </si>
+  <si>
+    <t>DARKARIO</t>
+  </si>
+  <si>
+    <t>MEGA DARKARIO</t>
+  </si>
+  <si>
+    <t>HIPPOPOTAS</t>
+  </si>
+  <si>
+    <t>HIPPOWDON</t>
+  </si>
+  <si>
+    <t>SKORUPI</t>
+  </si>
+  <si>
+    <t>DRAPION</t>
+  </si>
+  <si>
+    <t>CROAGUNK</t>
+  </si>
+  <si>
+    <t>TOXICROAK</t>
+  </si>
+  <si>
+    <t>CARNIVINE</t>
+  </si>
+  <si>
+    <t>FINNEON</t>
+  </si>
+  <si>
+    <t>LUMINEON</t>
+  </si>
+  <si>
+    <t>MANTYKE</t>
+  </si>
+  <si>
+    <t>SNOVER</t>
+  </si>
+  <si>
+    <t>ABOMASNOW</t>
+  </si>
+  <si>
+    <t>ABOMASNOW-1</t>
+  </si>
+  <si>
+    <t>MEGA ABOMASNOW</t>
+  </si>
+  <si>
+    <t>WEAVILE</t>
+  </si>
+  <si>
+    <t>MAGNEZONE</t>
+  </si>
+  <si>
+    <t>LICKILICKY</t>
+  </si>
+  <si>
+    <t>RHYPERIOR</t>
+  </si>
+  <si>
+    <t>TANGROWTH</t>
+  </si>
+  <si>
+    <t>ELECTIVIRE</t>
+  </si>
+  <si>
+    <t>MAGMORTAR</t>
+  </si>
+  <si>
+    <t>TOGEKISS</t>
+  </si>
+  <si>
+    <t>YANMEGA</t>
+  </si>
+  <si>
+    <t>LEAFEON</t>
+  </si>
+  <si>
+    <t>GLACEON</t>
+  </si>
+  <si>
+    <t>GLISCOR</t>
+  </si>
+  <si>
+    <t>MAMOSWINE</t>
+  </si>
+  <si>
+    <t>POYGONZ</t>
+  </si>
+  <si>
+    <t>GALLADE</t>
+  </si>
+  <si>
+    <t>GALLADE-1</t>
+  </si>
+  <si>
+    <t>MEGA GALLADE</t>
+  </si>
+  <si>
+    <t>PROBOPASS</t>
+  </si>
+  <si>
+    <t>DUSKNOIR</t>
+  </si>
+  <si>
+    <t>FROSSLASS</t>
+  </si>
+  <si>
+    <t>ROTOM</t>
+  </si>
+  <si>
+    <t>ROTOM-1</t>
+  </si>
+  <si>
+    <t>ROTOM-2</t>
+  </si>
+  <si>
+    <t>ROTOM-3</t>
+  </si>
+  <si>
+    <t>ROTOM-4</t>
+  </si>
+  <si>
+    <t>ROTOM-5</t>
+  </si>
+  <si>
+    <t>ROTOM-6</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>UXIE</t>
+  </si>
+  <si>
+    <t>MESPRIT</t>
+  </si>
+  <si>
+    <t>AZELF</t>
+  </si>
+  <si>
+    <t>DIALGA</t>
+  </si>
+  <si>
+    <t>PALKIA</t>
+  </si>
+  <si>
+    <t>HEATRAN</t>
+  </si>
+  <si>
+    <t>REGIGIGAS</t>
+  </si>
+  <si>
+    <t>GIRATINA</t>
+  </si>
+  <si>
+    <t>GIRATINA-1</t>
+  </si>
+  <si>
+    <t>ORIGIN FORME</t>
+  </si>
+  <si>
+    <t>CRESSELIA</t>
+  </si>
+  <si>
+    <t>PHIONE</t>
+  </si>
+  <si>
+    <t>MANAPHY</t>
+  </si>
+  <si>
+    <t>DARKRAI</t>
+  </si>
+  <si>
+    <t>SHAYMIN</t>
+  </si>
+  <si>
+    <t>SHAYMIN-1</t>
+  </si>
+  <si>
+    <t>SKY FORM</t>
+  </si>
+  <si>
+    <t>ARCEUS</t>
+  </si>
+  <si>
+    <t>ARCEUS-1</t>
+  </si>
+  <si>
+    <t>ARCEUS-2</t>
+  </si>
+  <si>
+    <t>ARCEUS-3</t>
+  </si>
+  <si>
+    <t>ARCEUS-4</t>
+  </si>
+  <si>
+    <t>ARCEUS-5</t>
+  </si>
+  <si>
+    <t>ARCEUS-6</t>
+  </si>
+  <si>
+    <t>ARCEUS-7</t>
+  </si>
+  <si>
+    <t>ARCEUS-8</t>
+  </si>
+  <si>
+    <t>ARCEUS-9</t>
+  </si>
+  <si>
+    <t>ARCEUS-10</t>
+  </si>
+  <si>
+    <t>ARCEUS-11</t>
+  </si>
+  <si>
+    <t>ARCEUS-12</t>
+  </si>
+  <si>
+    <t>ARCEUS-13</t>
+  </si>
+  <si>
+    <t>ARCEUS-14</t>
+  </si>
+  <si>
+    <t>ARCEUS-15</t>
+  </si>
+  <si>
+    <t>ARCEUS-16</t>
+  </si>
+  <si>
+    <t>ARCEUS-17</t>
+  </si>
+  <si>
+    <t>ARCEUS-18</t>
+  </si>
+  <si>
+    <t>VICTINI</t>
   </si>
 </sst>
 </file>
@@ -5513,17 +6290,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:T1222"/>
+  <dimension ref="A1:T1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="D422" sqref="D422"/>
+    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
+      <selection activeCell="C658" sqref="C658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -9425,391 +10202,673 @@
       <c r="A423" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="C423" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="C424" t="s">
+        <v>1713</v>
+      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="C425" t="s">
+        <v>1714</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="C426" t="s">
+        <v>1715</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>964</v>
       </c>
+      <c r="C427" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="C428" t="s">
+        <v>1718</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="C429" t="s">
+        <v>1719</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="C430" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="C431" t="s">
+        <v>1721</v>
+      </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C432" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C433" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C434" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C435" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C436" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C437" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C438" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C439" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C440" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C441" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C442" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C443" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C444" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C445" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C446" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C447" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C448" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C449" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C450" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C451" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C452" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C453" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C454" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C455" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C456" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C457" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C458" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C459" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C460" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C461" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C462" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C463" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C464" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C465" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C466" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C467" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C468" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C469" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C470" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C471" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C472" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C473" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C474" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C476" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C477" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C478" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C479" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C480" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C481" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C482" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C483" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C484" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C485" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C486" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C487" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C488" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C489" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C490" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C491" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C492" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C493" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C494" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C495" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>387</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="C497" t="s">
+        <v>1800</v>
+      </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>978</v>
       </c>
+      <c r="C498" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1802</v>
+      </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="C499" t="s">
+        <v>1803</v>
+      </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>979</v>
       </c>
+      <c r="C500" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
@@ -9921,2980 +10980,3488 @@
       <c r="A512" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C512" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C513" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C514" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C515" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C516" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C517" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C518" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C519" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C520" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C521" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C522" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C523" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C524" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C525" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C526" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C527" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C528" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C529" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C530" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C531" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C532" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C533" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C534" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C535" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C536" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C537" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
+      <c r="C540" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
+      <c r="C541" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
+      <c r="C542" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
+      <c r="C543" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+      <c r="C544" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
+      <c r="C545" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
+      <c r="C546" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
+      <c r="C547" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
+      <c r="C548" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+      <c r="C549" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+      <c r="C550" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
+      <c r="C551" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
+      <c r="C552" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
+      <c r="C553" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
+      <c r="C554" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
+      <c r="C555" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
+      <c r="C556" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+      <c r="C557" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
+      <c r="C558" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
+      <c r="C559" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+      <c r="C560" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+      <c r="C561" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+      <c r="C562" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
+      <c r="C563" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
+      <c r="C564" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+      <c r="C565" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="C566" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+      <c r="C567" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
+      <c r="C568" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
+      <c r="C569" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
+      <c r="C570" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
+      <c r="C571" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
+      <c r="C572" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
+      <c r="C573" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
+      <c r="C574" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
+      <c r="C575" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
+      <c r="C576" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
+      <c r="C577" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
+      <c r="C578" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
+      <c r="C579" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
+      <c r="C580" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
+      <c r="C581" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="C582" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="C583" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
+      <c r="C584" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="C585" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+      <c r="C586" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+      <c r="C587" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="C588" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+      <c r="C589" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+      <c r="C590" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+      <c r="C591" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+      <c r="C592" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="C593" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+      <c r="C594" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
+      <c r="C595" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+      <c r="C596" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="C597" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
+      <c r="C598" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
+      <c r="C599" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+      <c r="C600" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="C601" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+      <c r="C602" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+      <c r="C603" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
+      <c r="C604" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
+      <c r="C605" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+      <c r="C606" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="C607" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
+      <c r="C608" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+      <c r="C609" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+      <c r="C610" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+      <c r="C611" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
+      <c r="C612" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
+      <c r="C613" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
+      <c r="C614" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
+      <c r="C615" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+      <c r="C616" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
+      <c r="C617" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
+      <c r="C618" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+      <c r="C619" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
+      <c r="C620" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
+      <c r="C621" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
+      <c r="C622" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+      <c r="C623" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="C624" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
+      <c r="C625" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+      <c r="C626" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
+      <c r="C627" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
+      <c r="C628" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
+      <c r="C629" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
+      <c r="C630" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
+      <c r="C631" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
+      <c r="C632" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
+      <c r="C633" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
+      <c r="C634" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
+      <c r="C635" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
+      <c r="C636" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
+      <c r="C637" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
+      <c r="C638" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
+      <c r="C639" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
+      <c r="C640" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
+      <c r="C641" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
+      <c r="C642" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
+      <c r="C643" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
+      <c r="C644" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
+      <c r="C645" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
+      <c r="C646" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
+      <c r="C647" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
+      <c r="C648" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
+      <c r="C649" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
+      <c r="C650" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
+      <c r="C651" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
+      <c r="C652" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
+      <c r="C653" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
+      <c r="C654" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
+      <c r="C655" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
+      <c r="C656" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
+      <c r="C657" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
+      <c r="C658" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="1" t="s">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="1" t="s">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="1" t="s">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="1" t="s">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="1" t="s">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="1" t="s">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="1" t="s">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>1024</v>
+        <v>538</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>541</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>1025</v>
+        <v>562</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>565</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>1026</v>
+        <v>580</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>583</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>1027</v>
+        <v>588</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>591</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>1028</v>
+        <v>594</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>597</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
-        <v>1029</v>
+        <v>625</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
-        <v>628</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>1030</v>
+        <v>648</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>652</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>1032</v>
+        <v>652</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>1034</v>
+        <v>654</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>655</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>656</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>1035</v>
+        <v>655</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>658</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>1036</v>
+        <v>665</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>668</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>1037</v>
+        <v>673</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>676</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>1038</v>
+        <v>688</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>1039</v>
+        <v>689</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>690</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>691</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>1042</v>
+        <v>708</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>711</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>1043</v>
+        <v>713</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>716</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>1044</v>
+        <v>722</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>725</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>1045</v>
+        <v>725</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>1046</v>
+        <v>726</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>727</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>730</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>1049</v>
+        <v>742</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>745</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>1050</v>
+        <v>747</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>1052</v>
+        <v>749</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>750</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>751</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>1054</v>
+        <v>752</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>1055</v>
+        <v>753</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>754</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>756</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>1058</v>
+        <v>765</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>768</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>1059</v>
+        <v>780</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>1060</v>
+        <v>781</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>782</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>784</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>1078</v>
+        <v>785</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>788</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>1079</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>790</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>1080</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>803</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
-        <v>1082</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
-        <v>828</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C1105" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1106" s="1"/>
+      <c r="A1106" s="1" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1107" s="1"/>
+      <c r="A1107" s="1" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1108" s="1"/>
@@ -13240,6 +14807,12 @@
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" s="1"/>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1"/>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1325" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DDBA2A28-212E-4D2C-8B87-CC204984FB1C}"/>
+  <xr:revisionPtr revIDLastSave="1378" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{EDF46641-EBBB-4878-B627-75AA9EEC3C5B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1976">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -5938,6 +5938,21 @@
   </si>
   <si>
     <t>VICTINI</t>
+  </si>
+  <si>
+    <t>missing back</t>
+  </si>
+  <si>
+    <t>mising back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing  </t>
+  </si>
+  <si>
+    <t>missing front</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
 </sst>
 </file>
@@ -6292,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:T1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
-      <selection activeCell="C658" sqref="C658"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,6 +6384,9 @@
       <c r="P2" t="s">
         <v>1589</v>
       </c>
+      <c r="Q2" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6403,6 +6421,9 @@
       <c r="P4" t="s">
         <v>1591</v>
       </c>
+      <c r="Q4" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -6417,6 +6438,9 @@
       <c r="P5" t="s">
         <v>1592</v>
       </c>
+      <c r="Q5" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -6428,6 +6452,9 @@
       <c r="P6" t="s">
         <v>1593</v>
       </c>
+      <c r="Q6" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -6439,6 +6466,9 @@
       <c r="P7" t="s">
         <v>1594</v>
       </c>
+      <c r="Q7" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -6450,6 +6480,9 @@
       <c r="P8" t="s">
         <v>1595</v>
       </c>
+      <c r="Q8" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -6464,6 +6497,9 @@
       <c r="P9" t="s">
         <v>1596</v>
       </c>
+      <c r="Q9" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -6478,6 +6514,9 @@
       <c r="P10" t="s">
         <v>1597</v>
       </c>
+      <c r="Q10" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -6492,6 +6531,9 @@
       <c r="P11" t="s">
         <v>1598</v>
       </c>
+      <c r="Q11" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -6503,6 +6545,9 @@
       <c r="P12" t="s">
         <v>1599</v>
       </c>
+      <c r="Q12" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -6514,6 +6559,9 @@
       <c r="P13" t="s">
         <v>1600</v>
       </c>
+      <c r="Q13" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -6525,6 +6573,9 @@
       <c r="P14" t="s">
         <v>1601</v>
       </c>
+      <c r="Q14" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -6539,6 +6590,9 @@
       <c r="P15" t="s">
         <v>1602</v>
       </c>
+      <c r="Q15" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -6550,8 +6604,11 @@
       <c r="P16" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -6561,8 +6618,11 @@
       <c r="P17" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6572,8 +6632,11 @@
       <c r="P18" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>897</v>
       </c>
@@ -6586,8 +6649,11 @@
       <c r="P19" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -6597,8 +6663,11 @@
       <c r="P20" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -6608,8 +6677,11 @@
       <c r="P21" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -6619,8 +6691,11 @@
       <c r="P22" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>898</v>
       </c>
@@ -6633,8 +6708,11 @@
       <c r="P23" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -6644,8 +6722,11 @@
       <c r="P24" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -6655,8 +6736,11 @@
       <c r="P25" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -6666,8 +6750,11 @@
       <c r="P26" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>899</v>
       </c>
@@ -6680,8 +6767,11 @@
       <c r="P27" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6691,8 +6781,11 @@
       <c r="P28" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>900</v>
       </c>
@@ -6705,8 +6798,11 @@
       <c r="P29" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6716,8 +6812,11 @@
       <c r="P30" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>901</v>
       </c>
@@ -6730,8 +6829,11 @@
       <c r="P31" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -6741,8 +6843,11 @@
       <c r="P32" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -6752,8 +6857,11 @@
       <c r="P33" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -6763,8 +6871,11 @@
       <c r="P34" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -6774,8 +6885,11 @@
       <c r="P35" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -6785,8 +6899,11 @@
       <c r="P36" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>937</v>
       </c>
@@ -6799,8 +6916,11 @@
       <c r="P37" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -6810,8 +6930,11 @@
       <c r="P38" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>902</v>
       </c>
@@ -6824,8 +6947,11 @@
       <c r="P39" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -6835,8 +6961,11 @@
       <c r="P40" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>903</v>
       </c>
@@ -6849,8 +6978,11 @@
       <c r="P41" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -6860,8 +6992,11 @@
       <c r="P42" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>904</v>
       </c>
@@ -6874,8 +7009,11 @@
       <c r="P43" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -6885,8 +7023,11 @@
       <c r="P44" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -6896,8 +7037,11 @@
       <c r="P45" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -6907,8 +7051,11 @@
       <c r="P46" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -6918,8 +7065,11 @@
       <c r="P47" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -6929,8 +7079,11 @@
       <c r="P48" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -6940,8 +7093,11 @@
       <c r="P49" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
@@ -6951,8 +7107,11 @@
       <c r="P50" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
@@ -6962,8 +7121,11 @@
       <c r="P51" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -6973,8 +7135,11 @@
       <c r="P52" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>905</v>
       </c>
@@ -6985,7 +7150,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -6993,7 +7158,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>906</v>
       </c>
@@ -7004,7 +7169,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -7012,7 +7177,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -7020,7 +7185,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -7028,7 +7193,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -7036,7 +7201,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
@@ -7044,7 +7209,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
@@ -7052,7 +7217,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
@@ -7060,7 +7225,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
@@ -7068,7 +7233,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1453" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{E4A255AC-3EAE-4BC3-8243-761672D7495F}"/>
+  <xr:revisionPtr revIDLastSave="1655" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{21218E2D-4952-41F9-845C-CC85F83CBEA6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="2048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="2236">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -6169,6 +6169,570 @@
   </si>
   <si>
     <t>Nagandel</t>
+  </si>
+  <si>
+    <t>SNIVY</t>
+  </si>
+  <si>
+    <t>SERVINE</t>
+  </si>
+  <si>
+    <t>SERPERIOR</t>
+  </si>
+  <si>
+    <t>TEPIG</t>
+  </si>
+  <si>
+    <t>PIGNITE</t>
+  </si>
+  <si>
+    <t>EMBOAR</t>
+  </si>
+  <si>
+    <t>EMBOAR-1</t>
+  </si>
+  <si>
+    <t>BOAROCK</t>
+  </si>
+  <si>
+    <t>OSHAWATT</t>
+  </si>
+  <si>
+    <t>DEWOTT</t>
+  </si>
+  <si>
+    <t>SAMUROTT</t>
+  </si>
+  <si>
+    <t>PATRAT</t>
+  </si>
+  <si>
+    <t>WATCHOG</t>
+  </si>
+  <si>
+    <t>LILLIPUP</t>
+  </si>
+  <si>
+    <t>HERDIER</t>
+  </si>
+  <si>
+    <t>STOUTLAND</t>
+  </si>
+  <si>
+    <t>PURRLOIN</t>
+  </si>
+  <si>
+    <t>LIEPARD</t>
+  </si>
+  <si>
+    <t>PANSAGE</t>
+  </si>
+  <si>
+    <t>SIMISAGE</t>
+  </si>
+  <si>
+    <t>PANSEAR</t>
+  </si>
+  <si>
+    <t>SIMISEAR</t>
+  </si>
+  <si>
+    <t>PANPOUR</t>
+  </si>
+  <si>
+    <t>SIMIPOUR</t>
+  </si>
+  <si>
+    <t>MUNNA</t>
+  </si>
+  <si>
+    <t>MUSHARNA</t>
+  </si>
+  <si>
+    <t>PIDOVE</t>
+  </si>
+  <si>
+    <t>TRANQUILL</t>
+  </si>
+  <si>
+    <t>UNFEZANT</t>
+  </si>
+  <si>
+    <t>BLITZLE</t>
+  </si>
+  <si>
+    <t>ZEBSTRIKA</t>
+  </si>
+  <si>
+    <t>ROGGENROLA</t>
+  </si>
+  <si>
+    <t>BOLDORE</t>
+  </si>
+  <si>
+    <t>GIGALITH</t>
+  </si>
+  <si>
+    <t>WOOBAT</t>
+  </si>
+  <si>
+    <t>SWOOBAT</t>
+  </si>
+  <si>
+    <t>DRILBUR</t>
+  </si>
+  <si>
+    <t>EXCADRILL</t>
+  </si>
+  <si>
+    <t>AUDINO</t>
+  </si>
+  <si>
+    <t>AUDINO-1</t>
+  </si>
+  <si>
+    <t>MEGA AUDINO</t>
+  </si>
+  <si>
+    <t>TIMBURR</t>
+  </si>
+  <si>
+    <t>GURDURR</t>
+  </si>
+  <si>
+    <t>CONKELDURR</t>
+  </si>
+  <si>
+    <t>TYMPOLE</t>
+  </si>
+  <si>
+    <t>PALPITOAD</t>
+  </si>
+  <si>
+    <t>SEISMITOAD</t>
+  </si>
+  <si>
+    <t>THROH</t>
+  </si>
+  <si>
+    <t>SAWK</t>
+  </si>
+  <si>
+    <t>SEWADDLE</t>
+  </si>
+  <si>
+    <t>SWADLOON</t>
+  </si>
+  <si>
+    <t>LEAVANNY</t>
+  </si>
+  <si>
+    <t>VENIPEDE</t>
+  </si>
+  <si>
+    <t>WHIRLIPEDE</t>
+  </si>
+  <si>
+    <t>SCOLIPEDE</t>
+  </si>
+  <si>
+    <t>COTTONEE</t>
+  </si>
+  <si>
+    <t>WHIMSICOTT</t>
+  </si>
+  <si>
+    <t>PETLIL</t>
+  </si>
+  <si>
+    <t>LILLIGANT</t>
+  </si>
+  <si>
+    <t>BASCULIN</t>
+  </si>
+  <si>
+    <t>550-1</t>
+  </si>
+  <si>
+    <t>BASCULIN-1</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>SANDILE</t>
+  </si>
+  <si>
+    <t>KROKOROK</t>
+  </si>
+  <si>
+    <t>KROOKODILE</t>
+  </si>
+  <si>
+    <t>DARUMAKA</t>
+  </si>
+  <si>
+    <t>DARMANITAN</t>
+  </si>
+  <si>
+    <t>DARMANITAN-1</t>
+  </si>
+  <si>
+    <t>ZEN</t>
+  </si>
+  <si>
+    <t>MARACTUS</t>
+  </si>
+  <si>
+    <t>DWEBBLE</t>
+  </si>
+  <si>
+    <t>CRUSTLE</t>
+  </si>
+  <si>
+    <t>SCRAGGY</t>
+  </si>
+  <si>
+    <t>SCRAFTY</t>
+  </si>
+  <si>
+    <t>SIGILYPH</t>
+  </si>
+  <si>
+    <t>YANMASK</t>
+  </si>
+  <si>
+    <t>COFAGRIGUS</t>
+  </si>
+  <si>
+    <t>TIRTOUGA</t>
+  </si>
+  <si>
+    <t>CARRACOSTA</t>
+  </si>
+  <si>
+    <t>ARCHEN</t>
+  </si>
+  <si>
+    <t>ARCHEOPS</t>
+  </si>
+  <si>
+    <t>TRUBBISH</t>
+  </si>
+  <si>
+    <t>GARBODOR</t>
+  </si>
+  <si>
+    <t>ZORUA</t>
+  </si>
+  <si>
+    <t>ZOROARK</t>
+  </si>
+  <si>
+    <t>MINCCINO</t>
+  </si>
+  <si>
+    <t>CINCCINO</t>
+  </si>
+  <si>
+    <t>CINCCINO-1</t>
+  </si>
+  <si>
+    <t>CRUELLA DE CINCCINO</t>
+  </si>
+  <si>
+    <t>GOTHITA</t>
+  </si>
+  <si>
+    <t>GOTHORITA</t>
+  </si>
+  <si>
+    <t>GOTHITELLE</t>
+  </si>
+  <si>
+    <t>SOLOSIS</t>
+  </si>
+  <si>
+    <t>DUOSION</t>
+  </si>
+  <si>
+    <t>REUNICLUS</t>
+  </si>
+  <si>
+    <t>DUCKLETT</t>
+  </si>
+  <si>
+    <t>SWANNA</t>
+  </si>
+  <si>
+    <t>SWANNA-1</t>
+  </si>
+  <si>
+    <t>MEGA SWANNA</t>
+  </si>
+  <si>
+    <t>VANILLITE</t>
+  </si>
+  <si>
+    <t>VANILLISH</t>
+  </si>
+  <si>
+    <t>VANILLUXE</t>
+  </si>
+  <si>
+    <t>DEERLING</t>
+  </si>
+  <si>
+    <t>SAWSBUCK</t>
+  </si>
+  <si>
+    <t>EMOLGA</t>
+  </si>
+  <si>
+    <t>KARRABLAST</t>
+  </si>
+  <si>
+    <t>ESCAVALIER</t>
+  </si>
+  <si>
+    <t>FOONGUS</t>
+  </si>
+  <si>
+    <t>AMOONGUSS</t>
+  </si>
+  <si>
+    <t>FRILLISH</t>
+  </si>
+  <si>
+    <t>JELLICENT</t>
+  </si>
+  <si>
+    <t>ALOMOMOLA</t>
+  </si>
+  <si>
+    <t>JOLTIK</t>
+  </si>
+  <si>
+    <t>GALVANTULA</t>
+  </si>
+  <si>
+    <t>FERROSEED</t>
+  </si>
+  <si>
+    <t>FERROTHORN</t>
+  </si>
+  <si>
+    <t>KLINK</t>
+  </si>
+  <si>
+    <t>KLANG</t>
+  </si>
+  <si>
+    <t>KLINKLANG</t>
+  </si>
+  <si>
+    <t>TYNAMO</t>
+  </si>
+  <si>
+    <t>ELEKTRIK</t>
+  </si>
+  <si>
+    <t>ELEKTROSS</t>
+  </si>
+  <si>
+    <t>ELGYEM</t>
+  </si>
+  <si>
+    <t>BEHEEYEM</t>
+  </si>
+  <si>
+    <t>LITWICK</t>
+  </si>
+  <si>
+    <t>LAMPENT</t>
+  </si>
+  <si>
+    <t>CHANDELURE</t>
+  </si>
+  <si>
+    <t>AXEW</t>
+  </si>
+  <si>
+    <t>FRAXURE</t>
+  </si>
+  <si>
+    <t>HAXORUS</t>
+  </si>
+  <si>
+    <t>CUBCHOO</t>
+  </si>
+  <si>
+    <t>BEARTIC</t>
+  </si>
+  <si>
+    <t>CROGONAL</t>
+  </si>
+  <si>
+    <t>SHELMET</t>
+  </si>
+  <si>
+    <t>ACCELGOR</t>
+  </si>
+  <si>
+    <t>STUNFISK</t>
+  </si>
+  <si>
+    <t>EMOLGA-1</t>
+  </si>
+  <si>
+    <t>MEGA EMOLGA</t>
+  </si>
+  <si>
+    <t>STUNFISK-1</t>
+  </si>
+  <si>
+    <t>SHITFISK</t>
+  </si>
+  <si>
+    <t>MIENFOO</t>
+  </si>
+  <si>
+    <t>MIENSHAO</t>
+  </si>
+  <si>
+    <t>DRUDDIGON</t>
+  </si>
+  <si>
+    <t>GOLETT</t>
+  </si>
+  <si>
+    <t>GOLURK</t>
+  </si>
+  <si>
+    <t>PAWNIARD</t>
+  </si>
+  <si>
+    <t>BISHARP</t>
+  </si>
+  <si>
+    <t>BOUFFALANT</t>
+  </si>
+  <si>
+    <t>RUFFLET</t>
+  </si>
+  <si>
+    <t>BRAVIARY</t>
+  </si>
+  <si>
+    <t>VULLABY</t>
+  </si>
+  <si>
+    <t>MANDIBUZZ</t>
+  </si>
+  <si>
+    <t>HEATMOR</t>
+  </si>
+  <si>
+    <t>DURANT</t>
+  </si>
+  <si>
+    <t>DEINO</t>
+  </si>
+  <si>
+    <t>ZWEILOUS</t>
+  </si>
+  <si>
+    <t>HYDREIGON</t>
+  </si>
+  <si>
+    <t>LARVESTA</t>
+  </si>
+  <si>
+    <t>VOLCARONA</t>
+  </si>
+  <si>
+    <t>COBALION</t>
+  </si>
+  <si>
+    <t>TERRAKION</t>
+  </si>
+  <si>
+    <t>VIRIZION</t>
+  </si>
+  <si>
+    <t>TORNADUS</t>
+  </si>
+  <si>
+    <t>TORNADUS-1</t>
+  </si>
+  <si>
+    <t>THERIAN</t>
+  </si>
+  <si>
+    <t>INCARNATE</t>
+  </si>
+  <si>
+    <t>THUNDURUS</t>
+  </si>
+  <si>
+    <t>THUNDURUS-1</t>
+  </si>
+  <si>
+    <t>RESHARIM</t>
+  </si>
+  <si>
+    <t>ZEKROM</t>
+  </si>
+  <si>
+    <t>LANDORUS</t>
+  </si>
+  <si>
+    <t>KYUREM</t>
+  </si>
+  <si>
+    <t>KYUREM-1</t>
+  </si>
+  <si>
+    <t>KYUREM-2</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>KELDEO</t>
+  </si>
+  <si>
+    <t>647-1</t>
+  </si>
+  <si>
+    <t>KELDEO-1</t>
+  </si>
+  <si>
+    <t>RESOLUTE</t>
+  </si>
+  <si>
+    <t>MELOETTA</t>
+  </si>
+  <si>
+    <t>MELOETTA-1</t>
+  </si>
+  <si>
+    <t>PIROUETTE</t>
+  </si>
+  <si>
+    <t>ARIA</t>
+  </si>
+  <si>
+    <t>GENESECT</t>
+  </si>
+  <si>
+    <t>CHESPIN</t>
   </si>
 </sst>
 </file>
@@ -6530,10 +7094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:T1222"/>
+  <dimension ref="A1:T1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="A806" workbookViewId="0">
+      <selection activeCell="C829" sqref="C829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12706,7 +13270,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>502</v>
       </c>
@@ -12714,2386 +13278,2963 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C658" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C659" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C660" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C661" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C662" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C663" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C664" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D664" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C665" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C666" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C667" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C668" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C669" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C670" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C671" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C672" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C673" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C674" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C675" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C676" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C677" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C678" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C679" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C680" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C681" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C682" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C683" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C684" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C685" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C686" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C687" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C688" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C689" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C690" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C691" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C692" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C693" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C694" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C695" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C696" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C697" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C698" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C699" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C700" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C701" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C702" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C703" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C704" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C705" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C706" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C707" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C708" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C709" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C710" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C711" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C712" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C713" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C714" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C715" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D715" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C716" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D716" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
+      <c r="C717" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="1" t="s">
+      <c r="C718" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="1" t="s">
+      <c r="C719" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="1" t="s">
+      <c r="C720" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
+      <c r="C721" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="1" t="s">
+      <c r="C722" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="1" t="s">
+      <c r="C723" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="1" t="s">
+      <c r="C724" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
+      <c r="C725" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
+      <c r="C726" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="1" t="s">
+      <c r="C727" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="1" t="s">
+      <c r="C728" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="1" t="s">
+      <c r="C729" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="1" t="s">
+      <c r="C730" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="1" t="s">
+      <c r="C731" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="1" t="s">
+      <c r="C732" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="1" t="s">
+      <c r="C733" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="1" t="s">
+      <c r="C734" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="1" t="s">
+      <c r="C735" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="1" t="s">
+      <c r="C736" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="1" t="s">
+      <c r="C737" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="1" t="s">
+      <c r="C738" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="1" t="s">
+      <c r="C739" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="1" t="s">
+      <c r="C740" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="1" t="s">
+      <c r="C741" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D741" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="1" t="s">
+      <c r="C742" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="1" t="s">
+      <c r="C743" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="1" t="s">
+      <c r="C744" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="1" t="s">
+      <c r="C745" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="1" t="s">
+      <c r="C746" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="1" t="s">
+      <c r="C747" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="1" t="s">
+      <c r="C748" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="1" t="s">
+      <c r="C749" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="1" t="s">
+      <c r="C750" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D750" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="1" t="s">
+      <c r="C751" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="1" t="s">
+      <c r="C752" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="1" t="s">
+      <c r="C753" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="1" t="s">
+      <c r="C754" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
+      <c r="C755" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="1" t="s">
+      <c r="C756" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="1" t="s">
+      <c r="C757" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="1" t="s">
+      <c r="C758" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="1" t="s">
+      <c r="C759" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="1" t="s">
+      <c r="C760" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="1" t="s">
+      <c r="C761" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="1" t="s">
+      <c r="C762" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="1" t="s">
+      <c r="C763" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="1" t="s">
+      <c r="C764" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="1" t="s">
+      <c r="C765" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="1" t="s">
+      <c r="C766" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="1" t="s">
+      <c r="C767" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="1" t="s">
+      <c r="C768" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="1" t="s">
+      <c r="C769" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="1" t="s">
+      <c r="C770" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="1" t="s">
+      <c r="C771" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="1" t="s">
+      <c r="C772" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="1" t="s">
+      <c r="C773" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="1" t="s">
+      <c r="C774" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="1" t="s">
+      <c r="C775" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="1" t="s">
+      <c r="C776" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="1" t="s">
+      <c r="C777" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="1" t="s">
+      <c r="C778" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="1" t="s">
+      <c r="C779" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="1" t="s">
+      <c r="C780" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="1" t="s">
+      <c r="C781" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="1" t="s">
+      <c r="C782" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="1" t="s">
+      <c r="C783" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="1" t="s">
+      <c r="C784" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="1" t="s">
+      <c r="C785" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="1" t="s">
+      <c r="C786" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="1" t="s">
+      <c r="C787" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="1" t="s">
+      <c r="C788" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789" s="1" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="1" t="s">
+      <c r="C789" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="1" t="s">
+      <c r="C790" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="1" t="s">
+      <c r="C791" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="1" t="s">
+      <c r="C792" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="1" t="s">
+      <c r="C793" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="1" t="s">
+      <c r="C794" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="1" t="s">
+      <c r="C795" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="1" t="s">
+      <c r="C796" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="1" t="s">
+      <c r="C797" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="1" t="s">
+      <c r="C798" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="1" t="s">
+      <c r="C799" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="1" t="s">
+      <c r="C800" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="1" t="s">
+      <c r="C801" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="1" t="s">
+      <c r="C802" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="1" t="s">
+      <c r="C803" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="1" t="s">
+      <c r="C804" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="1" t="s">
+      <c r="C805" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="1" t="s">
+      <c r="C806" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="1" t="s">
+      <c r="C807" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="1" t="s">
+      <c r="C808" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="1" t="s">
+      <c r="C809" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="1" t="s">
+      <c r="C810" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="1" t="s">
+      <c r="C811" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="1" t="s">
+      <c r="C812" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D812" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813" s="1" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="1" t="s">
+      <c r="C813" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D813" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="1" t="s">
+      <c r="C814" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D814" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="1" t="s">
+      <c r="C815" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D815" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="1" t="s">
+      <c r="C816" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="1" t="s">
+      <c r="C817" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="1" t="s">
+      <c r="C818" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D818" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="1" t="s">
+      <c r="C819" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D819" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="1" t="s">
+      <c r="C820" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="1" t="s">
+      <c r="C821" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D821" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="1" t="s">
+      <c r="C822" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D822" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="1" t="s">
+      <c r="C823" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D824" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="1" t="s">
+      <c r="C825" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D825" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826" s="1" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="1" t="s">
+      <c r="C826" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D826" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="1" t="s">
+      <c r="C827" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="1" t="s">
+      <c r="C828" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="1" t="s">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="1" t="s">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="1" t="s">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
         <v>662</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>1035</v>
+        <v>665</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>668</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>1036</v>
+        <v>673</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>676</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>1037</v>
+        <v>688</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>1038</v>
+        <v>689</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>690</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>691</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>1041</v>
+        <v>708</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>711</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>1042</v>
+        <v>713</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>716</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>1043</v>
+        <v>722</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>725</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>1044</v>
+        <v>725</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>1045</v>
+        <v>726</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>727</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>730</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>1048</v>
+        <v>742</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>745</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>1049</v>
+        <v>747</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C932" t="s">
-        <v>1978</v>
-      </c>
-      <c r="D932" t="s">
-        <v>1984</v>
+        <v>748</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C933" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D933" t="s">
-        <v>1985</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>1051</v>
+        <v>749</v>
       </c>
       <c r="C934" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D934" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C935" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D935" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C936" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D936" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>750</v>
+        <v>1052</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>751</v>
+        <v>1056</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C940" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D940" t="s">
-        <v>1975</v>
+        <v>751</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C941" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D941" t="s">
-        <v>1976</v>
+        <v>752</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>1054</v>
+        <v>753</v>
       </c>
       <c r="C942" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D942" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>754</v>
+        <v>1053</v>
+      </c>
+      <c r="C943" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
+      </c>
+      <c r="C944" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>756</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>1057</v>
+        <v>765</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>768</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C971" t="s">
-        <v>1989</v>
+        <v>778</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C972" t="s">
-        <v>1988</v>
+        <v>779</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>1058</v>
+        <v>780</v>
       </c>
       <c r="C973" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D973" t="s">
-        <v>2007</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>1059</v>
+        <v>781</v>
       </c>
       <c r="C974" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C975" t="s">
-        <v>1992</v>
+        <v>1990</v>
+      </c>
+      <c r="D975" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C976" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C977" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C978" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C979" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C980" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C981" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C982" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C983" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C984" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C985" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C986" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C987" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C988" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C989" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>782</v>
+        <v>1073</v>
+      </c>
+      <c r="C990" t="s">
+        <v>2005</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
+      </c>
+      <c r="C991" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>784</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>1076</v>
+        <v>785</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>788</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>1077</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>790</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>2013</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>2012</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C1011" t="s">
-        <v>2008</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>1078</v>
+        <v>799</v>
       </c>
       <c r="C1012" t="s">
-        <v>2009</v>
-      </c>
-      <c r="D1012" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C1013" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C1014" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D1014" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>803</v>
+        <v>1079</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>2015</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
-        <v>1080</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
-        <v>828</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1106" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1107" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C1105" t="s">
+      <c r="C1107" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1106" s="1"/>
-    </row>
-    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1107" s="1"/>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1108" s="1"/>
@@ -15439,6 +16580,12 @@
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" s="1"/>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1"/>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1655" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{21218E2D-4952-41F9-845C-CC85F83CBEA6}"/>
+  <xr:revisionPtr revIDLastSave="1770" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{A38ACDE0-645D-4796-AF86-C99DCB7DA6E1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="2240">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -5934,15 +5934,6 @@
     <t>mising back</t>
   </si>
   <si>
-    <t xml:space="preserve">missing  </t>
-  </si>
-  <si>
-    <t>missing front</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>LYCANROC</t>
   </si>
   <si>
@@ -6699,12 +6690,6 @@
     <t>KYUREM-2</t>
   </si>
   <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
     <t>KELDEO</t>
   </si>
   <si>
@@ -6733,6 +6718,33 @@
   </si>
   <si>
     <t>CHESPIN</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Vulpix</t>
+  </si>
+  <si>
+    <t>Ninetails</t>
+  </si>
+  <si>
+    <t>edit front</t>
+  </si>
+  <si>
+    <t>edits</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>missing front, edit back</t>
   </si>
 </sst>
 </file>
@@ -7096,8 +7108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:T1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A806" workbookViewId="0">
-      <selection activeCell="C829" sqref="C829"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7147,6 +7159,9 @@
       <c r="J1" t="s">
         <v>1081</v>
       </c>
+      <c r="O1" t="s">
+        <v>2231</v>
+      </c>
       <c r="P1" s="2" t="s">
         <v>1582</v>
       </c>
@@ -7170,11 +7185,14 @@
       <c r="C2" t="s">
         <v>1082</v>
       </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
       <c r="P2" t="s">
         <v>1586</v>
       </c>
       <c r="Q2" t="s">
-        <v>1637</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -7207,11 +7225,14 @@
       <c r="C4" t="s">
         <v>1084</v>
       </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
       <c r="P4" t="s">
         <v>1588</v>
       </c>
       <c r="Q4" t="s">
-        <v>1637</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -7224,6 +7245,9 @@
       <c r="D5" t="s">
         <v>1544</v>
       </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
       <c r="P5" t="s">
         <v>1589</v>
       </c>
@@ -7238,6 +7262,9 @@
       <c r="C6" t="s">
         <v>1086</v>
       </c>
+      <c r="O6">
+        <v>65</v>
+      </c>
       <c r="P6" t="s">
         <v>1590</v>
       </c>
@@ -7252,6 +7279,9 @@
       <c r="C7" t="s">
         <v>1087</v>
       </c>
+      <c r="O7">
+        <v>94</v>
+      </c>
       <c r="P7" t="s">
         <v>1591</v>
       </c>
@@ -7266,6 +7296,9 @@
       <c r="C8" t="s">
         <v>1088</v>
       </c>
+      <c r="O8">
+        <v>115</v>
+      </c>
       <c r="P8" t="s">
         <v>1592</v>
       </c>
@@ -7283,6 +7316,9 @@
       <c r="D9" t="s">
         <v>1543</v>
       </c>
+      <c r="O9">
+        <v>127</v>
+      </c>
       <c r="P9" t="s">
         <v>1593</v>
       </c>
@@ -7300,6 +7336,9 @@
       <c r="D10" t="s">
         <v>1542</v>
       </c>
+      <c r="O10">
+        <v>130</v>
+      </c>
       <c r="P10" t="s">
         <v>1594</v>
       </c>
@@ -7317,6 +7356,9 @@
       <c r="D11" t="s">
         <v>1541</v>
       </c>
+      <c r="O11">
+        <v>142</v>
+      </c>
       <c r="P11" t="s">
         <v>1595</v>
       </c>
@@ -7337,6 +7379,15 @@
       <c r="Q12" t="s">
         <v>1637</v>
       </c>
+      <c r="R12" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -7351,6 +7402,15 @@
       <c r="Q13" t="s">
         <v>1637</v>
       </c>
+      <c r="R13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -7365,6 +7425,15 @@
       <c r="Q14" t="s">
         <v>1637</v>
       </c>
+      <c r="R14" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -7382,6 +7451,15 @@
       <c r="Q15" t="s">
         <v>1637</v>
       </c>
+      <c r="R15" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -7390,6 +7468,9 @@
       <c r="C16" t="s">
         <v>1123</v>
       </c>
+      <c r="O16">
+        <v>214</v>
+      </c>
       <c r="P16" t="s">
         <v>1600</v>
       </c>
@@ -7397,13 +7478,16 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>1124</v>
       </c>
+      <c r="O17">
+        <v>229</v>
+      </c>
       <c r="P17" t="s">
         <v>1601</v>
       </c>
@@ -7411,13 +7495,16 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>1125</v>
       </c>
+      <c r="O18">
+        <v>248</v>
+      </c>
       <c r="P18" t="s">
         <v>1602</v>
       </c>
@@ -7425,7 +7512,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>897</v>
       </c>
@@ -7435,6 +7522,9 @@
       <c r="D19" t="s">
         <v>1539</v>
       </c>
+      <c r="O19">
+        <v>257</v>
+      </c>
       <c r="P19" t="s">
         <v>1603</v>
       </c>
@@ -7442,7 +7532,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7455,14 +7545,26 @@
       <c r="Q20" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>1128</v>
       </c>
+      <c r="O21">
+        <v>303</v>
+      </c>
       <c r="P21" t="s">
         <v>1605</v>
       </c>
@@ -7470,13 +7572,16 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>1129</v>
       </c>
+      <c r="O22">
+        <v>306</v>
+      </c>
       <c r="P22" t="s">
         <v>1606</v>
       </c>
@@ -7484,7 +7589,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>898</v>
       </c>
@@ -7494,14 +7599,17 @@
       <c r="D23" t="s">
         <v>1538</v>
       </c>
+      <c r="O23">
+        <v>308</v>
+      </c>
       <c r="P23" t="s">
         <v>1607</v>
       </c>
       <c r="Q23" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -7512,10 +7620,19 @@
         <v>1608</v>
       </c>
       <c r="Q24" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1637</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -7528,14 +7645,26 @@
       <c r="Q25" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>1133</v>
       </c>
+      <c r="O26">
+        <v>359</v>
+      </c>
       <c r="P26" t="s">
         <v>1610</v>
       </c>
@@ -7543,7 +7672,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>899</v>
       </c>
@@ -7559,8 +7688,17 @@
       <c r="Q27" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -7573,8 +7711,17 @@
       <c r="Q28" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>900</v>
       </c>
@@ -7584,6 +7731,9 @@
       <c r="D29" t="s">
         <v>1536</v>
       </c>
+      <c r="O29">
+        <v>445</v>
+      </c>
       <c r="P29" t="s">
         <v>1613</v>
       </c>
@@ -7591,13 +7741,16 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>1137</v>
       </c>
+      <c r="O30">
+        <v>448</v>
+      </c>
       <c r="P30" t="s">
         <v>1614</v>
       </c>
@@ -7605,7 +7758,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>901</v>
       </c>
@@ -7615,34 +7768,43 @@
       <c r="D31" t="s">
         <v>1534</v>
       </c>
+      <c r="O31">
+        <v>460</v>
+      </c>
       <c r="P31" t="s">
         <v>1615</v>
       </c>
       <c r="Q31" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>1139</v>
       </c>
+      <c r="O32">
+        <v>15</v>
+      </c>
       <c r="P32" t="s">
         <v>1616</v>
       </c>
       <c r="Q32" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>1140</v>
       </c>
+      <c r="O33">
+        <v>18</v>
+      </c>
       <c r="P33" t="s">
         <v>1617</v>
       </c>
@@ -7650,13 +7812,16 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>1141</v>
       </c>
+      <c r="O34">
+        <v>80</v>
+      </c>
       <c r="P34" t="s">
         <v>1618</v>
       </c>
@@ -7664,27 +7829,33 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>1142</v>
       </c>
+      <c r="O35">
+        <v>208</v>
+      </c>
       <c r="P35" t="s">
         <v>1619</v>
       </c>
       <c r="Q35" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>1143</v>
       </c>
+      <c r="O36">
+        <v>254</v>
+      </c>
       <c r="P36" t="s">
         <v>1620</v>
       </c>
@@ -7692,7 +7863,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>937</v>
       </c>
@@ -7702,6 +7873,9 @@
       <c r="D37" t="s">
         <v>1545</v>
       </c>
+      <c r="O37">
+        <v>260</v>
+      </c>
       <c r="P37" t="s">
         <v>1621</v>
       </c>
@@ -7709,21 +7883,24 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>1145</v>
       </c>
+      <c r="O38">
+        <v>302</v>
+      </c>
       <c r="P38" t="s">
         <v>1622</v>
       </c>
       <c r="Q38" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>902</v>
       </c>
@@ -7733,6 +7910,9 @@
       <c r="D39" t="s">
         <v>1535</v>
       </c>
+      <c r="O39">
+        <v>319</v>
+      </c>
       <c r="P39" t="s">
         <v>1623</v>
       </c>
@@ -7740,13 +7920,16 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>1147</v>
       </c>
+      <c r="O40">
+        <v>323</v>
+      </c>
       <c r="P40" t="s">
         <v>1624</v>
       </c>
@@ -7754,7 +7937,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>903</v>
       </c>
@@ -7770,14 +7953,26 @@
       <c r="Q41" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>1149</v>
       </c>
+      <c r="O42">
+        <v>362</v>
+      </c>
       <c r="P42" t="s">
         <v>1626</v>
       </c>
@@ -7785,7 +7980,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>904</v>
       </c>
@@ -7795,6 +7990,9 @@
       <c r="D43" t="s">
         <v>1532</v>
       </c>
+      <c r="O43">
+        <v>373</v>
+      </c>
       <c r="P43" t="s">
         <v>1627</v>
       </c>
@@ -7802,13 +8000,16 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>1151</v>
       </c>
+      <c r="O44">
+        <v>376</v>
+      </c>
       <c r="P44" t="s">
         <v>1628</v>
       </c>
@@ -7816,54 +8017,66 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>1152</v>
       </c>
+      <c r="O45">
+        <v>382</v>
+      </c>
       <c r="P45" t="s">
         <v>1629</v>
       </c>
       <c r="Q45" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>1153</v>
       </c>
+      <c r="O46">
+        <v>383</v>
+      </c>
       <c r="P46" t="s">
         <v>1630</v>
       </c>
       <c r="Q46" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C47" t="s">
         <v>1154</v>
       </c>
+      <c r="O47">
+        <v>384</v>
+      </c>
       <c r="P47" t="s">
         <v>1631</v>
       </c>
       <c r="Q47" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>1155</v>
+      </c>
+      <c r="O48">
+        <v>428</v>
       </c>
       <c r="P48" t="s">
         <v>1632</v>
@@ -7885,6 +8098,15 @@
       <c r="Q49" t="s">
         <v>1637</v>
       </c>
+      <c r="R49" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -7897,7 +8119,16 @@
         <v>1634</v>
       </c>
       <c r="Q50" t="s">
-        <v>1969</v>
+        <v>1637</v>
+      </c>
+      <c r="R50" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T50" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -7907,6 +8138,9 @@
       <c r="C51" t="s">
         <v>1158</v>
       </c>
+      <c r="O51">
+        <v>719</v>
+      </c>
       <c r="P51" t="s">
         <v>1635</v>
       </c>
@@ -7921,6 +8155,9 @@
       <c r="C52" t="s">
         <v>1159</v>
       </c>
+      <c r="O52">
+        <v>720</v>
+      </c>
       <c r="P52" t="s">
         <v>1636</v>
       </c>
@@ -7938,8 +8175,11 @@
       <c r="D53" t="s">
         <v>1531</v>
       </c>
+      <c r="O53">
+        <v>658</v>
+      </c>
       <c r="P53" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="Q53" t="s">
         <v>1637</v>
@@ -7964,10 +8204,10 @@
         <v>1530</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>1584</v>
@@ -7986,8 +8226,11 @@
       <c r="C56" t="s">
         <v>1163</v>
       </c>
+      <c r="O56">
+        <v>19</v>
+      </c>
       <c r="P56" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -7997,8 +8240,11 @@
       <c r="C57" t="s">
         <v>1164</v>
       </c>
+      <c r="O57">
+        <v>20</v>
+      </c>
       <c r="P57" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -8008,8 +8254,11 @@
       <c r="C58" t="s">
         <v>1165</v>
       </c>
+      <c r="O58">
+        <v>27</v>
+      </c>
       <c r="P58" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -8019,8 +8268,11 @@
       <c r="C59" t="s">
         <v>1166</v>
       </c>
+      <c r="O59">
+        <v>28</v>
+      </c>
       <c r="P59" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -8030,8 +8282,11 @@
       <c r="C60" t="s">
         <v>1167</v>
       </c>
+      <c r="O60">
+        <v>26</v>
+      </c>
       <c r="P60" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -8041,8 +8296,11 @@
       <c r="C61" t="s">
         <v>1168</v>
       </c>
+      <c r="O61">
+        <v>103</v>
+      </c>
       <c r="P61" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -8052,8 +8310,11 @@
       <c r="C62" t="s">
         <v>1169</v>
       </c>
+      <c r="O62">
+        <v>105</v>
+      </c>
       <c r="P62" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -8063,8 +8324,11 @@
       <c r="C63" t="s">
         <v>1170</v>
       </c>
+      <c r="O63">
+        <v>52</v>
+      </c>
       <c r="P63" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -8074,8 +8338,11 @@
       <c r="C64" t="s">
         <v>1171</v>
       </c>
+      <c r="O64">
+        <v>53</v>
+      </c>
       <c r="P64" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -8085,8 +8352,11 @@
       <c r="C65" t="s">
         <v>1172</v>
       </c>
+      <c r="O65">
+        <v>88</v>
+      </c>
       <c r="P65" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -8096,8 +8366,11 @@
       <c r="C66" t="s">
         <v>1173</v>
       </c>
+      <c r="O66">
+        <v>89</v>
+      </c>
       <c r="P66" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -8107,8 +8380,11 @@
       <c r="C67" t="s">
         <v>1174</v>
       </c>
+      <c r="O67">
+        <v>50</v>
+      </c>
       <c r="P67" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -8121,8 +8397,11 @@
       <c r="D68" t="s">
         <v>1529</v>
       </c>
+      <c r="O68">
+        <v>51</v>
+      </c>
       <c r="P68" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -8132,8 +8411,11 @@
       <c r="C69" t="s">
         <v>1176</v>
       </c>
+      <c r="O69">
+        <v>74</v>
+      </c>
       <c r="P69" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -8146,8 +8428,11 @@
       <c r="D70" t="s">
         <v>1528</v>
       </c>
+      <c r="O70">
+        <v>75</v>
+      </c>
       <c r="P70" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -8157,8 +8442,11 @@
       <c r="C71" t="s">
         <v>1178</v>
       </c>
+      <c r="O71">
+        <v>76</v>
+      </c>
       <c r="P71" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -8171,6 +8459,12 @@
       <c r="D72" t="s">
         <v>1527</v>
       </c>
+      <c r="O72">
+        <v>37</v>
+      </c>
+      <c r="P72" t="s">
+        <v>2234</v>
+      </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -8179,6 +8473,12 @@
       <c r="C73" t="s">
         <v>1180</v>
       </c>
+      <c r="O73">
+        <v>38</v>
+      </c>
+      <c r="P73" t="s">
+        <v>2235</v>
+      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -8190,21 +8490,6 @@
       <c r="D74" t="s">
         <v>1526</v>
       </c>
-      <c r="P74" s="2" t="s">
-        <v>2035</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>1585</v>
-      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -8213,9 +8498,6 @@
       <c r="C75" t="s">
         <v>1182</v>
       </c>
-      <c r="P75" t="s">
-        <v>2037</v>
-      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -8224,8 +8506,20 @@
       <c r="C76" t="s">
         <v>1183</v>
       </c>
-      <c r="P76" t="s">
-        <v>2038</v>
+      <c r="P76" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -8236,7 +8530,7 @@
         <v>1184</v>
       </c>
       <c r="P77" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -8247,7 +8541,7 @@
         <v>1185</v>
       </c>
       <c r="P78" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -8258,7 +8552,7 @@
         <v>1186</v>
       </c>
       <c r="P79" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -8269,7 +8563,7 @@
         <v>1187</v>
       </c>
       <c r="P80" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -8280,7 +8574,7 @@
         <v>1188</v>
       </c>
       <c r="P81" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -8291,7 +8585,7 @@
         <v>1189</v>
       </c>
       <c r="P82" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -8302,7 +8596,7 @@
         <v>1190</v>
       </c>
       <c r="P83" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -8316,7 +8610,7 @@
         <v>1525</v>
       </c>
       <c r="P84" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -8327,7 +8621,7 @@
         <v>1192</v>
       </c>
       <c r="P85" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -8337,6 +8631,9 @@
       <c r="C86" t="s">
         <v>1193</v>
       </c>
+      <c r="P86" t="s">
+        <v>2043</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -8345,6 +8642,9 @@
       <c r="C87" t="s">
         <v>1194</v>
       </c>
+      <c r="P87" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -8475,7 +8775,7 @@
         <v>1209</v>
       </c>
       <c r="D102" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -13283,7 +13583,7 @@
         <v>503</v>
       </c>
       <c r="C658" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -13291,7 +13591,7 @@
         <v>504</v>
       </c>
       <c r="C659" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
@@ -13299,7 +13599,7 @@
         <v>505</v>
       </c>
       <c r="C660" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -13307,7 +13607,7 @@
         <v>506</v>
       </c>
       <c r="C661" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -13315,7 +13615,7 @@
         <v>507</v>
       </c>
       <c r="C662" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -13323,7 +13623,7 @@
         <v>508</v>
       </c>
       <c r="C663" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -13331,10 +13631,10 @@
         <v>1022</v>
       </c>
       <c r="C664" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="D664" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -13342,7 +13642,7 @@
         <v>509</v>
       </c>
       <c r="C665" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -13350,7 +13650,7 @@
         <v>510</v>
       </c>
       <c r="C666" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
@@ -13358,7 +13658,7 @@
         <v>511</v>
       </c>
       <c r="C667" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -13366,7 +13666,7 @@
         <v>512</v>
       </c>
       <c r="C668" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
@@ -13374,7 +13674,7 @@
         <v>513</v>
       </c>
       <c r="C669" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -13382,7 +13682,7 @@
         <v>514</v>
       </c>
       <c r="C670" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -13390,7 +13690,7 @@
         <v>515</v>
       </c>
       <c r="C671" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -13398,7 +13698,7 @@
         <v>516</v>
       </c>
       <c r="C672" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -13406,7 +13706,7 @@
         <v>517</v>
       </c>
       <c r="C673" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -13414,7 +13714,7 @@
         <v>518</v>
       </c>
       <c r="C674" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -13422,7 +13722,7 @@
         <v>519</v>
       </c>
       <c r="C675" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -13430,7 +13730,7 @@
         <v>520</v>
       </c>
       <c r="C676" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -13438,7 +13738,7 @@
         <v>521</v>
       </c>
       <c r="C677" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -13446,7 +13746,7 @@
         <v>522</v>
       </c>
       <c r="C678" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -13454,7 +13754,7 @@
         <v>523</v>
       </c>
       <c r="C679" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -13462,7 +13762,7 @@
         <v>524</v>
       </c>
       <c r="C680" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -13470,7 +13770,7 @@
         <v>525</v>
       </c>
       <c r="C681" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -13478,7 +13778,7 @@
         <v>526</v>
       </c>
       <c r="C682" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -13486,7 +13786,7 @@
         <v>527</v>
       </c>
       <c r="C683" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -13494,7 +13794,7 @@
         <v>528</v>
       </c>
       <c r="C684" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -13502,7 +13802,7 @@
         <v>529</v>
       </c>
       <c r="C685" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -13510,7 +13810,7 @@
         <v>530</v>
       </c>
       <c r="C686" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -13518,7 +13818,7 @@
         <v>531</v>
       </c>
       <c r="C687" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -13526,7 +13826,7 @@
         <v>532</v>
       </c>
       <c r="C688" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -13534,7 +13834,7 @@
         <v>533</v>
       </c>
       <c r="C689" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -13542,7 +13842,7 @@
         <v>534</v>
       </c>
       <c r="C690" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -13550,7 +13850,7 @@
         <v>535</v>
       </c>
       <c r="C691" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -13558,7 +13858,7 @@
         <v>536</v>
       </c>
       <c r="C692" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -13566,7 +13866,7 @@
         <v>537</v>
       </c>
       <c r="C693" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -13574,7 +13874,7 @@
         <v>538</v>
       </c>
       <c r="C694" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -13582,7 +13882,7 @@
         <v>539</v>
       </c>
       <c r="C695" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -13590,10 +13890,10 @@
         <v>1023</v>
       </c>
       <c r="C696" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D696" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -13601,7 +13901,7 @@
         <v>540</v>
       </c>
       <c r="C697" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
@@ -13609,7 +13909,7 @@
         <v>541</v>
       </c>
       <c r="C698" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
@@ -13617,7 +13917,7 @@
         <v>542</v>
       </c>
       <c r="C699" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -13625,7 +13925,7 @@
         <v>543</v>
       </c>
       <c r="C700" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
@@ -13633,7 +13933,7 @@
         <v>544</v>
       </c>
       <c r="C701" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
@@ -13641,7 +13941,7 @@
         <v>545</v>
       </c>
       <c r="C702" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
@@ -13649,7 +13949,7 @@
         <v>546</v>
       </c>
       <c r="C703" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
@@ -13657,7 +13957,7 @@
         <v>547</v>
       </c>
       <c r="C704" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
@@ -13665,7 +13965,7 @@
         <v>548</v>
       </c>
       <c r="C705" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
@@ -13673,7 +13973,7 @@
         <v>549</v>
       </c>
       <c r="C706" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
@@ -13681,7 +13981,7 @@
         <v>550</v>
       </c>
       <c r="C707" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
@@ -13689,7 +13989,7 @@
         <v>551</v>
       </c>
       <c r="C708" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
@@ -13697,7 +13997,7 @@
         <v>552</v>
       </c>
       <c r="C709" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
@@ -13705,7 +14005,7 @@
         <v>553</v>
       </c>
       <c r="C710" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
@@ -13713,7 +14013,7 @@
         <v>554</v>
       </c>
       <c r="C711" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
@@ -13721,7 +14021,7 @@
         <v>555</v>
       </c>
       <c r="C712" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
@@ -13729,7 +14029,7 @@
         <v>556</v>
       </c>
       <c r="C713" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
@@ -13737,7 +14037,7 @@
         <v>557</v>
       </c>
       <c r="C714" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
@@ -13745,21 +14045,21 @@
         <v>558</v>
       </c>
       <c r="C715" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D715" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="C716" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D716" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
@@ -13767,7 +14067,7 @@
         <v>559</v>
       </c>
       <c r="C717" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
@@ -13775,7 +14075,7 @@
         <v>560</v>
       </c>
       <c r="C718" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
@@ -13783,7 +14083,7 @@
         <v>561</v>
       </c>
       <c r="C719" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
@@ -13791,7 +14091,7 @@
         <v>562</v>
       </c>
       <c r="C720" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
@@ -13799,7 +14099,7 @@
         <v>563</v>
       </c>
       <c r="C721" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
@@ -13807,10 +14107,10 @@
         <v>1024</v>
       </c>
       <c r="C722" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="D722" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
@@ -13818,7 +14118,7 @@
         <v>564</v>
       </c>
       <c r="C723" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
@@ -13826,7 +14126,7 @@
         <v>565</v>
       </c>
       <c r="C724" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
@@ -13834,7 +14134,7 @@
         <v>566</v>
       </c>
       <c r="C725" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
@@ -13842,7 +14142,7 @@
         <v>567</v>
       </c>
       <c r="C726" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
@@ -13850,7 +14150,7 @@
         <v>568</v>
       </c>
       <c r="C727" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
@@ -13858,7 +14158,7 @@
         <v>569</v>
       </c>
       <c r="C728" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
@@ -13866,7 +14166,7 @@
         <v>570</v>
       </c>
       <c r="C729" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
@@ -13874,7 +14174,7 @@
         <v>571</v>
       </c>
       <c r="C730" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
@@ -13882,7 +14182,7 @@
         <v>572</v>
       </c>
       <c r="C731" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
@@ -13890,7 +14190,7 @@
         <v>573</v>
       </c>
       <c r="C732" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
@@ -13898,7 +14198,7 @@
         <v>574</v>
       </c>
       <c r="C733" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
@@ -13906,7 +14206,7 @@
         <v>575</v>
       </c>
       <c r="C734" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
@@ -13914,7 +14214,7 @@
         <v>576</v>
       </c>
       <c r="C735" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
@@ -13922,7 +14222,7 @@
         <v>577</v>
       </c>
       <c r="C736" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
@@ -13930,7 +14230,7 @@
         <v>578</v>
       </c>
       <c r="C737" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
@@ -13938,7 +14238,7 @@
         <v>579</v>
       </c>
       <c r="C738" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
@@ -13946,7 +14246,7 @@
         <v>580</v>
       </c>
       <c r="C739" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
@@ -13954,7 +14254,7 @@
         <v>581</v>
       </c>
       <c r="C740" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
@@ -13962,10 +14262,10 @@
         <v>1025</v>
       </c>
       <c r="C741" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="D741" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
@@ -13973,7 +14273,7 @@
         <v>582</v>
       </c>
       <c r="C742" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
@@ -13981,7 +14281,7 @@
         <v>583</v>
       </c>
       <c r="C743" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
@@ -13989,7 +14289,7 @@
         <v>584</v>
       </c>
       <c r="C744" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
@@ -13997,7 +14297,7 @@
         <v>585</v>
       </c>
       <c r="C745" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
@@ -14005,7 +14305,7 @@
         <v>586</v>
       </c>
       <c r="C746" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
@@ -14013,7 +14313,7 @@
         <v>587</v>
       </c>
       <c r="C747" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
@@ -14021,7 +14321,7 @@
         <v>588</v>
       </c>
       <c r="C748" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
@@ -14029,7 +14329,7 @@
         <v>589</v>
       </c>
       <c r="C749" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
@@ -14037,10 +14337,10 @@
         <v>1026</v>
       </c>
       <c r="C750" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D750" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
@@ -14048,7 +14348,7 @@
         <v>590</v>
       </c>
       <c r="C751" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
@@ -14056,7 +14356,7 @@
         <v>591</v>
       </c>
       <c r="C752" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
@@ -14064,7 +14364,7 @@
         <v>592</v>
       </c>
       <c r="C753" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
@@ -14072,7 +14372,7 @@
         <v>593</v>
       </c>
       <c r="C754" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
@@ -14080,7 +14380,7 @@
         <v>594</v>
       </c>
       <c r="C755" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
@@ -14088,7 +14388,7 @@
         <v>595</v>
       </c>
       <c r="C756" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
@@ -14096,10 +14396,10 @@
         <v>1027</v>
       </c>
       <c r="C757" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="D757" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -14107,7 +14407,7 @@
         <v>596</v>
       </c>
       <c r="C758" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
@@ -14115,7 +14415,7 @@
         <v>597</v>
       </c>
       <c r="C759" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
@@ -14123,7 +14423,7 @@
         <v>598</v>
       </c>
       <c r="C760" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
@@ -14131,7 +14431,7 @@
         <v>599</v>
       </c>
       <c r="C761" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
@@ -14139,7 +14439,7 @@
         <v>600</v>
       </c>
       <c r="C762" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
@@ -14147,7 +14447,7 @@
         <v>601</v>
       </c>
       <c r="C763" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
@@ -14155,7 +14455,7 @@
         <v>602</v>
       </c>
       <c r="C764" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
@@ -14163,7 +14463,7 @@
         <v>603</v>
       </c>
       <c r="C765" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
@@ -14171,7 +14471,7 @@
         <v>604</v>
       </c>
       <c r="C766" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -14179,7 +14479,7 @@
         <v>605</v>
       </c>
       <c r="C767" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
@@ -14187,7 +14487,7 @@
         <v>606</v>
       </c>
       <c r="C768" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -14195,7 +14495,7 @@
         <v>607</v>
       </c>
       <c r="C769" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -14203,7 +14503,7 @@
         <v>608</v>
       </c>
       <c r="C770" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -14211,7 +14511,7 @@
         <v>609</v>
       </c>
       <c r="C771" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -14219,7 +14519,7 @@
         <v>610</v>
       </c>
       <c r="C772" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -14227,7 +14527,7 @@
         <v>611</v>
       </c>
       <c r="C773" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -14235,7 +14535,7 @@
         <v>612</v>
       </c>
       <c r="C774" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -14243,7 +14543,7 @@
         <v>613</v>
       </c>
       <c r="C775" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -14251,7 +14551,7 @@
         <v>614</v>
       </c>
       <c r="C776" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -14259,7 +14559,7 @@
         <v>615</v>
       </c>
       <c r="C777" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -14267,7 +14567,7 @@
         <v>616</v>
       </c>
       <c r="C778" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -14275,7 +14575,7 @@
         <v>617</v>
       </c>
       <c r="C779" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -14283,7 +14583,7 @@
         <v>618</v>
       </c>
       <c r="C780" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -14291,7 +14591,7 @@
         <v>619</v>
       </c>
       <c r="C781" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -14299,7 +14599,7 @@
         <v>620</v>
       </c>
       <c r="C782" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -14307,7 +14607,7 @@
         <v>621</v>
       </c>
       <c r="C783" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -14315,7 +14615,7 @@
         <v>622</v>
       </c>
       <c r="C784" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
@@ -14323,7 +14623,7 @@
         <v>623</v>
       </c>
       <c r="C785" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
@@ -14331,7 +14631,7 @@
         <v>624</v>
       </c>
       <c r="C786" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
@@ -14339,7 +14639,7 @@
         <v>625</v>
       </c>
       <c r="C787" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
@@ -14347,7 +14647,7 @@
         <v>626</v>
       </c>
       <c r="C788" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
@@ -14355,10 +14655,10 @@
         <v>1028</v>
       </c>
       <c r="C789" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="D789" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
@@ -14366,7 +14666,7 @@
         <v>627</v>
       </c>
       <c r="C790" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
@@ -14374,7 +14674,7 @@
         <v>628</v>
       </c>
       <c r="C791" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
@@ -14382,7 +14682,7 @@
         <v>629</v>
       </c>
       <c r="C792" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
@@ -14390,7 +14690,7 @@
         <v>630</v>
       </c>
       <c r="C793" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
@@ -14398,7 +14698,7 @@
         <v>631</v>
       </c>
       <c r="C794" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
@@ -14406,7 +14706,7 @@
         <v>632</v>
       </c>
       <c r="C795" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
@@ -14414,7 +14714,7 @@
         <v>633</v>
       </c>
       <c r="C796" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
@@ -14422,7 +14722,7 @@
         <v>634</v>
       </c>
       <c r="C797" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
@@ -14430,7 +14730,7 @@
         <v>635</v>
       </c>
       <c r="C798" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
@@ -14438,7 +14738,7 @@
         <v>636</v>
       </c>
       <c r="C799" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
@@ -14446,7 +14746,7 @@
         <v>637</v>
       </c>
       <c r="C800" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
@@ -14454,7 +14754,7 @@
         <v>638</v>
       </c>
       <c r="C801" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
@@ -14462,7 +14762,7 @@
         <v>639</v>
       </c>
       <c r="C802" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
@@ -14470,7 +14770,7 @@
         <v>640</v>
       </c>
       <c r="C803" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
@@ -14478,7 +14778,7 @@
         <v>641</v>
       </c>
       <c r="C804" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
@@ -14486,7 +14786,7 @@
         <v>642</v>
       </c>
       <c r="C805" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
@@ -14494,7 +14794,7 @@
         <v>643</v>
       </c>
       <c r="C806" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
@@ -14502,7 +14802,7 @@
         <v>644</v>
       </c>
       <c r="C807" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
@@ -14510,7 +14810,7 @@
         <v>645</v>
       </c>
       <c r="C808" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
@@ -14518,7 +14818,7 @@
         <v>646</v>
       </c>
       <c r="C809" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
@@ -14526,7 +14826,7 @@
         <v>647</v>
       </c>
       <c r="C810" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
@@ -14534,7 +14834,7 @@
         <v>648</v>
       </c>
       <c r="C811" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
@@ -14542,10 +14842,10 @@
         <v>649</v>
       </c>
       <c r="C812" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D812" t="s">
         <v>2212</v>
-      </c>
-      <c r="D812" t="s">
-        <v>2215</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
@@ -14553,10 +14853,10 @@
         <v>1029</v>
       </c>
       <c r="C813" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="D813" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
@@ -14564,10 +14864,10 @@
         <v>650</v>
       </c>
       <c r="C814" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="D814" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
@@ -14575,10 +14875,10 @@
         <v>1030</v>
       </c>
       <c r="C815" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="D815" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
@@ -14586,7 +14886,7 @@
         <v>651</v>
       </c>
       <c r="C816" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
@@ -14594,7 +14894,7 @@
         <v>652</v>
       </c>
       <c r="C817" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
@@ -14602,10 +14902,10 @@
         <v>653</v>
       </c>
       <c r="C818" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D818" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
@@ -14613,10 +14913,10 @@
         <v>1031</v>
       </c>
       <c r="C819" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D819" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
@@ -14624,7 +14924,7 @@
         <v>654</v>
       </c>
       <c r="C820" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
@@ -14632,10 +14932,10 @@
         <v>1032</v>
       </c>
       <c r="C821" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="D821" t="s">
-        <v>2224</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
@@ -14643,10 +14943,10 @@
         <v>1033</v>
       </c>
       <c r="C822" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="D822" t="s">
-        <v>2225</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
@@ -14654,18 +14954,18 @@
         <v>655</v>
       </c>
       <c r="C823" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="C824" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="D824" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
@@ -14673,10 +14973,10 @@
         <v>656</v>
       </c>
       <c r="C825" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="D825" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
@@ -14684,10 +14984,10 @@
         <v>1034</v>
       </c>
       <c r="C826" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="D826" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
@@ -14695,7 +14995,7 @@
         <v>657</v>
       </c>
       <c r="C827" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
@@ -14703,7 +15003,7 @@
         <v>658</v>
       </c>
       <c r="C828" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
@@ -15236,10 +15536,10 @@
         <v>749</v>
       </c>
       <c r="C934" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="D934" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
@@ -15247,10 +15547,10 @@
         <v>1050</v>
       </c>
       <c r="C935" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="D935" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
@@ -15258,10 +15558,10 @@
         <v>1051</v>
       </c>
       <c r="C936" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="D936" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
@@ -15269,10 +15569,10 @@
         <v>1052</v>
       </c>
       <c r="C937" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D937" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
@@ -15280,10 +15580,10 @@
         <v>1056</v>
       </c>
       <c r="C938" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="D938" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
@@ -15306,10 +15606,10 @@
         <v>753</v>
       </c>
       <c r="C942" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D942" t="s">
         <v>1972</v>
-      </c>
-      <c r="D942" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
@@ -15317,10 +15617,10 @@
         <v>1053</v>
       </c>
       <c r="C943" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D943" t="s">
         <v>1973</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
@@ -15328,10 +15628,10 @@
         <v>1054</v>
       </c>
       <c r="C944" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D944" t="s">
         <v>1974</v>
-      </c>
-      <c r="D944" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
@@ -15479,7 +15779,7 @@
         <v>780</v>
       </c>
       <c r="C973" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
@@ -15487,7 +15787,7 @@
         <v>781</v>
       </c>
       <c r="C974" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
@@ -15495,10 +15795,10 @@
         <v>1058</v>
       </c>
       <c r="C975" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="D975" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
@@ -15506,7 +15806,7 @@
         <v>1059</v>
       </c>
       <c r="C976" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
@@ -15514,7 +15814,7 @@
         <v>1060</v>
       </c>
       <c r="C977" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
@@ -15522,7 +15822,7 @@
         <v>1061</v>
       </c>
       <c r="C978" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
@@ -15530,7 +15830,7 @@
         <v>1062</v>
       </c>
       <c r="C979" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
@@ -15538,7 +15838,7 @@
         <v>1063</v>
       </c>
       <c r="C980" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
@@ -15546,7 +15846,7 @@
         <v>1064</v>
       </c>
       <c r="C981" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
@@ -15554,7 +15854,7 @@
         <v>1065</v>
       </c>
       <c r="C982" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
@@ -15562,7 +15862,7 @@
         <v>1066</v>
       </c>
       <c r="C983" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
@@ -15570,7 +15870,7 @@
         <v>1067</v>
       </c>
       <c r="C984" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
@@ -15578,7 +15878,7 @@
         <v>1068</v>
       </c>
       <c r="C985" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
@@ -15586,7 +15886,7 @@
         <v>1069</v>
       </c>
       <c r="C986" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
@@ -15594,7 +15894,7 @@
         <v>1070</v>
       </c>
       <c r="C987" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
@@ -15602,7 +15902,7 @@
         <v>1071</v>
       </c>
       <c r="C988" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
@@ -15610,7 +15910,7 @@
         <v>1072</v>
       </c>
       <c r="C989" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
@@ -15618,7 +15918,7 @@
         <v>1073</v>
       </c>
       <c r="C990" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
@@ -15626,7 +15926,7 @@
         <v>1074</v>
       </c>
       <c r="C991" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
@@ -15729,7 +16029,7 @@
         <v>798</v>
       </c>
       <c r="C1011" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
@@ -15737,7 +16037,7 @@
         <v>799</v>
       </c>
       <c r="C1012" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
@@ -15745,7 +16045,7 @@
         <v>800</v>
       </c>
       <c r="C1013" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
@@ -15753,10 +16053,10 @@
         <v>1078</v>
       </c>
       <c r="C1014" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D1014" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
@@ -15764,7 +16064,7 @@
         <v>801</v>
       </c>
       <c r="C1015" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
@@ -15772,10 +16072,10 @@
         <v>1079</v>
       </c>
       <c r="C1016" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D1016" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1770" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{A38ACDE0-645D-4796-AF86-C99DCB7DA6E1}"/>
+  <xr:revisionPtr revIDLastSave="1845" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{A9D58EDF-EAE7-476F-A084-8918C84D670A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="2250">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -6745,6 +6745,36 @@
   </si>
   <si>
     <t>missing front, edit back</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>back is ready</t>
+  </si>
+  <si>
+    <t>normal ready</t>
+  </si>
+  <si>
+    <t>front edits</t>
+  </si>
+  <si>
+    <t>front ready</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>front only</t>
+  </si>
+  <si>
+    <t>zygarde 10</t>
+  </si>
+  <si>
+    <t>zygarde complete</t>
+  </si>
+  <si>
+    <t>Ultra Necrozma??</t>
   </si>
 </sst>
 </file>
@@ -7106,10 +7136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:T1224"/>
+  <dimension ref="A1:U1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" topLeftCell="K73" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7122,13 +7152,15 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7177,8 +7209,11 @@
       <c r="T1" s="2" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -7194,8 +7229,11 @@
       <c r="Q2" t="s">
         <v>2236</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -7218,7 +7256,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -7235,7 +7273,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>892</v>
       </c>
@@ -7254,8 +7292,11 @@
       <c r="Q5" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -7271,8 +7312,11 @@
       <c r="Q6" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -7288,8 +7332,11 @@
       <c r="Q7" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7305,8 +7352,11 @@
       <c r="Q8" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>893</v>
       </c>
@@ -7325,8 +7375,11 @@
       <c r="Q9" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>894</v>
       </c>
@@ -7345,8 +7398,11 @@
       <c r="Q10" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>895</v>
       </c>
@@ -7365,8 +7421,11 @@
       <c r="Q11" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -7389,7 +7448,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -7412,7 +7471,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -7435,7 +7494,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>896</v>
       </c>
@@ -7461,7 +7520,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -7477,8 +7536,11 @@
       <c r="Q16" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -7494,8 +7556,11 @@
       <c r="Q17" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -7511,8 +7576,11 @@
       <c r="Q18" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>897</v>
       </c>
@@ -7531,8 +7599,11 @@
       <c r="Q19" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7555,7 +7626,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -7571,8 +7642,11 @@
       <c r="Q21" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -7588,8 +7662,11 @@
       <c r="Q22" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>898</v>
       </c>
@@ -7609,7 +7686,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -7632,7 +7709,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -7655,7 +7732,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -7671,8 +7748,11 @@
       <c r="Q26" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>899</v>
       </c>
@@ -7698,7 +7778,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -7721,7 +7801,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>900</v>
       </c>
@@ -7740,8 +7820,11 @@
       <c r="Q29" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -7757,8 +7840,11 @@
       <c r="Q30" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>901</v>
       </c>
@@ -7777,8 +7863,11 @@
       <c r="Q31" t="s">
         <v>2236</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -7795,7 +7884,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -7811,8 +7900,11 @@
       <c r="Q33" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -7828,8 +7920,11 @@
       <c r="Q34" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -7846,7 +7941,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -7862,8 +7957,11 @@
       <c r="Q36" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>937</v>
       </c>
@@ -7880,10 +7978,10 @@
         <v>1621</v>
       </c>
       <c r="Q37" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -7900,7 +7998,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>902</v>
       </c>
@@ -7919,8 +8017,11 @@
       <c r="Q39" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -7936,8 +8037,11 @@
       <c r="Q40" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>903</v>
       </c>
@@ -7963,7 +8067,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -7979,8 +8083,11 @@
       <c r="Q42" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>904</v>
       </c>
@@ -7999,8 +8106,11 @@
       <c r="Q43" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -8016,8 +8126,11 @@
       <c r="Q44" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -8034,7 +8147,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -8051,7 +8164,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -8068,7 +8181,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -8084,8 +8197,11 @@
       <c r="Q48" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -8108,7 +8224,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
@@ -8131,7 +8247,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
@@ -8147,8 +8263,11 @@
       <c r="Q51" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -8164,8 +8283,11 @@
       <c r="Q52" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>905</v>
       </c>
@@ -8184,8 +8306,11 @@
       <c r="Q53" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -8193,7 +8318,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>906</v>
       </c>
@@ -8218,8 +8343,11 @@
       <c r="T55" s="2" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="2" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -8232,8 +8360,11 @@
       <c r="P56" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -8246,8 +8377,11 @@
       <c r="P57" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -8260,8 +8394,14 @@
       <c r="P58" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>1637</v>
+      </c>
+      <c r="R58" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -8275,7 +8415,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
@@ -8289,7 +8429,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
@@ -8303,7 +8443,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
@@ -8317,7 +8457,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
@@ -8331,7 +8471,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
@@ -8345,7 +8485,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -8359,7 +8499,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
@@ -8373,7 +8513,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
@@ -8387,7 +8527,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>907</v>
       </c>
@@ -8404,7 +8544,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
@@ -8418,7 +8558,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>908</v>
       </c>
@@ -8435,7 +8575,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
@@ -8449,7 +8589,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>909</v>
       </c>
@@ -8466,7 +8606,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>61</v>
       </c>
@@ -8479,8 +8619,11 @@
       <c r="P73" t="s">
         <v>2235</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>910</v>
       </c>
@@ -8491,7 +8634,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -8499,7 +8642,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>63</v>
       </c>
@@ -8521,85 +8664,124 @@
       <c r="T76" s="2" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="2" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C77" t="s">
         <v>1184</v>
       </c>
+      <c r="O77">
+        <v>793</v>
+      </c>
       <c r="P77" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q77" t="s">
+        <v>1637</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C78" t="s">
         <v>1185</v>
       </c>
+      <c r="O78">
+        <v>794</v>
+      </c>
       <c r="P78" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q78" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C79" t="s">
         <v>1186</v>
       </c>
+      <c r="O79">
+        <v>795</v>
+      </c>
       <c r="P79" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C80" t="s">
         <v>1187</v>
       </c>
+      <c r="O80">
+        <v>796</v>
+      </c>
       <c r="P80" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C81" t="s">
         <v>1188</v>
       </c>
+      <c r="O81">
+        <v>798</v>
+      </c>
       <c r="P81" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C82" t="s">
         <v>1189</v>
       </c>
+      <c r="O82">
+        <v>797</v>
+      </c>
       <c r="P82" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C83" t="s">
         <v>1190</v>
       </c>
+      <c r="O83">
+        <v>799</v>
+      </c>
       <c r="P83" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>911</v>
       </c>
@@ -8609,44 +8791,56 @@
       <c r="D84" t="s">
         <v>1525</v>
       </c>
+      <c r="O84">
+        <v>806</v>
+      </c>
       <c r="P84" t="s">
         <v>2041</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C85" t="s">
         <v>1192</v>
       </c>
+      <c r="O85">
+        <v>805</v>
+      </c>
       <c r="P85" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C86" t="s">
         <v>1193</v>
       </c>
+      <c r="O86">
+        <v>803</v>
+      </c>
       <c r="P86" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C87" t="s">
         <v>1194</v>
       </c>
+      <c r="O87">
+        <v>804</v>
+      </c>
       <c r="P87" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>912</v>
       </c>
@@ -8656,24 +8850,45 @@
       <c r="D88" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>718</v>
+      </c>
+      <c r="P88" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C89" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>718</v>
+      </c>
+      <c r="P89" t="s">
+        <v>2248</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C90" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P90" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
@@ -8681,7 +8896,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
@@ -8689,7 +8904,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>78</v>
       </c>
@@ -8697,7 +8912,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>79</v>
       </c>
@@ -8705,7 +8920,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
@@ -8713,7 +8928,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>81</v>
       </c>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1845" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{A9D58EDF-EAE7-476F-A084-8918C84D670A}"/>
+  <xr:revisionPtr revIDLastSave="1969" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B7BB0B70-FF2B-487F-AB8C-D34792338232}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="2250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="2353">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -6775,6 +6775,315 @@
   </si>
   <si>
     <t>Ultra Necrozma??</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>QUILLADIN</t>
+  </si>
+  <si>
+    <t>CHESNAUGHT</t>
+  </si>
+  <si>
+    <t>FENNEKIN</t>
+  </si>
+  <si>
+    <t>BRAIXEN</t>
+  </si>
+  <si>
+    <t>DELPHOX</t>
+  </si>
+  <si>
+    <t>FROAKIE</t>
+  </si>
+  <si>
+    <t>FROGADIER</t>
+  </si>
+  <si>
+    <t>GRENINJA</t>
+  </si>
+  <si>
+    <t>GRENINJA-1</t>
+  </si>
+  <si>
+    <t>BUNNELBY</t>
+  </si>
+  <si>
+    <t>DIGGERSBY</t>
+  </si>
+  <si>
+    <t>FLETCHLING</t>
+  </si>
+  <si>
+    <t>FLETCHINDER</t>
+  </si>
+  <si>
+    <t>TALONFLAME</t>
+  </si>
+  <si>
+    <t>SCATTERBUG</t>
+  </si>
+  <si>
+    <t>SPEWPA</t>
+  </si>
+  <si>
+    <t>VIVILLION</t>
+  </si>
+  <si>
+    <t>VIVILLION-1</t>
+  </si>
+  <si>
+    <t>ASH GRENINJA</t>
+  </si>
+  <si>
+    <t>BLACK VIVILLION</t>
+  </si>
+  <si>
+    <t>LITLEO</t>
+  </si>
+  <si>
+    <t>PYROAR</t>
+  </si>
+  <si>
+    <t>FLABEBE</t>
+  </si>
+  <si>
+    <t>FLOETTE</t>
+  </si>
+  <si>
+    <t>FLORGES</t>
+  </si>
+  <si>
+    <t>FLOETTE-1</t>
+  </si>
+  <si>
+    <t>ETERNAL FLOETTE</t>
+  </si>
+  <si>
+    <t>SKIDDO</t>
+  </si>
+  <si>
+    <t>GOGOAT</t>
+  </si>
+  <si>
+    <t>PANCHAM</t>
+  </si>
+  <si>
+    <t>PANGORO</t>
+  </si>
+  <si>
+    <t>FURFROU</t>
+  </si>
+  <si>
+    <t>ESPURR</t>
+  </si>
+  <si>
+    <t>MEOWSTIC</t>
+  </si>
+  <si>
+    <t>670-1</t>
+  </si>
+  <si>
+    <t>678-1</t>
+  </si>
+  <si>
+    <t>MEOWSTIC-1</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>HONEDGE</t>
+  </si>
+  <si>
+    <t>DOUBLADE</t>
+  </si>
+  <si>
+    <t>AEGISLASH</t>
+  </si>
+  <si>
+    <t>AEGISLASH-1</t>
+  </si>
+  <si>
+    <t>AEGISLASH-2</t>
+  </si>
+  <si>
+    <t>AEGISLASH-3</t>
+  </si>
+  <si>
+    <t>AEGISLASH-4</t>
+  </si>
+  <si>
+    <t>TIKI</t>
+  </si>
+  <si>
+    <t>OBSIDIAN</t>
+  </si>
+  <si>
+    <t>THOR</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>SPRITZEE</t>
+  </si>
+  <si>
+    <t>AROMATISSE</t>
+  </si>
+  <si>
+    <t>SWIRLIX</t>
+  </si>
+  <si>
+    <t>SLURPUFF</t>
+  </si>
+  <si>
+    <t>INKAY</t>
+  </si>
+  <si>
+    <t>MALAMAR</t>
+  </si>
+  <si>
+    <t>BINACLE</t>
+  </si>
+  <si>
+    <t>BARBACLE</t>
+  </si>
+  <si>
+    <t>SKRELP</t>
+  </si>
+  <si>
+    <t>DRAGALGE</t>
+  </si>
+  <si>
+    <t>CLAUNCHER</t>
+  </si>
+  <si>
+    <t>CLAWITZER</t>
+  </si>
+  <si>
+    <t>HELIOPTILE</t>
+  </si>
+  <si>
+    <t>HELIOLISK</t>
+  </si>
+  <si>
+    <t>TYRUNT</t>
+  </si>
+  <si>
+    <t>TYRANTRUM</t>
+  </si>
+  <si>
+    <t>AMAURA</t>
+  </si>
+  <si>
+    <t>AURORUS</t>
+  </si>
+  <si>
+    <t>SYLVEON</t>
+  </si>
+  <si>
+    <t>HAWLUCHA</t>
+  </si>
+  <si>
+    <t>HAWLUCHA-1</t>
+  </si>
+  <si>
+    <t>MEGA HAWLUCHA</t>
+  </si>
+  <si>
+    <t>DEDENNE</t>
+  </si>
+  <si>
+    <t>CARBINK</t>
+  </si>
+  <si>
+    <t>GOOMY</t>
+  </si>
+  <si>
+    <t>SLIGGOO</t>
+  </si>
+  <si>
+    <t>GOODRA</t>
+  </si>
+  <si>
+    <t>KLEFKI</t>
+  </si>
+  <si>
+    <t>GOODRA-1</t>
+  </si>
+  <si>
+    <t>SUNDRA</t>
+  </si>
+  <si>
+    <t>PHANTUMP</t>
+  </si>
+  <si>
+    <t>TREVENANT</t>
+  </si>
+  <si>
+    <t>PUMPKABOO</t>
+  </si>
+  <si>
+    <t>GOURGEIST</t>
+  </si>
+  <si>
+    <t>BERGMITE</t>
+  </si>
+  <si>
+    <t>AVALUGG</t>
+  </si>
+  <si>
+    <t>NOIBAT</t>
+  </si>
+  <si>
+    <t>NOIVERN</t>
+  </si>
+  <si>
+    <t>NOIVERN-1</t>
+  </si>
+  <si>
+    <t>XERNEAS</t>
+  </si>
+  <si>
+    <t>YVETAL</t>
+  </si>
+  <si>
+    <t>ZYGARDE</t>
+  </si>
+  <si>
+    <t>ZYGARDE-1</t>
+  </si>
+  <si>
+    <t>ZYGARDE-2</t>
+  </si>
+  <si>
+    <t>DIANCIE</t>
+  </si>
+  <si>
+    <t>DIANCIE-1</t>
+  </si>
+  <si>
+    <t>MEGA DIANCIE</t>
+  </si>
+  <si>
+    <t>HOOPA</t>
+  </si>
+  <si>
+    <t>HOOPA-1</t>
+  </si>
+  <si>
+    <t>HOOPA UNBOUND</t>
+  </si>
+  <si>
+    <t>VOLCANION</t>
+  </si>
+  <si>
+    <t>ROWLET</t>
   </si>
 </sst>
 </file>
@@ -6818,10 +7127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7136,10 +7446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:U1224"/>
+  <dimension ref="A1:U1226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K73" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
+      <selection activeCell="C915" sqref="C915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9481,7 +9791,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>135</v>
       </c>
@@ -9489,7 +9799,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>923</v>
       </c>
@@ -9500,7 +9810,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>136</v>
       </c>
@@ -9508,7 +9818,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>137</v>
       </c>
@@ -9516,7 +9826,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>924</v>
       </c>
@@ -9527,7 +9837,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>925</v>
       </c>
@@ -9537,8 +9847,11 @@
       <c r="D166" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>926</v>
       </c>
@@ -9548,8 +9861,11 @@
       <c r="D167" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>927</v>
       </c>
@@ -9559,8 +9875,11 @@
       <c r="D168" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>928</v>
       </c>
@@ -9570,8 +9889,11 @@
       <c r="D169" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>929</v>
       </c>
@@ -9581,8 +9903,11 @@
       <c r="D170" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>930</v>
       </c>
@@ -9592,8 +9917,11 @@
       <c r="D171" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>931</v>
       </c>
@@ -9604,7 +9932,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>932</v>
       </c>
@@ -9615,7 +9943,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>933</v>
       </c>
@@ -9626,7 +9954,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>934</v>
       </c>
@@ -9637,7 +9965,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>935</v>
       </c>
@@ -11867,7 +12195,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>337</v>
       </c>
@@ -11875,7 +12203,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>338</v>
       </c>
@@ -11883,7 +12211,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>965</v>
       </c>
@@ -11894,7 +12222,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>339</v>
       </c>
@@ -11902,7 +12230,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>340</v>
       </c>
@@ -11910,7 +12238,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>341</v>
       </c>
@@ -11918,7 +12246,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>342</v>
       </c>
@@ -11926,7 +12254,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>966</v>
       </c>
@@ -11937,7 +12265,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>967</v>
       </c>
@@ -11947,8 +12275,11 @@
       <c r="D441" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>968</v>
       </c>
@@ -11959,7 +12290,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>343</v>
       </c>
@@ -11967,7 +12298,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>344</v>
       </c>
@@ -11975,7 +12306,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>345</v>
       </c>
@@ -11983,7 +12314,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>346</v>
       </c>
@@ -11991,7 +12322,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>347</v>
       </c>
@@ -11999,7 +12330,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>348</v>
       </c>
@@ -13115,7 +13446,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>453</v>
       </c>
@@ -13123,7 +13454,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>991</v>
       </c>
@@ -13134,7 +13465,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>454</v>
       </c>
@@ -13142,7 +13473,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>455</v>
       </c>
@@ -13150,7 +13481,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>456</v>
       </c>
@@ -13158,7 +13489,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>992</v>
       </c>
@@ -13169,7 +13500,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>993</v>
       </c>
@@ -13179,8 +13510,11 @@
       <c r="D583" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E583" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>994</v>
       </c>
@@ -13191,7 +13525,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>457</v>
       </c>
@@ -13199,7 +13533,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>458</v>
       </c>
@@ -13207,7 +13541,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>459</v>
       </c>
@@ -13215,7 +13549,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>460</v>
       </c>
@@ -13223,7 +13557,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>461</v>
       </c>
@@ -13231,7 +13565,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>462</v>
       </c>
@@ -13239,7 +13573,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>463</v>
       </c>
@@ -13247,7 +13581,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>464</v>
       </c>
@@ -15225,1537 +15559,1859 @@
       <c r="A829" s="1" t="s">
         <v>659</v>
       </c>
+      <c r="C829" t="s">
+        <v>2251</v>
+      </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>660</v>
       </c>
+      <c r="C830" t="s">
+        <v>2252</v>
+      </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>661</v>
       </c>
+      <c r="C831" t="s">
+        <v>2253</v>
+      </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C832" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C833" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C834" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C835" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C836" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C837" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D837" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C838" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C839" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C840" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C841" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C842" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C843" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C844" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C845" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C846" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D846" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C847" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C848" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C849" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C850" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D851" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F851" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
+      <c r="C852" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="1" t="s">
+      <c r="C853" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="1" t="s">
+      <c r="C854" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="1" t="s">
+      <c r="C855" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="1" t="s">
+      <c r="C856" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="1" t="s">
+      <c r="C857" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="1" t="s">
+      <c r="C858" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="1" t="s">
+      <c r="C859" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D859" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D860" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="1" t="s">
+      <c r="C861" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="1" t="s">
+      <c r="C862" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="1" t="s">
+      <c r="C863" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D863" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="1" t="s">
+      <c r="C864" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D864" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="1" t="s">
+      <c r="C865" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D865" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="1" t="s">
+      <c r="C866" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D866" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="1" t="s">
+      <c r="C867" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D867" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="1" t="s">
+      <c r="C868" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="1" t="s">
+      <c r="C869" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
+      <c r="C870" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="1" t="s">
+      <c r="C871" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="1" t="s">
+      <c r="C872" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
+      <c r="C873" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="1" t="s">
+      <c r="C874" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="1" t="s">
+      <c r="C875" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="1" t="s">
+      <c r="C876" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="1" t="s">
+      <c r="C877" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="1" t="s">
+      <c r="C878" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="1" t="s">
+      <c r="C879" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="1" t="s">
+      <c r="C880" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="1" t="s">
+      <c r="C881" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="1" t="s">
+      <c r="C882" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="1" t="s">
+      <c r="C883" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="1" t="s">
+      <c r="C884" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="1" t="s">
+      <c r="C885" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="1" t="s">
+      <c r="C886" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="1" t="s">
+      <c r="C887" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="1" t="s">
+      <c r="C888" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D888" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="1" t="s">
+      <c r="C889" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="1" t="s">
+      <c r="C890" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="1" t="s">
+      <c r="C891" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="1" t="s">
+      <c r="C892" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="1" t="s">
+      <c r="C893" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="1" t="s">
+      <c r="C894" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D894" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="1" t="s">
+      <c r="C895" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="1" t="s">
+      <c r="C896" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="1" t="s">
+      <c r="C897" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="1" t="s">
+      <c r="C898" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="1" t="s">
+      <c r="C899" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="1" t="s">
+      <c r="C900" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="1" t="s">
+      <c r="C901" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="1" t="s">
+      <c r="C902" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="1" t="s">
+      <c r="C903" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" s="1" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="1" t="s">
+      <c r="C904" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="1" t="s">
+      <c r="C905" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="1" t="s">
+      <c r="C906" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="1" t="s">
+      <c r="C907" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" s="1" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="1" t="s">
+      <c r="C908" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D908" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" s="1" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="1" t="s">
+      <c r="C909" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D909" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="1" t="s">
+      <c r="C910" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="1" t="s">
+      <c r="C911" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D911" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="1" t="s">
+      <c r="C912" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="1" t="s">
+      <c r="C913" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D913" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="1" t="s">
+      <c r="C914" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="1" t="s">
+      <c r="C915" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="1" t="s">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="1" t="s">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="1" t="s">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="1" t="s">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="1" t="s">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="1" t="s">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="1" t="s">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="1" t="s">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="1" t="s">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="1" t="s">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="1" t="s">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="1" t="s">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928" s="1" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>745</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>1049</v>
+        <v>747</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C934" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D934" t="s">
-        <v>1981</v>
+        <v>748</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C935" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D935" t="s">
-        <v>1982</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>1051</v>
+        <v>749</v>
       </c>
       <c r="C936" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D936" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C937" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D937" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C938" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="D938" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>750</v>
+        <v>1052</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>751</v>
+        <v>1056</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C942" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D942" t="s">
-        <v>1972</v>
+        <v>751</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C943" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1973</v>
+        <v>752</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C944" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C945" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C944" t="s">
+      <c r="C946" t="s">
         <v>1971</v>
       </c>
-      <c r="D944" t="s">
+      <c r="D946" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="1" t="s">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="1" t="s">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="1" t="s">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="1" t="s">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="1" t="s">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="1" t="s">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="1" t="s">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952" s="1" t="s">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953" s="1" t="s">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954" s="1" t="s">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="1" t="s">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="1" t="s">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957" s="1" t="s">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958" s="1" t="s">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959" s="1" t="s">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" s="1" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="1" t="s">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A961" s="1" t="s">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A962" s="1" t="s">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A963" s="1" t="s">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A964" s="1" t="s">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A965" s="1" t="s">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A966" s="1" t="s">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A967" s="1" t="s">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A968" s="1" t="s">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A969" s="1" t="s">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A970" s="1" t="s">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A971" s="1" t="s">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A972" s="1" t="s">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A973" s="1" t="s">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C973" t="s">
+      <c r="C975" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A974" s="1" t="s">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C974" t="s">
+      <c r="C976" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A975" s="1" t="s">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C975" t="s">
+      <c r="C977" t="s">
         <v>1987</v>
       </c>
-      <c r="D975" t="s">
+      <c r="D977" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A976" s="1" t="s">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C976" t="s">
+      <c r="C978" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A977" s="1" t="s">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C977" t="s">
+      <c r="C979" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A978" s="1" t="s">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="C978" t="s">
+      <c r="C980" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A979" s="1" t="s">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C979" t="s">
+      <c r="C981" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A980" s="1" t="s">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C980" t="s">
+      <c r="C982" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A981" s="1" t="s">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C981" t="s">
+      <c r="C983" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A982" s="1" t="s">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C982" t="s">
+      <c r="C984" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A983" s="1" t="s">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C983" t="s">
+      <c r="C985" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A984" s="1" t="s">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C984" t="s">
+      <c r="C986" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A985" s="1" t="s">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C985" t="s">
+      <c r="C987" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A986" s="1" t="s">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C986" t="s">
+      <c r="C988" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A987" s="1" t="s">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C987" t="s">
+      <c r="C989" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A988" s="1" t="s">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C988" t="s">
+      <c r="C990" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A989" s="1" t="s">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C989" t="s">
+      <c r="C991" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A990" s="1" t="s">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C990" t="s">
+      <c r="C992" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A991" s="1" t="s">
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A993" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C991" t="s">
+      <c r="C993" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A992" s="1" t="s">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A994" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" s="1" t="s">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A995" s="1" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="1" t="s">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A996" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="1" t="s">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A997" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="1" t="s">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A998" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" s="1" t="s">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A999" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="1" t="s">
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" s="1" t="s">
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1" t="s">
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1" t="s">
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1" t="s">
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1" t="s">
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="1" t="s">
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="1" t="s">
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1" t="s">
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>2010</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>2009</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C1013" t="s">
-        <v>2005</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>1078</v>
+        <v>799</v>
       </c>
       <c r="C1014" t="s">
-        <v>2006</v>
-      </c>
-      <c r="D1014" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C1015" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C1016" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D1016" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>803</v>
+        <v>1079</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>2012</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
-        <v>1080</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
-        <v>828</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1108" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1109" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C1107" t="s">
+      <c r="C1109" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1108" s="1"/>
-    </row>
-    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1109" s="1"/>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1110" s="1"/>
@@ -17101,6 +17757,12 @@
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224" s="1"/>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1"/>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1969" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B7BB0B70-FF2B-487F-AB8C-D34792338232}"/>
+  <xr:revisionPtr revIDLastSave="1974" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{5657A2A4-4707-4B67-913E-082FF06B8F69}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="2353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="2354">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -7084,6 +7084,9 @@
   </si>
   <si>
     <t>ROWLET</t>
+  </si>
+  <si>
+    <t>Icons</t>
   </si>
 </sst>
 </file>
@@ -7448,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
-      <selection activeCell="C915" sqref="C915"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7496,9 +7499,12 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1081</v>
       </c>
       <c r="O1" t="s">

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1974" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{5657A2A4-4707-4B67-913E-082FF06B8F69}"/>
+  <xr:revisionPtr revIDLastSave="1995" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{38349B40-D827-4018-8D8E-FEB53A449222}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="2354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="2355">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -7087,6 +7087,9 @@
   </si>
   <si>
     <t>Icons</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
   </si>
 </sst>
 </file>
@@ -7451,8 +7454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9797,7 +9800,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>135</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>923</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>136</v>
       </c>
@@ -9824,15 +9827,30 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C164" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F164" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G164" t="s">
+        <v>2250</v>
+      </c>
+      <c r="H164" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>924</v>
       </c>
@@ -9842,8 +9860,11 @@
       <c r="D165" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>925</v>
       </c>
@@ -9857,7 +9878,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>926</v>
       </c>
@@ -9871,7 +9892,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>927</v>
       </c>
@@ -9885,7 +9906,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>928</v>
       </c>
@@ -9899,7 +9920,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>929</v>
       </c>
@@ -9913,7 +9934,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>930</v>
       </c>
@@ -9927,7 +9948,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>931</v>
       </c>
@@ -9937,8 +9958,11 @@
       <c r="D172" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>932</v>
       </c>
@@ -9948,8 +9972,11 @@
       <c r="D173" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>933</v>
       </c>
@@ -9959,8 +9986,11 @@
       <c r="D174" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>934</v>
       </c>
@@ -9970,8 +10000,11 @@
       <c r="D175" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>935</v>
       </c>
@@ -9981,16 +10014,31 @@
       <c r="D176" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C177" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F177" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G177" t="s">
+        <v>2250</v>
+      </c>
+      <c r="H177" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>936</v>
       </c>
@@ -10001,7 +10049,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>139</v>
       </c>
@@ -10009,7 +10057,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>140</v>
       </c>
@@ -10017,7 +10065,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>141</v>
       </c>
@@ -10025,7 +10073,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>142</v>
       </c>
@@ -10033,7 +10081,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>143</v>
       </c>
@@ -10041,7 +10089,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>144</v>
       </c>
@@ -10049,7 +10097,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>145</v>
       </c>
@@ -10057,7 +10105,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>146</v>
       </c>
@@ -10065,7 +10113,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>147</v>
       </c>
@@ -10073,7 +10121,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>148</v>
       </c>
@@ -10081,7 +10129,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>149</v>
       </c>
@@ -10089,7 +10137,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>150</v>
       </c>
@@ -10097,7 +10145,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>938</v>
       </c>
@@ -10108,7 +10156,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>151</v>
       </c>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2241" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{762F5F3E-6CD2-46B3-A24F-6E7475423133}"/>
+  <xr:revisionPtr revIDLastSave="2243" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{9AB7CED5-3458-43D6-8E0C-117B2FDC334B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="2524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="2526">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -7597,6 +7597,12 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>DRAGOMITE</t>
   </si>
 </sst>
 </file>
@@ -7961,8 +7967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A949" workbookViewId="0">
-      <selection activeCell="E1016" sqref="E1016:H1016"/>
+    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
+      <selection activeCell="C1110" sqref="C1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18834,7 +18840,12 @@
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1110" s="1"/>
+      <c r="A1110" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>2525</v>
+      </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1111" s="1"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2243" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{9AB7CED5-3458-43D6-8E0C-117B2FDC334B}"/>
+  <xr:revisionPtr revIDLastSave="2265" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D49DCB16-EB10-4B70-9965-82441181462C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="2526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="2568">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -7603,6 +7603,132 @@
   </si>
   <si>
     <t>DRAGOMITE</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>AGUANAUT</t>
+  </si>
+  <si>
+    <t>SNOME</t>
+  </si>
+  <si>
+    <t>SNOGRE</t>
+  </si>
+  <si>
+    <t>SCOVALOPE</t>
+  </si>
+  <si>
+    <t>CHLOROFIN</t>
+  </si>
+  <si>
+    <t>TURKISTADOR</t>
+  </si>
+  <si>
+    <t>PHLASK</t>
+  </si>
+  <si>
+    <t>NOXIAL</t>
+  </si>
+  <si>
+    <t>FUMIGAST</t>
+  </si>
+  <si>
+    <t>ORBATOM</t>
+  </si>
+  <si>
+    <t>MAGROPLEX</t>
+  </si>
+  <si>
+    <t>ROYJIBIV</t>
+  </si>
+  <si>
+    <t>CHILLNOBYL</t>
+  </si>
+  <si>
+    <t>BASILECT</t>
+  </si>
+  <si>
+    <t>DIAMAT</t>
+  </si>
+  <si>
+    <t>ENIGMANTIS</t>
+  </si>
+  <si>
+    <t>HYEKUZA</t>
+  </si>
+  <si>
+    <t>FORTHORN</t>
+  </si>
+  <si>
+    <t>CHARMBRA</t>
+  </si>
+  <si>
+    <t>XOCHI</t>
+  </si>
+  <si>
+    <t>XOTEC</t>
   </si>
 </sst>
 </file>
@@ -7967,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
-      <selection activeCell="C1110" sqref="C1110"/>
+    <sheetView tabSelected="1" topLeftCell="A1096" workbookViewId="0">
+      <selection activeCell="C1131" sqref="C1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18848,81 +18974,186 @@
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1111" s="1"/>
+      <c r="A1111" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>2547</v>
+      </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1112" s="1"/>
+      <c r="A1112" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>2548</v>
+      </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1113" s="1"/>
+      <c r="A1113" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1114" s="1"/>
+      <c r="A1114" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>2550</v>
+      </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1115" s="1"/>
+      <c r="A1115" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>2551</v>
+      </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1116" s="1"/>
+      <c r="A1116" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>2552</v>
+      </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1117" s="1"/>
+      <c r="A1117" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2553</v>
+      </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1118" s="1"/>
+      <c r="A1118" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>2554</v>
+      </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1119" s="1"/>
+      <c r="A1119" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1120" s="1"/>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" s="1"/>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" s="1"/>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" s="1"/>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" s="1"/>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" s="1"/>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1126" s="1"/>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1127" s="1"/>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1128" s="1"/>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" s="1"/>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" s="1"/>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1131" s="1"/>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1121" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1122" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1123" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1124" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1125" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1126" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1127" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1128" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1129" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1130" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1131" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1132" s="1"/>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1133" s="1"/>
     </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1134" s="1"/>
     </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1135" s="1"/>
     </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1136" s="1"/>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2265" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D49DCB16-EB10-4B70-9965-82441181462C}"/>
+  <xr:revisionPtr revIDLastSave="2279" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{CEE40BCA-619D-4805-866B-949E4F2FAC07}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="2568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="2568">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -8093,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1096" workbookViewId="0">
-      <selection activeCell="C1131" sqref="C1131"/>
+    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
+      <selection activeCell="E1075" sqref="E1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18282,7 +18282,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
         <v>808</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
         <v>809</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
         <v>810</v>
       </c>
@@ -18306,135 +18306,231 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C1028" t="s">
         <v>2441</v>
       </c>
-    </row>
-    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1028" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
         <v>812</v>
       </c>
       <c r="C1029" t="s">
         <v>2442</v>
       </c>
-    </row>
-    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1029" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
         <v>813</v>
       </c>
       <c r="C1030" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1030" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
         <v>814</v>
       </c>
       <c r="C1031" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1031" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
         <v>815</v>
       </c>
       <c r="C1032" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1032" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
         <v>816</v>
       </c>
       <c r="C1033" t="s">
         <v>2446</v>
       </c>
-    </row>
-    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1033" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C1034" t="s">
         <v>2447</v>
       </c>
-    </row>
-    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1034" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
         <v>818</v>
       </c>
       <c r="C1035" t="s">
         <v>2448</v>
       </c>
-    </row>
-    <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1035" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C1036" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1036" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
         <v>820</v>
       </c>
       <c r="C1037" t="s">
         <v>2450</v>
       </c>
-    </row>
-    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1037" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C1038" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1038" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
         <v>822</v>
       </c>
       <c r="C1039" t="s">
         <v>2452</v>
       </c>
-    </row>
-    <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1039" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
         <v>823</v>
       </c>
       <c r="C1040" t="s">
         <v>2453</v>
       </c>
-    </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1040" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
         <v>824</v>
       </c>
       <c r="C1041" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1041" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
         <v>825</v>
       </c>
       <c r="C1042" t="s">
         <v>2455</v>
       </c>
-    </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1042" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
         <v>826</v>
       </c>
       <c r="C1043" t="s">
         <v>2456</v>
       </c>
-    </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1043" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
         <v>1078</v>
       </c>
@@ -18444,88 +18540,154 @@
       <c r="D1044" t="s">
         <v>2458</v>
       </c>
-    </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1044" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
         <v>827</v>
       </c>
       <c r="C1045" t="s">
         <v>2459</v>
       </c>
-    </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1045" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
         <v>828</v>
       </c>
       <c r="C1046" t="s">
         <v>2460</v>
       </c>
-    </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1046" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
         <v>829</v>
       </c>
       <c r="C1047" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1047" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
         <v>830</v>
       </c>
       <c r="C1048" t="s">
         <v>2462</v>
       </c>
-    </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1048" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
         <v>831</v>
       </c>
       <c r="C1049" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1049" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
         <v>832</v>
       </c>
       <c r="C1050" t="s">
         <v>2464</v>
       </c>
-    </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1050" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
         <v>833</v>
       </c>
       <c r="C1051" t="s">
         <v>2465</v>
       </c>
-    </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1051" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
         <v>834</v>
       </c>
       <c r="C1052" t="s">
         <v>2466</v>
       </c>
-    </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1052" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C1053" t="s">
         <v>2467</v>
       </c>
-    </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1053" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
         <v>836</v>
       </c>
       <c r="C1054" t="s">
         <v>2468</v>
       </c>
-    </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1054" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
         <v>837</v>
       </c>
@@ -18533,7 +18695,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
         <v>838</v>
       </c>
@@ -18541,7 +18703,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
         <v>839</v>
       </c>
@@ -18549,7 +18711,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
         <v>840</v>
       </c>
@@ -18557,7 +18719,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
         <v>841</v>
       </c>
@@ -18565,7 +18727,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
         <v>842</v>
       </c>
@@ -18573,15 +18735,21 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C1061" t="s">
         <v>2475</v>
       </c>
-    </row>
-    <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1061" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
         <v>844</v>
       </c>
@@ -18589,7 +18757,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
         <v>845</v>
       </c>
@@ -18597,7 +18765,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
         <v>846</v>
       </c>
@@ -18605,7 +18773,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
         <v>847</v>
       </c>
@@ -18613,7 +18781,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
         <v>848</v>
       </c>
@@ -18621,7 +18789,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
         <v>849</v>
       </c>
@@ -18629,7 +18797,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
         <v>850</v>
       </c>
@@ -18637,7 +18805,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
         <v>851</v>
       </c>
@@ -18645,7 +18813,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
         <v>852</v>
       </c>
@@ -18653,7 +18821,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
         <v>853</v>
       </c>
@@ -18661,7 +18829,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
         <v>854</v>
       </c>
@@ -18669,7 +18837,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
         <v>855</v>
       </c>
@@ -18677,23 +18845,35 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
         <v>856</v>
       </c>
       <c r="C1074" t="s">
         <v>2488</v>
       </c>
-    </row>
-    <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1074" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
         <v>857</v>
       </c>
       <c r="C1075" t="s">
         <v>2489</v>
       </c>
-    </row>
-    <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1075" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
         <v>858</v>
       </c>
@@ -18701,7 +18881,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
         <v>859</v>
       </c>
@@ -18709,7 +18889,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
         <v>860</v>
       </c>
@@ -18717,7 +18897,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
         <v>861</v>
       </c>
@@ -18725,7 +18905,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
         <v>862</v>
       </c>
@@ -18733,7 +18913,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
         <v>863</v>
       </c>
@@ -18741,7 +18921,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
         <v>864</v>
       </c>
@@ -18749,7 +18929,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
         <v>865</v>
       </c>
@@ -18757,7 +18937,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
         <v>866</v>
       </c>
@@ -18765,7 +18945,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
         <v>867</v>
       </c>
@@ -18773,7 +18953,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
         <v>868</v>
       </c>
@@ -18781,7 +18961,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
         <v>869</v>
       </c>
@@ -18789,7 +18969,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
         <v>870</v>
       </c>
@@ -18925,7 +19105,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
         <v>887</v>
       </c>
@@ -18933,7 +19113,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
         <v>888</v>
       </c>
@@ -18941,7 +19121,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
         <v>889</v>
       </c>
@@ -18949,7 +19129,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
         <v>890</v>
       </c>
@@ -18957,15 +19137,21 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
         <v>891</v>
       </c>
       <c r="C1109" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1109" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" s="1" t="s">
         <v>2524</v>
       </c>
@@ -18973,187 +19159,313 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" s="1" t="s">
         <v>2526</v>
       </c>
       <c r="C1111" t="s">
         <v>2547</v>
       </c>
-    </row>
-    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1111" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
         <v>2527</v>
       </c>
       <c r="C1112" t="s">
         <v>2548</v>
       </c>
-    </row>
-    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1112" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
         <v>2528</v>
       </c>
       <c r="C1113" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1113" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
         <v>2529</v>
       </c>
       <c r="C1114" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1114" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
         <v>2530</v>
       </c>
       <c r="C1115" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1115" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
         <v>2531</v>
       </c>
       <c r="C1116" t="s">
         <v>2552</v>
       </c>
-    </row>
-    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1116" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
         <v>2532</v>
       </c>
       <c r="C1117" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1117" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
         <v>2533</v>
       </c>
       <c r="C1118" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1118" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
         <v>2534</v>
       </c>
       <c r="C1119" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1119" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
         <v>2535</v>
       </c>
       <c r="C1120" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1120" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
         <v>2536</v>
       </c>
       <c r="C1121" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1121" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
         <v>2537</v>
       </c>
       <c r="C1122" t="s">
         <v>2558</v>
       </c>
-    </row>
-    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1122" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
         <v>2538</v>
       </c>
       <c r="C1123" t="s">
         <v>2559</v>
       </c>
-    </row>
-    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1123" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
         <v>2539</v>
       </c>
       <c r="C1124" t="s">
         <v>2560</v>
       </c>
-    </row>
-    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1124" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
         <v>2540</v>
       </c>
       <c r="C1125" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1125" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
         <v>2541</v>
       </c>
       <c r="C1126" t="s">
         <v>2562</v>
       </c>
-    </row>
-    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1126" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
         <v>2542</v>
       </c>
       <c r="C1127" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1127" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1128" s="1" t="s">
         <v>2543</v>
       </c>
       <c r="C1128" t="s">
         <v>2564</v>
       </c>
-    </row>
-    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1128" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1129" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="C1129" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1129" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1130" s="1" t="s">
         <v>2545</v>
       </c>
       <c r="C1130" t="s">
         <v>2566</v>
       </c>
-    </row>
-    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1130" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1131" s="1" t="s">
         <v>2546</v>
       </c>
       <c r="C1131" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1131" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" s="1"/>
     </row>
-    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" s="1"/>
     </row>
-    <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1"/>
     </row>
-    <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1135" s="1"/>
     </row>
-    <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1136" s="1"/>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2279" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{CEE40BCA-619D-4805-866B-949E4F2FAC07}"/>
+  <xr:revisionPtr revIDLastSave="2287" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{EC06338B-1F3D-4F24-BA79-9313710D377E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="2568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="2574">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -7729,6 +7729,24 @@
   </si>
   <si>
     <t>XOTEC</t>
+  </si>
+  <si>
+    <t>818-2</t>
+  </si>
+  <si>
+    <t>818-2M</t>
+  </si>
+  <si>
+    <t>GOKRUNCH-2</t>
+  </si>
+  <si>
+    <t>GOKRUNCH-3</t>
+  </si>
+  <si>
+    <t>Virginia Form</t>
+  </si>
+  <si>
+    <t>Mega Virginia</t>
   </si>
 </sst>
 </file>
@@ -8091,10 +8109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:U1226"/>
+  <dimension ref="A1:U1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
-      <selection activeCell="E1075" sqref="E1075"/>
+    <sheetView tabSelected="1" topLeftCell="A1039" workbookViewId="0">
+      <selection activeCell="D1046" sqref="D1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18549,38 +18567,32 @@
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
-        <v>827</v>
+        <v>2568</v>
       </c>
       <c r="C1045" t="s">
-        <v>2459</v>
-      </c>
-      <c r="E1045" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1045" t="s">
-        <v>1635</v>
+        <v>2570</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>2572</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>828</v>
+        <v>2569</v>
       </c>
       <c r="C1046" t="s">
-        <v>2460</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1046" t="s">
-        <v>1635</v>
+        <v>2571</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>2573</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C1047" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="E1047" t="s">
         <v>1635</v>
@@ -18591,10 +18603,10 @@
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C1048" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="E1048" t="s">
         <v>1635</v>
@@ -18605,10 +18617,10 @@
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C1049" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="E1049" t="s">
         <v>1635</v>
@@ -18619,10 +18631,10 @@
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C1050" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="E1050" t="s">
         <v>1635</v>
@@ -18633,10 +18645,10 @@
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C1051" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="E1051" t="s">
         <v>1635</v>
@@ -18647,10 +18659,10 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C1052" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="E1052" t="s">
         <v>1635</v>
@@ -18661,10 +18673,10 @@
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C1053" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="E1053" t="s">
         <v>1635</v>
@@ -18675,10 +18687,10 @@
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C1054" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="E1054" t="s">
         <v>1635</v>
@@ -18689,482 +18701,488 @@
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C1055" t="s">
-        <v>2469</v>
+        <v>2467</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C1056" t="s">
-        <v>2470</v>
+        <v>2468</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C1057" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C1058" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C1059" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C1060" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C1061" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E1061" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1061" t="s">
-        <v>1635</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C1062" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C1063" t="s">
-        <v>2477</v>
+        <v>2475</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C1064" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C1065" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C1066" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C1067" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C1068" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C1069" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C1070" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C1071" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C1072" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C1073" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C1074" t="s">
-        <v>2488</v>
-      </c>
-      <c r="E1074" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1074" t="s">
-        <v>1635</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C1075" t="s">
-        <v>2489</v>
-      </c>
-      <c r="E1075" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1075" t="s">
-        <v>1635</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C1076" t="s">
-        <v>2490</v>
+        <v>2488</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C1077" t="s">
-        <v>2491</v>
+        <v>2489</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C1078" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C1079" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C1080" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C1081" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C1082" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C1083" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C1084" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C1085" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C1086" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C1087" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C1088" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C1089" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C1090" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C1091" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C1092" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C1093" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C1094" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C1095" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C1096" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C1097" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C1098" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C1099" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C1100" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C1101" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C1102" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C1103" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C1104" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1105" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C1106" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C1107" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C1108" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C1109" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E1109" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1109" t="s">
-        <v>1635</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" s="1" t="s">
-        <v>2524</v>
+        <v>890</v>
       </c>
       <c r="C1110" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" s="1" t="s">
-        <v>2526</v>
+        <v>891</v>
       </c>
       <c r="C1111" t="s">
-        <v>2547</v>
+        <v>1579</v>
       </c>
       <c r="E1111" t="s">
         <v>1635</v>
@@ -19175,24 +19193,18 @@
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="C1112" t="s">
-        <v>2548</v>
-      </c>
-      <c r="E1112" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1112" t="s">
-        <v>1635</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="C1113" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="E1113" t="s">
         <v>1635</v>
@@ -19203,10 +19215,10 @@
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="C1114" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="E1114" t="s">
         <v>1635</v>
@@ -19217,10 +19229,10 @@
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="C1115" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="E1115" t="s">
         <v>1635</v>
@@ -19231,10 +19243,10 @@
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="C1116" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="E1116" t="s">
         <v>1635</v>
@@ -19245,10 +19257,10 @@
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C1117" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="E1117" t="s">
         <v>1635</v>
@@ -19259,10 +19271,10 @@
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="C1118" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="E1118" t="s">
         <v>1635</v>
@@ -19273,10 +19285,10 @@
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="C1119" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="E1119" t="s">
         <v>1635</v>
@@ -19287,10 +19299,10 @@
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="C1120" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="E1120" t="s">
         <v>1635</v>
@@ -19301,10 +19313,10 @@
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="C1121" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="E1121" t="s">
         <v>1635</v>
@@ -19315,10 +19327,10 @@
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="C1122" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="E1122" t="s">
         <v>1635</v>
@@ -19329,10 +19341,10 @@
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="C1123" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="E1123" t="s">
         <v>1635</v>
@@ -19343,10 +19355,10 @@
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="C1124" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="E1124" t="s">
         <v>1635</v>
@@ -19357,10 +19369,10 @@
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="C1125" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="E1125" t="s">
         <v>1635</v>
@@ -19371,10 +19383,10 @@
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="C1126" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="E1126" t="s">
         <v>1635</v>
@@ -19385,10 +19397,10 @@
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="C1127" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="E1127" t="s">
         <v>1635</v>
@@ -19399,10 +19411,10 @@
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1128" s="1" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="C1128" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="E1128" t="s">
         <v>1635</v>
@@ -19413,10 +19425,10 @@
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1129" s="1" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="C1129" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="E1129" t="s">
         <v>1635</v>
@@ -19427,10 +19439,10 @@
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1130" s="1" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="C1130" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="E1130" t="s">
         <v>1635</v>
@@ -19441,10 +19453,10 @@
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1131" s="1" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="C1131" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="E1131" t="s">
         <v>1635</v>
@@ -19454,10 +19466,32 @@
       </c>
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1132" s="1"/>
+      <c r="A1132" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1133" s="1"/>
+      <c r="A1133" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1"/>
@@ -19737,6 +19771,12 @@
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226" s="1"/>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1"/>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2287" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{EC06338B-1F3D-4F24-BA79-9313710D377E}"/>
+  <xr:revisionPtr revIDLastSave="2336" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{C06A0214-4A73-4662-8E86-8CE86711C541}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="2574">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -8111,8 +8111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1039" workbookViewId="0">
-      <selection activeCell="D1046" sqref="D1046"/>
+    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="E742" sqref="E742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15489,7 +15489,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>577</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>578</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>579</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>580</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>581</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>1025</v>
       </c>
@@ -15539,8 +15539,11 @@
       <c r="D742" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E742" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>582</v>
       </c>
@@ -15548,7 +15551,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>583</v>
       </c>
@@ -15556,7 +15559,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>584</v>
       </c>
@@ -15564,7 +15567,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>585</v>
       </c>
@@ -15572,7 +15575,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>586</v>
       </c>
@@ -15580,7 +15583,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>587</v>
       </c>
@@ -15588,7 +15591,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>588</v>
       </c>
@@ -15596,7 +15599,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>589</v>
       </c>
@@ -15604,7 +15607,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>1026</v>
       </c>
@@ -15615,7 +15618,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>590</v>
       </c>
@@ -16013,7 +16016,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>637</v>
       </c>
@@ -16021,7 +16024,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>638</v>
       </c>
@@ -16029,7 +16032,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>639</v>
       </c>
@@ -16037,7 +16040,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>640</v>
       </c>
@@ -16045,7 +16048,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>641</v>
       </c>
@@ -16053,7 +16056,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>642</v>
       </c>
@@ -16061,7 +16064,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>643</v>
       </c>
@@ -16069,7 +16072,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>644</v>
       </c>
@@ -16077,7 +16080,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>645</v>
       </c>
@@ -16085,7 +16088,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>646</v>
       </c>
@@ -16093,7 +16096,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>647</v>
       </c>
@@ -16101,7 +16104,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>648</v>
       </c>
@@ -16109,7 +16112,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>649</v>
       </c>
@@ -16119,8 +16122,14 @@
       <c r="D813" t="s">
         <v>2208</v>
       </c>
-    </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E813" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>1029</v>
       </c>
@@ -16130,8 +16139,14 @@
       <c r="D814" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E814" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F814" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>650</v>
       </c>
@@ -16141,8 +16156,14 @@
       <c r="D815" t="s">
         <v>2208</v>
       </c>
-    </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E815" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F815" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>1030</v>
       </c>
@@ -16152,8 +16173,14 @@
       <c r="D816" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E816" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F816" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>651</v>
       </c>
@@ -16161,7 +16188,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>652</v>
       </c>
@@ -16169,7 +16196,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>653</v>
       </c>
@@ -16179,8 +16206,14 @@
       <c r="D819" t="s">
         <v>2208</v>
       </c>
-    </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E819" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16190,8 +16223,14 @@
       <c r="D820" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E820" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>654</v>
       </c>
@@ -16199,7 +16238,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>1032</v>
       </c>
@@ -16209,8 +16248,14 @@
       <c r="D822" t="s">
         <v>2228</v>
       </c>
-    </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E822" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>1033</v>
       </c>
@@ -16220,8 +16265,14 @@
       <c r="D823" t="s">
         <v>2229</v>
       </c>
-    </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E823" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>655</v>
       </c>
@@ -16229,7 +16280,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>2218</v>
       </c>
@@ -16239,8 +16290,14 @@
       <c r="D825" t="s">
         <v>2220</v>
       </c>
-    </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E825" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>656</v>
       </c>
@@ -16250,8 +16307,14 @@
       <c r="D826" t="s">
         <v>2224</v>
       </c>
-    </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E826" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F826" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>1034</v>
       </c>
@@ -16261,8 +16324,14 @@
       <c r="D827" t="s">
         <v>2223</v>
       </c>
-    </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E827" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F827" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>657</v>
       </c>
@@ -16270,7 +16339,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>658</v>
       </c>
@@ -16278,7 +16347,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>659</v>
       </c>
@@ -16286,7 +16355,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>660</v>
       </c>
@@ -16294,7 +16363,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>661</v>
       </c>
@@ -18575,6 +18644,12 @@
       <c r="D1045" t="s">
         <v>2572</v>
       </c>
+      <c r="E1045" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
@@ -18586,6 +18661,12 @@
       <c r="D1046" t="s">
         <v>2573</v>
       </c>
+      <c r="E1046" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
@@ -18734,6 +18815,12 @@
       <c r="C1057" t="s">
         <v>2469</v>
       </c>
+      <c r="E1057" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
@@ -18804,6 +18891,12 @@
       <c r="C1065" t="s">
         <v>2477</v>
       </c>
+      <c r="E1065" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
@@ -18812,6 +18905,12 @@
       <c r="C1066" t="s">
         <v>2478</v>
       </c>
+      <c r="E1066" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
@@ -18844,6 +18943,12 @@
       <c r="C1070" t="s">
         <v>2482</v>
       </c>
+      <c r="E1070" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
@@ -18920,6 +19025,12 @@
       <c r="C1078" t="s">
         <v>2490</v>
       </c>
+      <c r="E1078" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
@@ -18928,6 +19039,12 @@
       <c r="C1079" t="s">
         <v>2491</v>
       </c>
+      <c r="E1079" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
@@ -18936,6 +19053,12 @@
       <c r="C1080" t="s">
         <v>2492</v>
       </c>
+      <c r="E1080" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
@@ -18968,6 +19091,12 @@
       <c r="C1084" t="s">
         <v>2496</v>
       </c>
+      <c r="E1084" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
@@ -18976,6 +19105,12 @@
       <c r="C1085" t="s">
         <v>2497</v>
       </c>
+      <c r="E1085" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
@@ -19001,7 +19136,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
         <v>869</v>
       </c>
@@ -19009,7 +19144,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
         <v>870</v>
       </c>
@@ -19017,15 +19152,21 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
         <v>871</v>
       </c>
       <c r="C1091" t="s">
         <v>2503</v>
       </c>
-    </row>
-    <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1091" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
         <v>872</v>
       </c>
@@ -19033,7 +19174,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
         <v>873</v>
       </c>
@@ -19041,7 +19182,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
         <v>874</v>
       </c>
@@ -19049,7 +19190,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
         <v>875</v>
       </c>
@@ -19057,7 +19198,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
         <v>876</v>
       </c>
@@ -19065,7 +19206,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
         <v>877</v>
       </c>
@@ -19073,7 +19214,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
         <v>878</v>
       </c>
@@ -19081,7 +19222,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
         <v>879</v>
       </c>
@@ -19089,7 +19230,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
         <v>880</v>
       </c>
@@ -19097,7 +19238,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
         <v>881</v>
       </c>
@@ -19105,7 +19246,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
         <v>882</v>
       </c>
@@ -19113,7 +19254,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
         <v>883</v>
       </c>
@@ -19121,7 +19262,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
         <v>884</v>
       </c>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8111,8 +8111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="E742" sqref="E742"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2607" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{E25840D8-29DB-466D-8823-E8C793462F60}"/>
+  <xr:revisionPtr revIDLastSave="2657" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{52C0484D-177C-49A2-A52C-B6C3AB365043}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="2765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="2795">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -8320,6 +8320,96 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>TYRANTRUM-1</t>
+  </si>
+  <si>
+    <t>SKIDDO-1</t>
+  </si>
+  <si>
+    <t>GOGOAT-1</t>
+  </si>
+  <si>
+    <t>672-R</t>
+  </si>
+  <si>
+    <t>673-R</t>
+  </si>
+  <si>
+    <t>SCRAFTY-1</t>
+  </si>
+  <si>
+    <t>LILLIGANT-1</t>
+  </si>
+  <si>
+    <t>MEGA</t>
+  </si>
+  <si>
+    <t>FROSSLASS-1</t>
+  </si>
+  <si>
+    <t>MEGA FROSSLASS</t>
+  </si>
+  <si>
+    <t>AMBIPOM-1</t>
+  </si>
+  <si>
+    <t>BUDEW-1</t>
+  </si>
+  <si>
+    <t>ROSERADE-1</t>
+  </si>
+  <si>
+    <t>FLYGON-2</t>
+  </si>
+  <si>
+    <t>MEGA FLYGON H</t>
+  </si>
+  <si>
+    <t>SPINDA-1</t>
+  </si>
+  <si>
+    <t>ROSELIA-1</t>
+  </si>
+  <si>
+    <t>HOOH-1</t>
+  </si>
+  <si>
+    <t>ARISEN HOOH</t>
+  </si>
+  <si>
+    <t>AIPOM-1</t>
+  </si>
+  <si>
+    <t>LEDYBA-1</t>
+  </si>
+  <si>
+    <t>LEDIAN-1</t>
+  </si>
+  <si>
+    <t>STARMIE-1</t>
+  </si>
+  <si>
+    <t>MEGA STARMIE</t>
+  </si>
+  <si>
+    <t>WEEZING-1</t>
+  </si>
+  <si>
+    <t>KOFFING-1</t>
+  </si>
+  <si>
+    <t>TENTACRUEL-1</t>
+  </si>
+  <si>
+    <t>TENTACOOL-1</t>
+  </si>
+  <si>
+    <t>ARCANINE-1</t>
+  </si>
+  <si>
+    <t>MEGA ARCANINE</t>
   </si>
 </sst>
 </file>
@@ -8682,10 +8772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:U1299"/>
+  <dimension ref="A1:U1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1186" workbookViewId="0">
-      <selection activeCell="C1210" sqref="C1210"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10488,6 +10578,12 @@
       <c r="A93" s="1" t="s">
         <v>2574</v>
       </c>
+      <c r="C93" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2794</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -10619,6 +10715,12 @@
       <c r="A109" s="1" t="s">
         <v>2578</v>
       </c>
+      <c r="C109" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -10632,6 +10734,12 @@
       <c r="A111" s="1" t="s">
         <v>2579</v>
       </c>
+      <c r="C111" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -11035,6 +11143,12 @@
       <c r="A158" s="1" t="s">
         <v>2576</v>
       </c>
+      <c r="C158" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -11048,6 +11162,12 @@
       <c r="A160" s="1" t="s">
         <v>2577</v>
       </c>
+      <c r="C160" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -11152,6 +11272,12 @@
       <c r="A173" s="1" t="s">
         <v>2575</v>
       </c>
+      <c r="C173" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2788</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -11675,7 +11801,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>164</v>
       </c>
@@ -11683,7 +11809,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>165</v>
       </c>
@@ -11691,7 +11817,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>166</v>
       </c>
@@ -11699,7 +11825,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>167</v>
       </c>
@@ -11707,7 +11833,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>168</v>
       </c>
@@ -11715,7 +11841,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>169</v>
       </c>
@@ -11723,7 +11849,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>170</v>
       </c>
@@ -11731,7 +11857,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>171</v>
       </c>
@@ -11739,7 +11865,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>172</v>
       </c>
@@ -11747,7 +11873,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>173</v>
       </c>
@@ -11755,12 +11881,18 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>2580</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>174</v>
       </c>
@@ -11768,12 +11900,18 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>2581</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>175</v>
       </c>
@@ -11781,7 +11919,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>176</v>
       </c>
@@ -11789,7 +11927,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>177</v>
       </c>
@@ -11931,7 +12069,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>192</v>
       </c>
@@ -11939,7 +12077,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>193</v>
       </c>
@@ -11947,7 +12085,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>194</v>
       </c>
@@ -11955,7 +12093,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>195</v>
       </c>
@@ -11963,7 +12101,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>196</v>
       </c>
@@ -11971,7 +12109,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>197</v>
       </c>
@@ -11979,7 +12117,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>198</v>
       </c>
@@ -11987,12 +12125,18 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>2582</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D264" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>199</v>
       </c>
@@ -12000,7 +12144,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>200</v>
       </c>
@@ -12008,7 +12152,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>201</v>
       </c>
@@ -12016,7 +12160,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>202</v>
       </c>
@@ -12024,7 +12168,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>203</v>
       </c>
@@ -12032,7 +12176,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>204</v>
       </c>
@@ -12040,7 +12184,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>205</v>
       </c>
@@ -12048,7 +12192,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>206</v>
       </c>
@@ -12916,6 +13060,12 @@
       <c r="A365" s="1" t="s">
         <v>2619</v>
       </c>
+      <c r="C365" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D365" t="s">
+        <v>2783</v>
+      </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
@@ -13540,6 +13690,12 @@
       <c r="A440" s="1" t="s">
         <v>2620</v>
       </c>
+      <c r="C440" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
@@ -13663,6 +13819,12 @@
       <c r="A455" s="1" t="s">
         <v>2621</v>
       </c>
+      <c r="C455" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D455" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
@@ -13703,6 +13865,12 @@
       <c r="A460" s="1" t="s">
         <v>2622</v>
       </c>
+      <c r="C460" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D460" t="s">
+        <v>2779</v>
+      </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
@@ -14442,7 +14610,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>402</v>
       </c>
@@ -14450,7 +14618,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>403</v>
       </c>
@@ -14458,7 +14626,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>404</v>
       </c>
@@ -14466,7 +14634,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>405</v>
       </c>
@@ -14474,7 +14642,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>406</v>
       </c>
@@ -14482,7 +14650,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>407</v>
       </c>
@@ -14490,7 +14658,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>408</v>
       </c>
@@ -14498,7 +14666,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>409</v>
       </c>
@@ -14506,7 +14674,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>410</v>
       </c>
@@ -14514,7 +14682,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>411</v>
       </c>
@@ -14522,7 +14690,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>412</v>
       </c>
@@ -14530,7 +14698,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>413</v>
       </c>
@@ -14538,7 +14706,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>414</v>
       </c>
@@ -14546,12 +14714,18 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C558" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D558" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>415</v>
       </c>
@@ -14559,9 +14733,15 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>2624</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D560" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -14782,6 +14962,12 @@
       <c r="A584" s="1" t="s">
         <v>2625</v>
       </c>
+      <c r="C584" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D584" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
@@ -15299,6 +15485,12 @@
       <c r="A646" s="1" t="s">
         <v>2626</v>
       </c>
+      <c r="C646" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D646" t="s">
+        <v>2774</v>
+      </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
@@ -16157,6 +16349,12 @@
       <c r="A745" s="1" t="s">
         <v>2643</v>
       </c>
+      <c r="C745" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2772</v>
+      </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
@@ -16275,6 +16473,12 @@
       <c r="A759" s="1" t="s">
         <v>2644</v>
       </c>
+      <c r="C759" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D759" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
@@ -17804,648 +18008,645 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>681</v>
+        <v>2768</v>
       </c>
       <c r="C920" t="s">
-        <v>2275</v>
+        <v>2766</v>
+      </c>
+      <c r="D920" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C921" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>683</v>
+        <v>2769</v>
       </c>
       <c r="C922" t="s">
-        <v>2277</v>
+        <v>2767</v>
+      </c>
+      <c r="D922" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C923" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C924" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C925" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D925" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>2282</v>
+        <v>685</v>
       </c>
       <c r="C926" t="s">
-        <v>2283</v>
-      </c>
-      <c r="D926" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C927" t="s">
-        <v>2286</v>
+        <v>2280</v>
+      </c>
+      <c r="D927" t="s">
+        <v>2284</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>688</v>
+        <v>2282</v>
       </c>
       <c r="C928" t="s">
-        <v>2287</v>
+        <v>2283</v>
+      </c>
+      <c r="D928" t="s">
+        <v>2285</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C929" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D929" t="s">
-        <v>2001</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>1037</v>
+        <v>688</v>
       </c>
       <c r="C930" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D930" t="s">
-        <v>2742</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>1038</v>
+        <v>689</v>
       </c>
       <c r="C931" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D931" t="s">
-        <v>2293</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C932" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D932" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C933" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="D933" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>2747</v>
+        <v>1039</v>
       </c>
       <c r="C934" t="s">
-        <v>2737</v>
+        <v>2291</v>
       </c>
       <c r="D934" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>2750</v>
+        <v>1040</v>
       </c>
       <c r="C935" t="s">
-        <v>2738</v>
+        <v>2292</v>
       </c>
       <c r="D935" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C936" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="D936" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C937" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="D937" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C938" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="D938" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>690</v>
+        <v>2751</v>
       </c>
       <c r="C939" t="s">
-        <v>2297</v>
+        <v>2740</v>
+      </c>
+      <c r="D939" t="s">
+        <v>2296</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>691</v>
+        <v>2749</v>
       </c>
       <c r="C940" t="s">
-        <v>2298</v>
+        <v>2741</v>
+      </c>
+      <c r="D940" t="s">
+        <v>2746</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C941" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C942" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C943" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C944" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C945" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C946" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C947" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C948" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C949" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C950" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C951" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C952" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D952" t="s">
-        <v>2752</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C953" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C954" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>2752</v>
+        <v>704</v>
+      </c>
+      <c r="C955" t="s">
+        <v>2311</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C956" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>707</v>
+        <v>2752</v>
       </c>
       <c r="C957" t="s">
-        <v>2314</v>
+        <v>2765</v>
+      </c>
+      <c r="D957" t="s">
+        <v>2752</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C958" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C959" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>1041</v>
+        <v>708</v>
       </c>
       <c r="C960" t="s">
-        <v>2317</v>
-      </c>
-      <c r="D960" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C961" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>711</v>
+        <v>1041</v>
       </c>
       <c r="C962" t="s">
-        <v>2320</v>
+        <v>2317</v>
+      </c>
+      <c r="D962" t="s">
+        <v>2318</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C963" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C964" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C965" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>1042</v>
+        <v>713</v>
       </c>
       <c r="C966" t="s">
-        <v>2325</v>
-      </c>
-      <c r="D966" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C967" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>716</v>
+        <v>1042</v>
       </c>
       <c r="C968" t="s">
-        <v>2327</v>
+        <v>2325</v>
+      </c>
+      <c r="D968" t="s">
+        <v>2326</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C969" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C970" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C971" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C972" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C973" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C974" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C975" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>1043</v>
+        <v>722</v>
       </c>
       <c r="C976" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C977" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>725</v>
+        <v>1043</v>
       </c>
       <c r="C978" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C979" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>1044</v>
+        <v>725</v>
       </c>
       <c r="C980" t="s">
-        <v>2339</v>
-      </c>
-      <c r="D980" s="3">
-        <v>0.1</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>1045</v>
+        <v>726</v>
       </c>
       <c r="C981" t="s">
-        <v>2340</v>
-      </c>
-      <c r="D981" s="3">
-        <v>1</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>727</v>
+        <v>1044</v>
       </c>
       <c r="C982" t="s">
-        <v>2341</v>
+        <v>2339</v>
+      </c>
+      <c r="D982" s="3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C983" t="s">
-        <v>2342</v>
-      </c>
-      <c r="D983" t="s">
-        <v>2343</v>
+        <v>2340</v>
+      </c>
+      <c r="D983" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C984" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C985" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="D985" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C986" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>730</v>
+        <v>1047</v>
       </c>
       <c r="C987" t="s">
-        <v>2348</v>
-      </c>
-      <c r="E987" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F987" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G987" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H987" t="s">
-        <v>2523</v>
+        <v>2345</v>
+      </c>
+      <c r="D987" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C988" t="s">
-        <v>2355</v>
-      </c>
-      <c r="E988" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F988" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G988" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H988" t="s">
-        <v>2523</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C989" t="s">
-        <v>2356</v>
+        <v>2348</v>
+      </c>
+      <c r="E989" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F989" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G989" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H989" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C990" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="E990" t="s">
         <v>2523</v>
@@ -18462,38 +18663,38 @@
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C991" t="s">
-        <v>2358</v>
-      </c>
-      <c r="E991" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F991" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G991" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H991" t="s">
-        <v>2523</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C992" t="s">
-        <v>2359</v>
+        <v>2357</v>
+      </c>
+      <c r="E992" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F992" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G992" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H992" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C993" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="E993" t="s">
         <v>2523</v>
@@ -18510,38 +18711,38 @@
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C994" t="s">
-        <v>2361</v>
-      </c>
-      <c r="E994" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F994" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G994" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H994" t="s">
-        <v>2523</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C995" t="s">
-        <v>2362</v>
+        <v>2360</v>
+      </c>
+      <c r="E995" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F995" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G995" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H995" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C996" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E996" t="s">
         <v>2523</v>
@@ -18558,93 +18759,81 @@
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C997" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C998" t="s">
-        <v>2365</v>
+        <v>2363</v>
+      </c>
+      <c r="E998" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F998" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G998" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H998" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C999" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C1000" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>1048</v>
+        <v>742</v>
       </c>
       <c r="C1001" t="s">
-        <v>2373</v>
-      </c>
-      <c r="D1001" t="s">
-        <v>2374</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C1002" t="s">
-        <v>2368</v>
-      </c>
-      <c r="E1002" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1002" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1002" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1002" t="s">
-        <v>2523</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>745</v>
+        <v>1048</v>
       </c>
       <c r="C1003" t="s">
-        <v>2369</v>
-      </c>
-      <c r="E1003" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1003" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1003" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1003" t="s">
-        <v>2523</v>
+        <v>2373</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>2374</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C1004" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="E1004" t="s">
         <v>2523</v>
@@ -18661,338 +18850,347 @@
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C1005" t="s">
-        <v>2371</v>
+        <v>2369</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C1006" t="s">
-        <v>2372</v>
+        <v>2370</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>1049</v>
+        <v>747</v>
       </c>
       <c r="C1007" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D1007" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C1008" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>1978</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1009" t="s">
-        <v>1973</v>
+        <v>2375</v>
       </c>
       <c r="D1009" t="s">
-        <v>1979</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>1051</v>
+        <v>749</v>
       </c>
       <c r="C1010" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D1010" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C1011" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D1011" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C1012" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D1012" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>750</v>
+        <v>1052</v>
       </c>
       <c r="C1013" t="s">
-        <v>2377</v>
-      </c>
-      <c r="E1013" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1013" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1013" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1013" t="s">
-        <v>2523</v>
+        <v>1975</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>751</v>
+        <v>1056</v>
       </c>
       <c r="C1014" t="s">
-        <v>2378</v>
-      </c>
-      <c r="E1014" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1014" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1014" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1014" t="s">
-        <v>2523</v>
+        <v>1976</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C1015" t="s">
-        <v>2379</v>
+        <v>2377</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C1016" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>1969</v>
+        <v>2378</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1016" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>1053</v>
+        <v>752</v>
       </c>
       <c r="C1017" t="s">
-        <v>1967</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>1970</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>1054</v>
+        <v>753</v>
       </c>
       <c r="C1018" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="D1018" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>754</v>
+        <v>1053</v>
       </c>
       <c r="C1019" t="s">
-        <v>2388</v>
+        <v>1967</v>
       </c>
       <c r="D1019" t="s">
-        <v>2390</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C1020" t="s">
-        <v>2389</v>
+        <v>1968</v>
       </c>
       <c r="D1020" t="s">
-        <v>2391</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C1021" t="s">
-        <v>2380</v>
+        <v>2388</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>2390</v>
       </c>
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>756</v>
+        <v>1055</v>
       </c>
       <c r="C1022" t="s">
-        <v>2381</v>
+        <v>2389</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>2391</v>
       </c>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C1023" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C1024" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C1025" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C1026" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C1027" t="s">
-        <v>2386</v>
-      </c>
-      <c r="E1027" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1027" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1027" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1027" t="s">
-        <v>2523</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C1028" t="s">
-        <v>2387</v>
-      </c>
-      <c r="E1028" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1028" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1028" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1028" t="s">
-        <v>2523</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C1029" t="s">
-        <v>2392</v>
+        <v>2386</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C1030" t="s">
-        <v>2393</v>
+        <v>2387</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C1031" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C1032" t="s">
-        <v>2395</v>
-      </c>
-      <c r="E1032" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1032" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1032" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1032" t="s">
-        <v>2523</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
-        <v>1057</v>
+        <v>765</v>
       </c>
       <c r="C1033" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D1033" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C1034" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="E1034" t="s">
         <v>2523</v>
@@ -19009,30 +19207,21 @@
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
-        <v>768</v>
+        <v>1057</v>
       </c>
       <c r="C1035" t="s">
-        <v>2399</v>
-      </c>
-      <c r="E1035" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1035" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1035" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1035" t="s">
-        <v>2523</v>
+        <v>2396</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>2397</v>
       </c>
     </row>
     <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C1036" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="E1036" t="s">
         <v>2523</v>
@@ -19049,10 +19238,10 @@
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C1037" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="E1037" t="s">
         <v>2523</v>
@@ -19069,98 +19258,98 @@
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C1038" t="s">
-        <v>2402</v>
+        <v>2400</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C1039" t="s">
-        <v>2403</v>
+        <v>2401</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C1040" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C1041" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C1042" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C1043" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C1044" t="s">
-        <v>2408</v>
-      </c>
-      <c r="E1044" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1044" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1044" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1044" t="s">
-        <v>2523</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C1045" t="s">
-        <v>2409</v>
-      </c>
-      <c r="E1045" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1045" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1045" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1045" t="s">
-        <v>2523</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C1046" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E1046" t="s">
         <v>2523</v>
@@ -19177,235 +19366,283 @@
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C1047" t="s">
-        <v>1983</v>
+        <v>2409</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C1048" t="s">
-        <v>1982</v>
+        <v>2410</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>1058</v>
+        <v>780</v>
       </c>
       <c r="C1049" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D1049" t="s">
-        <v>2001</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
-        <v>1059</v>
+        <v>781</v>
       </c>
       <c r="C1050" t="s">
-        <v>1985</v>
+        <v>1982</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C1051" t="s">
-        <v>1986</v>
+        <v>1984</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C1052" t="s">
-        <v>1987</v>
+        <v>1985</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>2628</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C1053" t="s">
-        <v>1988</v>
+        <v>1986</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>2629</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C1054" t="s">
-        <v>1989</v>
+        <v>1987</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C1055" t="s">
-        <v>1990</v>
+        <v>1988</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>2630</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C1056" t="s">
-        <v>1991</v>
+        <v>1989</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>2631</v>
       </c>
     </row>
     <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C1057" t="s">
-        <v>1992</v>
+        <v>1990</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>2632</v>
       </c>
     </row>
     <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C1058" t="s">
-        <v>1993</v>
+        <v>1991</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>2633</v>
       </c>
     </row>
     <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C1059" t="s">
-        <v>1994</v>
+        <v>1992</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>2634</v>
       </c>
     </row>
     <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C1060" t="s">
-        <v>1995</v>
+        <v>1993</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>2635</v>
       </c>
     </row>
     <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C1061" t="s">
-        <v>1996</v>
+        <v>1994</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>2636</v>
       </c>
     </row>
     <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C1062" t="s">
-        <v>1997</v>
+        <v>1995</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>2637</v>
       </c>
     </row>
     <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C1063" t="s">
-        <v>1998</v>
+        <v>1996</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>2638</v>
       </c>
     </row>
     <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C1064" t="s">
-        <v>1999</v>
+        <v>1997</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>2639</v>
       </c>
     </row>
     <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C1065" t="s">
-        <v>2000</v>
+        <v>1998</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
-        <v>782</v>
+        <v>1073</v>
       </c>
       <c r="C1066" t="s">
-        <v>2411</v>
+        <v>1999</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>2641</v>
       </c>
     </row>
     <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1067" t="s">
-        <v>2412</v>
+        <v>2000</v>
       </c>
       <c r="D1067" t="s">
-        <v>2413</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C1068" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
-        <v>784</v>
+        <v>1075</v>
       </c>
       <c r="C1069" t="s">
-        <v>2415</v>
-      </c>
-      <c r="E1069" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1069" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1069" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1069" t="s">
-        <v>2523</v>
+        <v>2412</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>2413</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C1070" t="s">
-        <v>2416</v>
-      </c>
-      <c r="E1070" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1070" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1070" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1070" t="s">
-        <v>2523</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C1071" t="s">
-        <v>2417</v>
-      </c>
-      <c r="D1071" t="s">
-        <v>2350</v>
+        <v>2415</v>
       </c>
       <c r="E1071" t="s">
         <v>2523</v>
@@ -19422,353 +19659,368 @@
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C1072" t="s">
-        <v>2418</v>
+        <v>2416</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C1073" t="s">
-        <v>2419</v>
+        <v>2417</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
-        <v>1076</v>
+        <v>787</v>
       </c>
       <c r="C1074" t="s">
-        <v>2420</v>
-      </c>
-      <c r="D1074" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C1075" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
-        <v>790</v>
+        <v>1076</v>
       </c>
       <c r="C1076" t="s">
-        <v>2423</v>
-      </c>
-      <c r="E1076" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1076" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1076" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1076" t="s">
-        <v>2523</v>
+        <v>2420</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C1077" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C1078" t="s">
-        <v>2425</v>
+        <v>2423</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C1079" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C1080" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C1081" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C1082" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C1083" t="s">
-        <v>2006</v>
-      </c>
-      <c r="E1083" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1083" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1083" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1083" t="s">
-        <v>2523</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C1084" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E1084" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1084" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1084" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1084" t="s">
-        <v>2523</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C1085" t="s">
-        <v>2004</v>
+        <v>2006</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>2430</v>
+        <v>798</v>
       </c>
       <c r="C1086" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D1086" t="s">
-        <v>2008</v>
+        <v>2005</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C1087" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E1087" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1087" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1087" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1087" t="s">
-        <v>2523</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1089" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1090" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="C1088" t="s">
+      <c r="C1090" t="s">
         <v>2003</v>
       </c>
-      <c r="D1088" t="s">
+      <c r="D1090" t="s">
         <v>2007</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1089" s="1" t="s">
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1091" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C1089" t="s">
+      <c r="C1091" t="s">
         <v>2431</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1090" s="1" t="s">
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1092" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C1090" t="s">
+      <c r="C1092" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1091" s="1" t="s">
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1093" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C1091" t="s">
+      <c r="C1093" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1092" s="1" t="s">
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1094" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C1092" t="s">
+      <c r="C1094" t="s">
         <v>2434</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1093" s="1" t="s">
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1095" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C1093" t="s">
+      <c r="C1095" t="s">
         <v>2435</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1094" s="1" t="s">
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1096" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C1094" t="s">
+      <c r="C1096" t="s">
         <v>2436</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1095" s="1" t="s">
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1097" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C1095" t="s">
+      <c r="C1097" t="s">
         <v>2437</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1096" s="1" t="s">
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1098" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C1096" t="s">
+      <c r="C1098" t="s">
         <v>2438</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1097" s="1" t="s">
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1099" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C1097" t="s">
+      <c r="C1099" t="s">
         <v>2439</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1098" s="1" t="s">
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1100" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C1098" t="s">
+      <c r="C1100" t="s">
         <v>2440</v>
       </c>
     </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1099" s="1" t="s">
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1101" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C1099" t="s">
+      <c r="C1101" t="s">
         <v>2441</v>
       </c>
-      <c r="E1099" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1099" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1100" s="1" t="s">
+      <c r="E1101" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1102" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C1100" t="s">
+      <c r="C1102" t="s">
         <v>2442</v>
       </c>
-      <c r="E1100" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1100" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1101" s="1" t="s">
+      <c r="E1102" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1103" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C1101" t="s">
+      <c r="C1103" t="s">
         <v>2443</v>
       </c>
-      <c r="E1101" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1101" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1102" s="1" t="s">
+      <c r="E1103" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1104" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C1102" t="s">
+      <c r="C1104" t="s">
         <v>2444</v>
-      </c>
-      <c r="E1102" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1102" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1103" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C1103" t="s">
-        <v>2445</v>
-      </c>
-      <c r="E1103" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1103" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1104" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C1104" t="s">
-        <v>2446</v>
       </c>
       <c r="E1104" t="s">
         <v>1635</v>
@@ -19779,10 +20031,10 @@
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C1105" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="E1105" t="s">
         <v>1635</v>
@@ -19793,10 +20045,10 @@
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C1106" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="E1106" t="s">
         <v>1635</v>
@@ -19807,10 +20059,10 @@
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C1107" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="E1107" t="s">
         <v>1635</v>
@@ -19821,10 +20073,10 @@
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C1108" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="E1108" t="s">
         <v>1635</v>
@@ -19835,10 +20087,10 @@
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C1109" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="E1109" t="s">
         <v>1635</v>
@@ -19849,10 +20101,10 @@
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C1110" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="E1110" t="s">
         <v>1635</v>
@@ -19863,10 +20115,10 @@
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C1111" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="E1111" t="s">
         <v>1635</v>
@@ -19877,10 +20129,10 @@
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C1112" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="E1112" t="s">
         <v>1635</v>
@@ -19891,10 +20143,10 @@
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C1113" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="E1113" t="s">
         <v>1635</v>
@@ -19905,10 +20157,10 @@
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C1114" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="E1114" t="s">
         <v>1635</v>
@@ -19919,13 +20171,10 @@
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
-        <v>1078</v>
+        <v>825</v>
       </c>
       <c r="C1115" t="s">
-        <v>2457</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="E1115" t="s">
         <v>1635</v>
@@ -19936,13 +20185,10 @@
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
-        <v>2568</v>
+        <v>826</v>
       </c>
       <c r="C1116" t="s">
-        <v>2570</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>2572</v>
+        <v>2456</v>
       </c>
       <c r="E1116" t="s">
         <v>1635</v>
@@ -19953,13 +20199,13 @@
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
-        <v>2569</v>
+        <v>1078</v>
       </c>
       <c r="C1117" t="s">
-        <v>2571</v>
+        <v>2457</v>
       </c>
       <c r="D1117" t="s">
-        <v>2573</v>
+        <v>2458</v>
       </c>
       <c r="E1117" t="s">
         <v>1635</v>
@@ -19970,10 +20216,13 @@
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
-        <v>827</v>
+        <v>2568</v>
       </c>
       <c r="C1118" t="s">
-        <v>2459</v>
+        <v>2570</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>2572</v>
       </c>
       <c r="E1118" t="s">
         <v>1635</v>
@@ -19984,10 +20233,13 @@
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
-        <v>828</v>
+        <v>2569</v>
       </c>
       <c r="C1119" t="s">
-        <v>2460</v>
+        <v>2571</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>2573</v>
       </c>
       <c r="E1119" t="s">
         <v>1635</v>
@@ -19998,10 +20250,10 @@
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C1120" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="E1120" t="s">
         <v>1635</v>
@@ -20012,10 +20264,10 @@
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C1121" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="E1121" t="s">
         <v>1635</v>
@@ -20026,10 +20278,10 @@
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C1122" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="E1122" t="s">
         <v>1635</v>
@@ -20040,10 +20292,10 @@
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C1123" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="E1123" t="s">
         <v>1635</v>
@@ -20054,10 +20306,10 @@
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C1124" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="E1124" t="s">
         <v>1635</v>
@@ -20068,10 +20320,10 @@
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C1125" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="E1125" t="s">
         <v>1635</v>
@@ -20082,10 +20334,10 @@
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C1126" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="E1126" t="s">
         <v>1635</v>
@@ -20096,10 +20348,10 @@
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C1127" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="E1127" t="s">
         <v>1635</v>
@@ -20110,10 +20362,10 @@
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1128" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C1128" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="E1128" t="s">
         <v>1635</v>
@@ -20124,72 +20376,78 @@
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1129" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C1129" t="s">
-        <v>2470</v>
+        <v>2468</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1130" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C1130" t="s">
-        <v>2471</v>
+        <v>2469</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1131" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C1131" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C1132" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C1133" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C1134" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E1134" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1134" t="s">
-        <v>1635</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C1135" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1136" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C1136" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="E1136" t="s">
         <v>1635</v>
@@ -20200,130 +20458,124 @@
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1137" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C1137" t="s">
-        <v>2478</v>
-      </c>
-      <c r="E1137" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1137" t="s">
-        <v>1635</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C1138" t="s">
-        <v>2479</v>
+        <v>2477</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1139" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C1139" t="s">
-        <v>2480</v>
+        <v>2478</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1140" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C1140" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1141" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C1141" t="s">
-        <v>2482</v>
-      </c>
-      <c r="E1141" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1141" t="s">
-        <v>1635</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1142" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C1142" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1143" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C1143" t="s">
-        <v>2484</v>
+        <v>2482</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1144" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C1144" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1145" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C1145" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C1146" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C1147" t="s">
-        <v>2488</v>
-      </c>
-      <c r="E1147" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1147" t="s">
-        <v>1635</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1148" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C1148" t="s">
-        <v>2489</v>
-      </c>
-      <c r="E1148" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1148" t="s">
-        <v>1635</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1149" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C1149" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="E1149" t="s">
         <v>1635</v>
@@ -20334,10 +20586,10 @@
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1150" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C1150" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="E1150" t="s">
         <v>1635</v>
@@ -20348,10 +20600,10 @@
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1151" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C1151" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="E1151" t="s">
         <v>1635</v>
@@ -20362,290 +20614,296 @@
     </row>
     <row r="1152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1152" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C1152" t="s">
-        <v>2493</v>
+        <v>2491</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1153" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C1153" t="s">
-        <v>2494</v>
+        <v>2492</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1154" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C1154" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1155" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C1155" t="s">
-        <v>2496</v>
-      </c>
-      <c r="E1155" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1155" t="s">
-        <v>1635</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1156" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C1156" t="s">
-        <v>2497</v>
-      </c>
-      <c r="E1156" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1156" t="s">
-        <v>1635</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C1157" t="s">
-        <v>2498</v>
+        <v>2496</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1158" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C1158" t="s">
-        <v>2499</v>
+        <v>2497</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1159" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C1159" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1160" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C1160" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1161" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C1161" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1162" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C1162" t="s">
-        <v>2503</v>
-      </c>
-      <c r="E1162" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1162" t="s">
-        <v>1635</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1163" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C1163" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1164" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C1164" t="s">
-        <v>2505</v>
+        <v>2503</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1165" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C1165" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1166" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C1166" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1167" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C1167" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1168" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C1168" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1169" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C1169" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1170" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C1170" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1171" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C1171" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1172" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C1172" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1173" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C1173" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1174" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C1174" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1175" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C1175" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1176" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C1176" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1177" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C1177" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1178" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1178" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1179" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C1179" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1180" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C1180" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1181" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C1181" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C1182" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E1182" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1182" t="s">
-        <v>1635</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1183" s="1" t="s">
-        <v>2524</v>
+        <v>890</v>
       </c>
       <c r="C1183" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1184" s="1" t="s">
-        <v>2526</v>
+        <v>891</v>
       </c>
       <c r="C1184" t="s">
-        <v>2547</v>
+        <v>1579</v>
       </c>
       <c r="E1184" t="s">
         <v>1635</v>
@@ -20656,24 +20914,18 @@
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1185" s="1" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="C1185" t="s">
-        <v>2548</v>
-      </c>
-      <c r="E1185" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1185" t="s">
-        <v>1635</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1186" s="1" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="C1186" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="E1186" t="s">
         <v>1635</v>
@@ -20684,10 +20936,10 @@
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="C1187" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="E1187" t="s">
         <v>1635</v>
@@ -20698,10 +20950,10 @@
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1188" s="1" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="C1188" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="E1188" t="s">
         <v>1635</v>
@@ -20712,10 +20964,10 @@
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1189" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="C1189" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="E1189" t="s">
         <v>1635</v>
@@ -20726,10 +20978,10 @@
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1190" s="1" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C1190" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="E1190" t="s">
         <v>1635</v>
@@ -20740,10 +20992,10 @@
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1191" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="C1191" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="E1191" t="s">
         <v>1635</v>
@@ -20754,10 +21006,10 @@
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="C1192" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="E1192" t="s">
         <v>1635</v>
@@ -20768,10 +21020,10 @@
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1193" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="C1193" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="E1193" t="s">
         <v>1635</v>
@@ -20782,10 +21034,10 @@
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1194" s="1" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="C1194" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="E1194" t="s">
         <v>1635</v>
@@ -20796,10 +21048,10 @@
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1195" s="1" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="C1195" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="E1195" t="s">
         <v>1635</v>
@@ -20810,10 +21062,10 @@
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="C1196" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="E1196" t="s">
         <v>1635</v>
@@ -20824,10 +21076,10 @@
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1197" s="1" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="C1197" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="E1197" t="s">
         <v>1635</v>
@@ -20838,10 +21090,10 @@
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1198" s="1" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="C1198" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="E1198" t="s">
         <v>1635</v>
@@ -20852,10 +21104,10 @@
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1199" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="C1199" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="E1199" t="s">
         <v>1635</v>
@@ -20866,10 +21118,10 @@
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1200" s="1" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="C1200" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="E1200" t="s">
         <v>1635</v>
@@ -20880,10 +21132,10 @@
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1201" s="1" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="C1201" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="E1201" t="s">
         <v>1635</v>
@@ -20894,10 +21146,10 @@
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1202" s="1" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="C1202" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="E1202" t="s">
         <v>1635</v>
@@ -20908,10 +21160,10 @@
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="C1203" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="E1203" t="s">
         <v>1635</v>
@@ -20922,10 +21174,10 @@
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1204" s="1" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="C1204" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="E1204" t="s">
         <v>1635</v>
@@ -20936,57 +21188,79 @@
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1205" s="1" t="s">
-        <v>2753</v>
+        <v>2545</v>
       </c>
       <c r="C1205" t="s">
-        <v>2759</v>
+        <v>2566</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1206" s="1" t="s">
-        <v>2754</v>
+        <v>2546</v>
       </c>
       <c r="C1206" t="s">
-        <v>2760</v>
+        <v>2567</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1207" s="1" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="C1207" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1208" s="1" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="C1208" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1209" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="C1209" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1211" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1212" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="C1210" t="s">
+      <c r="C1212" t="s">
         <v>2764</v>
       </c>
-    </row>
-    <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1211" s="1"/>
-    </row>
-    <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1212" s="1"/>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1213" s="1"/>
@@ -21248,6 +21522,12 @@
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299" s="1"/>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="1"/>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1301" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2657" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{52C0484D-177C-49A2-A52C-B6C3AB365043}"/>
+  <xr:revisionPtr revIDLastSave="2667" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{8E166A5F-9FC4-4325-9790-189BC74E9F29}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="2795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="2813">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -8410,6 +8410,60 @@
   </si>
   <si>
     <t>MEGA ARCANINE</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>RAGNAROW</t>
+  </si>
+  <si>
+    <t>FLORESSUM</t>
+  </si>
+  <si>
+    <t>FLAIREES</t>
+  </si>
+  <si>
+    <t>KOBALT</t>
+  </si>
+  <si>
+    <t>ORANGUTAO</t>
+  </si>
+  <si>
+    <t>FORUSK</t>
+  </si>
+  <si>
+    <t>PLATIKHAO</t>
+  </si>
+  <si>
+    <t>GALAXAGOS</t>
+  </si>
+  <si>
+    <t>FUELONG</t>
   </si>
 </sst>
 </file>
@@ -8774,8 +8828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
   <dimension ref="A1:U1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A1185" workbookViewId="0">
+      <selection activeCell="C1221" sqref="C1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21263,63 +21317,108 @@
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1213" s="1"/>
+      <c r="A1213" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>2804</v>
+      </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1214" s="1"/>
+      <c r="A1214" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>2805</v>
+      </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1215" s="1"/>
+      <c r="A1215" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>2806</v>
+      </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1216" s="1"/>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="1"/>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218" s="1"/>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219" s="1"/>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220" s="1"/>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221" s="1"/>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1217" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1218" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1222" s="1"/>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1223" s="1"/>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1224" s="1"/>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1225" s="1"/>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1226" s="1"/>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1227" s="1"/>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1228" s="1"/>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1229" s="1"/>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1230" s="1"/>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1231" s="1"/>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1232" s="1"/>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2667" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{8E166A5F-9FC4-4325-9790-189BC74E9F29}"/>
+  <xr:revisionPtr revIDLastSave="2672" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{45700B2E-D7C0-4C95-AA1E-82A7A7D59EC5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="2813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="2816">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -8464,6 +8464,15 @@
   </si>
   <si>
     <t>FUELONG</t>
+  </si>
+  <si>
+    <t>559-R</t>
+  </si>
+  <si>
+    <t>SCRAGGY-1</t>
+  </si>
+  <si>
+    <t>SOLGALEO-1</t>
   </si>
 </sst>
 </file>
@@ -8826,10 +8835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:U1301"/>
+  <dimension ref="A1:U1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1185" workbookViewId="0">
-      <selection activeCell="C1221" sqref="C1221"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="D880" sqref="D880:D898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16517,736 +16526,730 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>568</v>
+        <v>2813</v>
       </c>
       <c r="C758" t="s">
-        <v>2116</v>
+        <v>2814</v>
+      </c>
+      <c r="D758" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>2644</v>
+        <v>568</v>
       </c>
       <c r="C759" t="s">
-        <v>2770</v>
-      </c>
-      <c r="D759" t="s">
-        <v>2721</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>569</v>
+        <v>2644</v>
       </c>
       <c r="C760" t="s">
-        <v>2117</v>
+        <v>2770</v>
+      </c>
+      <c r="D760" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C761" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C762" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C763" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C764" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C765" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C766" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C767" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C768" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C769" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C770" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C771" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C772" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>1025</v>
+        <v>581</v>
       </c>
       <c r="C773" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D773" t="s">
-        <v>2131</v>
-      </c>
-      <c r="E773" t="s">
-        <v>1635</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>582</v>
+        <v>1025</v>
       </c>
       <c r="C774" t="s">
-        <v>2132</v>
+        <v>2130</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C775" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C776" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C777" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C778" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C779" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C780" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C781" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
-        <v>1026</v>
+        <v>589</v>
       </c>
       <c r="C782" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D782" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
-        <v>590</v>
+        <v>1026</v>
       </c>
       <c r="C783" t="s">
-        <v>2142</v>
+        <v>2140</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C784" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C785" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C786" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C787" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C788" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
-        <v>1027</v>
+        <v>595</v>
       </c>
       <c r="C789" t="s">
-        <v>2179</v>
-      </c>
-      <c r="D789" t="s">
-        <v>2180</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
-        <v>596</v>
+        <v>1027</v>
       </c>
       <c r="C790" t="s">
-        <v>2148</v>
+        <v>2179</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2180</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C791" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C792" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C793" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C794" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C795" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C796" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C797" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C798" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C799" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C800" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C801" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C802" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C803" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C804" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C805" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C806" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C807" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C808" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C809" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C810" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C811" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C812" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C813" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C814" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C815" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C816" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C817" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C818" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C819" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C820" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>1028</v>
+        <v>626</v>
       </c>
       <c r="C821" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D821" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>627</v>
+        <v>1028</v>
       </c>
       <c r="C822" t="s">
-        <v>2183</v>
+        <v>2181</v>
+      </c>
+      <c r="D822" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C823" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C824" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C825" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C826" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C827" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C828" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C829" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C830" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C831" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C832" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C833" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C834" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C835" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C836" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C837" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C838" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C839" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C840" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C841" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C842" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C843" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C844" t="s">
-        <v>2205</v>
-      </c>
-      <c r="D844" t="s">
-        <v>2208</v>
-      </c>
-      <c r="E844" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F844" t="s">
-        <v>1635</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>1029</v>
+        <v>649</v>
       </c>
       <c r="C845" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D845" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E845" t="s">
         <v>1635</v>
@@ -17257,13 +17260,13 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>650</v>
+        <v>1029</v>
       </c>
       <c r="C846" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="D846" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E846" t="s">
         <v>1635</v>
@@ -17274,13 +17277,13 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>1030</v>
+        <v>650</v>
       </c>
       <c r="C847" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D847" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E847" t="s">
         <v>1635</v>
@@ -17291,46 +17294,46 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>651</v>
+        <v>1030</v>
       </c>
       <c r="C848" t="s">
-        <v>2211</v>
+        <v>2210</v>
+      </c>
+      <c r="D848" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C849" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C850" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D850" t="s">
-        <v>2208</v>
-      </c>
-      <c r="E850" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F850" t="s">
-        <v>1635</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>1031</v>
+        <v>653</v>
       </c>
       <c r="C851" t="s">
         <v>2213</v>
       </c>
       <c r="D851" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E851" t="s">
         <v>1635</v>
@@ -17341,38 +17344,38 @@
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>654</v>
+        <v>1031</v>
       </c>
       <c r="C852" t="s">
-        <v>2214</v>
+        <v>2213</v>
+      </c>
+      <c r="D852" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F852" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>1032</v>
+        <v>654</v>
       </c>
       <c r="C853" t="s">
-        <v>2215</v>
-      </c>
-      <c r="D853" t="s">
-        <v>2228</v>
-      </c>
-      <c r="E853" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F853" t="s">
-        <v>1635</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C854" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D854" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E854" t="s">
         <v>1635</v>
@@ -17383,38 +17386,38 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>655</v>
+        <v>1033</v>
       </c>
       <c r="C855" t="s">
-        <v>2217</v>
+        <v>2216</v>
+      </c>
+      <c r="D855" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>2218</v>
+        <v>655</v>
       </c>
       <c r="C856" t="s">
-        <v>2219</v>
-      </c>
-      <c r="D856" t="s">
-        <v>2220</v>
-      </c>
-      <c r="E856" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F856" t="s">
-        <v>1635</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>656</v>
+        <v>2218</v>
       </c>
       <c r="C857" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="D857" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="E857" t="s">
         <v>1635</v>
@@ -17425,13 +17428,13 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>1034</v>
+        <v>656</v>
       </c>
       <c r="C858" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D858" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E858" t="s">
         <v>1635</v>
@@ -17442,1265 +17445,1262 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>657</v>
+        <v>1034</v>
       </c>
       <c r="C859" t="s">
-        <v>2225</v>
+        <v>2222</v>
+      </c>
+      <c r="D859" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F859" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C860" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C861" t="s">
-        <v>2247</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C862" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C863" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C864" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C865" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C866" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C867" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C868" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>1035</v>
+        <v>666</v>
       </c>
       <c r="C869" t="s">
-        <v>2255</v>
-      </c>
-      <c r="D869" t="s">
-        <v>2265</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>667</v>
+        <v>1035</v>
       </c>
       <c r="C870" t="s">
-        <v>2256</v>
+        <v>2255</v>
+      </c>
+      <c r="D870" t="s">
+        <v>2265</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C871" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C872" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C873" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C874" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C875" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C876" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C877" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D877" t="s">
-        <v>2663</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>1036</v>
+        <v>674</v>
       </c>
       <c r="C878" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D878" t="s">
-        <v>2266</v>
-      </c>
-      <c r="E878" t="s">
-        <v>2246</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>2684</v>
+        <v>1036</v>
       </c>
       <c r="C879" t="s">
-        <v>2645</v>
+        <v>2264</v>
       </c>
       <c r="D879" t="s">
-        <v>2664</v>
+        <v>2266</v>
+      </c>
+      <c r="E879" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="C880" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D880" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="C881" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D881" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="C882" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D882" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="C883" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D883" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C884" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D884" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="C885" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D885" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C886" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D886" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C887" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D887" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C888" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D888" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="C889" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D889" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C890" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D890" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="C891" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D891" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="C892" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D892" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C893" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D893" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C894" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D894" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="C895" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D895" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="C896" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D896" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="C897" t="s">
-        <v>2682</v>
+        <v>2662</v>
       </c>
       <c r="D897" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>675</v>
+        <v>2702</v>
       </c>
       <c r="C898" t="s">
-        <v>2267</v>
+        <v>2682</v>
+      </c>
+      <c r="D898" t="s">
+        <v>2683</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C899" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C900" t="s">
-        <v>2269</v>
-      </c>
-      <c r="D900" t="s">
-        <v>2103</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>2722</v>
+        <v>677</v>
       </c>
       <c r="C901" t="s">
-        <v>2703</v>
+        <v>2269</v>
       </c>
       <c r="D901" t="s">
-        <v>2718</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C902" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D902" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="C903" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D903" t="s">
-        <v>2104</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C904" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D904" t="s">
-        <v>2720</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="C905" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D905" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>678</v>
+        <v>2726</v>
       </c>
       <c r="C906" t="s">
-        <v>2270</v>
+        <v>2707</v>
       </c>
       <c r="D906" t="s">
-        <v>2103</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>2281</v>
+        <v>678</v>
       </c>
       <c r="C907" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="D907" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E907" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F907" t="s">
-        <v>1470</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>2727</v>
+        <v>2281</v>
       </c>
       <c r="C908" t="s">
-        <v>2708</v>
+        <v>2272</v>
       </c>
       <c r="D908" t="s">
-        <v>2718</v>
+        <v>2273</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F908" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="C909" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D909" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="C910" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D910" t="s">
-        <v>2104</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="C911" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D911" t="s">
-        <v>2720</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C912" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D912" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>679</v>
+        <v>2731</v>
       </c>
       <c r="C913" t="s">
-        <v>2271</v>
+        <v>2712</v>
       </c>
       <c r="D913" t="s">
-        <v>2103</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>2732</v>
+        <v>679</v>
       </c>
       <c r="C914" t="s">
-        <v>2713</v>
+        <v>2271</v>
       </c>
       <c r="D914" t="s">
-        <v>2718</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="C915" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D915" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="C916" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D916" t="s">
-        <v>2104</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C917" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D917" t="s">
-        <v>2720</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="C918" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D918" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>680</v>
+        <v>2736</v>
       </c>
       <c r="C919" t="s">
-        <v>2274</v>
+        <v>2717</v>
+      </c>
+      <c r="D919" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>2768</v>
+        <v>680</v>
       </c>
       <c r="C920" t="s">
-        <v>2766</v>
-      </c>
-      <c r="D920" t="s">
-        <v>2721</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>681</v>
+        <v>2768</v>
       </c>
       <c r="C921" t="s">
-        <v>2275</v>
+        <v>2766</v>
+      </c>
+      <c r="D921" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>2769</v>
+        <v>681</v>
       </c>
       <c r="C922" t="s">
-        <v>2767</v>
-      </c>
-      <c r="D922" t="s">
-        <v>2721</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>682</v>
+        <v>2769</v>
       </c>
       <c r="C923" t="s">
-        <v>2276</v>
+        <v>2767</v>
+      </c>
+      <c r="D923" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C924" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C925" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C926" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C927" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D927" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>2282</v>
+        <v>686</v>
       </c>
       <c r="C928" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="D928" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>687</v>
+        <v>2282</v>
       </c>
       <c r="C929" t="s">
-        <v>2286</v>
+        <v>2283</v>
+      </c>
+      <c r="D929" t="s">
+        <v>2285</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C930" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C931" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D931" t="s">
-        <v>2001</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>1037</v>
+        <v>689</v>
       </c>
       <c r="C932" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D932" t="s">
-        <v>2742</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C933" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D933" t="s">
-        <v>2293</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C934" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D934" t="s">
-        <v>2743</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C935" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D935" t="s">
-        <v>2294</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>2747</v>
+        <v>1040</v>
       </c>
       <c r="C936" t="s">
-        <v>2737</v>
+        <v>2292</v>
       </c>
       <c r="D936" t="s">
-        <v>2744</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="C937" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D937" t="s">
-        <v>2295</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="C938" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D938" t="s">
-        <v>2745</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="C939" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D939" t="s">
-        <v>2296</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="C940" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D940" t="s">
-        <v>2746</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>690</v>
+        <v>2749</v>
       </c>
       <c r="C941" t="s">
-        <v>2297</v>
+        <v>2741</v>
+      </c>
+      <c r="D941" t="s">
+        <v>2746</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C942" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C943" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C944" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C945" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C946" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C947" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C948" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C949" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C950" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C951" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C952" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C953" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C954" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C955" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C956" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>2752</v>
+        <v>705</v>
       </c>
       <c r="C957" t="s">
-        <v>2765</v>
-      </c>
-      <c r="D957" t="s">
-        <v>2752</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>706</v>
+        <v>2752</v>
       </c>
       <c r="C958" t="s">
-        <v>2313</v>
+        <v>2765</v>
+      </c>
+      <c r="D958" t="s">
+        <v>2752</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C959" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C960" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C961" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>1041</v>
+        <v>709</v>
       </c>
       <c r="C962" t="s">
-        <v>2317</v>
-      </c>
-      <c r="D962" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>710</v>
+        <v>1041</v>
       </c>
       <c r="C963" t="s">
-        <v>2319</v>
+        <v>2317</v>
+      </c>
+      <c r="D963" t="s">
+        <v>2318</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C964" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C965" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C966" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C967" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>1042</v>
+        <v>714</v>
       </c>
       <c r="C968" t="s">
-        <v>2325</v>
-      </c>
-      <c r="D968" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>715</v>
+        <v>1042</v>
       </c>
       <c r="C969" t="s">
-        <v>2324</v>
+        <v>2325</v>
+      </c>
+      <c r="D969" t="s">
+        <v>2326</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C970" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C971" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C972" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C973" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C974" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C975" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C976" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C977" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>1043</v>
+        <v>723</v>
       </c>
       <c r="C978" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>724</v>
+        <v>1043</v>
       </c>
       <c r="C979" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C980" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C981" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>1044</v>
+        <v>726</v>
       </c>
       <c r="C982" t="s">
-        <v>2339</v>
-      </c>
-      <c r="D982" s="3">
-        <v>0.1</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C983" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D983" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>727</v>
+        <v>1045</v>
       </c>
       <c r="C984" t="s">
-        <v>2341</v>
+        <v>2340</v>
+      </c>
+      <c r="D984" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>1046</v>
+        <v>727</v>
       </c>
       <c r="C985" t="s">
-        <v>2342</v>
-      </c>
-      <c r="D985" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>728</v>
+        <v>1046</v>
       </c>
       <c r="C986" t="s">
-        <v>2344</v>
+        <v>2342</v>
+      </c>
+      <c r="D986" t="s">
+        <v>2343</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>1047</v>
+        <v>728</v>
       </c>
       <c r="C987" t="s">
-        <v>2345</v>
-      </c>
-      <c r="D987" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>729</v>
+        <v>1047</v>
       </c>
       <c r="C988" t="s">
-        <v>2347</v>
+        <v>2345</v>
+      </c>
+      <c r="D988" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C989" t="s">
-        <v>2348</v>
-      </c>
-      <c r="E989" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F989" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G989" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H989" t="s">
-        <v>2523</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C990" t="s">
-        <v>2355</v>
+        <v>2348</v>
       </c>
       <c r="E990" t="s">
         <v>2523</v>
@@ -18717,38 +18717,38 @@
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C991" t="s">
-        <v>2356</v>
+        <v>2355</v>
+      </c>
+      <c r="E991" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F991" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G991" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H991" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C992" t="s">
-        <v>2357</v>
-      </c>
-      <c r="E992" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F992" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G992" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H992" t="s">
-        <v>2523</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C993" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E993" t="s">
         <v>2523</v>
@@ -18765,38 +18765,38 @@
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C994" t="s">
-        <v>2359</v>
+        <v>2358</v>
+      </c>
+      <c r="E994" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F994" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G994" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H994" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C995" t="s">
-        <v>2360</v>
-      </c>
-      <c r="E995" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F995" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G995" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H995" t="s">
-        <v>2523</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C996" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E996" t="s">
         <v>2523</v>
@@ -18813,101 +18813,101 @@
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C997" t="s">
-        <v>2362</v>
+        <v>2361</v>
+      </c>
+      <c r="E997" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F997" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G997" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H997" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C998" t="s">
-        <v>2363</v>
-      </c>
-      <c r="E998" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F998" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G998" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H998" t="s">
-        <v>2523</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C999" t="s">
-        <v>2364</v>
+        <v>2363</v>
+      </c>
+      <c r="E999" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F999" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G999" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H999" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C1000" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C1001" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C1002" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>1048</v>
+        <v>743</v>
       </c>
       <c r="C1003" t="s">
-        <v>2373</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>2374</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>744</v>
+        <v>1048</v>
       </c>
       <c r="C1004" t="s">
-        <v>2368</v>
-      </c>
-      <c r="E1004" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1004" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1004" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1004" t="s">
-        <v>2523</v>
+        <v>2373</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>2374</v>
       </c>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C1005" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E1005" t="s">
         <v>2523</v>
@@ -18924,10 +18924,10 @@
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C1006" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E1006" t="s">
         <v>2523</v>
@@ -18944,112 +18944,112 @@
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C1007" t="s">
-        <v>2371</v>
+        <v>2370</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C1008" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>1049</v>
+        <v>748</v>
       </c>
       <c r="C1009" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D1009" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>749</v>
+        <v>1049</v>
       </c>
       <c r="C1010" t="s">
-        <v>1972</v>
+        <v>2375</v>
       </c>
       <c r="D1010" t="s">
-        <v>1978</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>1050</v>
+        <v>749</v>
       </c>
       <c r="C1011" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D1011" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C1012" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D1012" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C1013" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D1013" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C1014" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D1014" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>750</v>
+        <v>1056</v>
       </c>
       <c r="C1015" t="s">
-        <v>2377</v>
-      </c>
-      <c r="E1015" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1015" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1015" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1015" t="s">
-        <v>2523</v>
+        <v>1976</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C1016" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E1016" t="s">
         <v>2523</v>
@@ -19066,141 +19066,141 @@
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C1017" t="s">
-        <v>2379</v>
+        <v>2378</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C1018" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>1969</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>1053</v>
+        <v>753</v>
       </c>
       <c r="C1019" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D1019" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1020" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D1020" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>754</v>
+        <v>1054</v>
       </c>
       <c r="C1021" t="s">
-        <v>2388</v>
+        <v>1968</v>
       </c>
       <c r="D1021" t="s">
-        <v>2390</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>1055</v>
+        <v>754</v>
       </c>
       <c r="C1022" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D1022" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>755</v>
+        <v>1055</v>
       </c>
       <c r="C1023" t="s">
-        <v>2380</v>
+        <v>2389</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>2391</v>
       </c>
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C1024" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C1025" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1026" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C1027" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C1028" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C1029" t="s">
-        <v>2386</v>
-      </c>
-      <c r="E1029" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1029" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1029" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1029" t="s">
-        <v>2523</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1030" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E1030" t="s">
         <v>2523</v>
@@ -19217,85 +19217,85 @@
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C1031" t="s">
-        <v>2392</v>
+        <v>2387</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C1032" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C1033" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C1034" t="s">
-        <v>2395</v>
-      </c>
-      <c r="E1034" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1034" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1034" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1034" t="s">
-        <v>2523</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
-        <v>1057</v>
+        <v>766</v>
       </c>
       <c r="C1035" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D1035" t="s">
-        <v>2397</v>
+        <v>2395</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
-        <v>767</v>
+        <v>1057</v>
       </c>
       <c r="C1036" t="s">
-        <v>2398</v>
-      </c>
-      <c r="E1036" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1036" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1036" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1036" t="s">
-        <v>2523</v>
+        <v>2396</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>2397</v>
       </c>
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C1037" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E1037" t="s">
         <v>2523</v>
@@ -19312,10 +19312,10 @@
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C1038" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E1038" t="s">
         <v>2523</v>
@@ -19332,10 +19332,10 @@
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C1039" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E1039" t="s">
         <v>2523</v>
@@ -19352,78 +19352,78 @@
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C1040" t="s">
-        <v>2402</v>
+        <v>2401</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C1041" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C1042" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C1043" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C1044" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C1045" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C1046" t="s">
-        <v>2408</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1046" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1046" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1046" t="s">
-        <v>2523</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C1047" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E1047" t="s">
         <v>2523</v>
@@ -19440,10 +19440,10 @@
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C1048" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E1048" t="s">
         <v>2523</v>
@@ -19460,263 +19460,263 @@
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C1049" t="s">
-        <v>1983</v>
+        <v>2410</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1050" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D1050" t="s">
-        <v>2001</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
-        <v>1058</v>
+        <v>781</v>
       </c>
       <c r="C1051" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D1051" t="s">
-        <v>2627</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C1052" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D1052" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C1053" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D1053" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C1054" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D1054" t="s">
-        <v>1833</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1055" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D1055" t="s">
-        <v>2630</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C1056" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D1056" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C1057" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D1057" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C1058" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D1058" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C1059" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D1059" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C1060" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D1060" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C1061" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D1061" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C1062" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D1062" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C1063" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D1063" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C1064" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D1064" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1065" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D1065" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1066" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D1066" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1067" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D1067" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
-        <v>782</v>
+        <v>1074</v>
       </c>
       <c r="C1068" t="s">
-        <v>2411</v>
+        <v>2000</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>2642</v>
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="C1069" t="s">
-        <v>2412</v>
-      </c>
-      <c r="D1069" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
-        <v>783</v>
+        <v>1075</v>
       </c>
       <c r="C1070" t="s">
-        <v>2414</v>
+        <v>2412</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>2413</v>
       </c>
     </row>
     <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C1071" t="s">
-        <v>2415</v>
-      </c>
-      <c r="E1071" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1071" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1071" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1071" t="s">
-        <v>2523</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C1072" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E1072" t="s">
         <v>2523</v>
@@ -19733,13 +19733,10 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C1073" t="s">
-        <v>2417</v>
-      </c>
-      <c r="D1073" t="s">
-        <v>2350</v>
+        <v>2416</v>
       </c>
       <c r="E1073" t="s">
         <v>2523</v>
@@ -19756,133 +19753,136 @@
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C1074" t="s">
-        <v>2418</v>
+        <v>2417</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C1075" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
-        <v>1076</v>
+        <v>788</v>
       </c>
       <c r="C1076" t="s">
-        <v>2420</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>789</v>
+        <v>1076</v>
       </c>
       <c r="C1077" t="s">
-        <v>2422</v>
+        <v>2420</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C1078" t="s">
-        <v>2423</v>
-      </c>
-      <c r="E1078" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1078" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1078" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1078" t="s">
-        <v>2523</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1079" t="s">
-        <v>2424</v>
+        <v>2423</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C1080" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C1081" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C1082" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C1083" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C1084" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C1085" t="s">
-        <v>2006</v>
-      </c>
-      <c r="E1085" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1085" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1085" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1085" t="s">
-        <v>2523</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C1086" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E1086" t="s">
         <v>2523</v>
@@ -19899,154 +19899,160 @@
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C1087" t="s">
-        <v>2004</v>
+        <v>2005</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
-        <v>2430</v>
+        <v>799</v>
       </c>
       <c r="C1088" t="s">
         <v>2004</v>
       </c>
-      <c r="D1088" t="s">
-        <v>2008</v>
-      </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
-        <v>800</v>
+        <v>2430</v>
       </c>
       <c r="C1089" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E1089" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1089" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1089" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1089" t="s">
-        <v>2523</v>
+        <v>2815</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>2008</v>
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
-        <v>1077</v>
+        <v>800</v>
       </c>
       <c r="C1090" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D1090" t="s">
-        <v>2007</v>
+        <v>2002</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>801</v>
+        <v>1077</v>
       </c>
       <c r="C1091" t="s">
-        <v>2431</v>
+        <v>2003</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C1092" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C1093" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C1094" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C1095" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C1096" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C1097" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C1098" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C1099" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C1100" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C1101" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E1101" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1101" t="s">
-        <v>1635</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C1102" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E1102" t="s">
         <v>1635</v>
@@ -20057,10 +20063,10 @@
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1103" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E1103" t="s">
         <v>1635</v>
@@ -20071,10 +20077,10 @@
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C1104" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E1104" t="s">
         <v>1635</v>
@@ -20085,10 +20091,10 @@
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C1105" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E1105" t="s">
         <v>1635</v>
@@ -20099,10 +20105,10 @@
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C1106" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E1106" t="s">
         <v>1635</v>
@@ -20113,10 +20119,10 @@
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C1107" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1107" t="s">
         <v>1635</v>
@@ -20127,10 +20133,10 @@
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C1108" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E1108" t="s">
         <v>1635</v>
@@ -20141,10 +20147,10 @@
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C1109" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E1109" t="s">
         <v>1635</v>
@@ -20155,10 +20161,10 @@
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C1110" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E1110" t="s">
         <v>1635</v>
@@ -20169,10 +20175,10 @@
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C1111" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E1111" t="s">
         <v>1635</v>
@@ -20183,10 +20189,10 @@
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C1112" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E1112" t="s">
         <v>1635</v>
@@ -20197,10 +20203,10 @@
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C1113" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E1113" t="s">
         <v>1635</v>
@@ -20211,10 +20217,10 @@
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C1114" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E1114" t="s">
         <v>1635</v>
@@ -20225,10 +20231,10 @@
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C1115" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E1115" t="s">
         <v>1635</v>
@@ -20239,10 +20245,10 @@
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C1116" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E1116" t="s">
         <v>1635</v>
@@ -20253,13 +20259,10 @@
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
-        <v>1078</v>
+        <v>826</v>
       </c>
       <c r="C1117" t="s">
-        <v>2457</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="E1117" t="s">
         <v>1635</v>
@@ -20270,13 +20273,13 @@
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
-        <v>2568</v>
+        <v>1078</v>
       </c>
       <c r="C1118" t="s">
-        <v>2570</v>
+        <v>2457</v>
       </c>
       <c r="D1118" t="s">
-        <v>2572</v>
+        <v>2458</v>
       </c>
       <c r="E1118" t="s">
         <v>1635</v>
@@ -20287,13 +20290,13 @@
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C1119" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D1119" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E1119" t="s">
         <v>1635</v>
@@ -20304,10 +20307,13 @@
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
-        <v>827</v>
+        <v>2569</v>
       </c>
       <c r="C1120" t="s">
-        <v>2459</v>
+        <v>2571</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2573</v>
       </c>
       <c r="E1120" t="s">
         <v>1635</v>
@@ -20318,10 +20324,10 @@
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C1121" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E1121" t="s">
         <v>1635</v>
@@ -20332,10 +20338,10 @@
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C1122" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E1122" t="s">
         <v>1635</v>
@@ -20346,10 +20352,10 @@
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C1123" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E1123" t="s">
         <v>1635</v>
@@ -20360,10 +20366,10 @@
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C1124" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E1124" t="s">
         <v>1635</v>
@@ -20374,10 +20380,10 @@
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C1125" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E1125" t="s">
         <v>1635</v>
@@ -20388,10 +20394,10 @@
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1126" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="E1126" t="s">
         <v>1635</v>
@@ -20402,10 +20408,10 @@
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C1127" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E1127" t="s">
         <v>1635</v>
@@ -20416,10 +20422,10 @@
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1128" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1128" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E1128" t="s">
         <v>1635</v>
@@ -20430,10 +20436,10 @@
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1129" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1129" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E1129" t="s">
         <v>1635</v>
@@ -20444,10 +20450,10 @@
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1130" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1130" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E1130" t="s">
         <v>1635</v>
@@ -20458,86 +20464,86 @@
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1131" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C1131" t="s">
-        <v>2470</v>
+        <v>2469</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C1132" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C1133" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C1134" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C1135" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1136" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C1136" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E1136" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1136" t="s">
-        <v>1635</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1137" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C1137" t="s">
-        <v>2476</v>
+        <v>2475</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C1138" t="s">
-        <v>2477</v>
-      </c>
-      <c r="E1138" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1138" t="s">
-        <v>1635</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1139" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C1139" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E1139" t="s">
         <v>1635</v>
@@ -20548,102 +20554,102 @@
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1140" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C1140" t="s">
-        <v>2479</v>
+        <v>2478</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1141" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C1141" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1142" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C1142" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1143" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C1143" t="s">
-        <v>2482</v>
-      </c>
-      <c r="E1143" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1143" t="s">
-        <v>1635</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1144" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C1144" t="s">
-        <v>2483</v>
+        <v>2482</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1145" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C1145" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C1146" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C1147" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1148" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C1148" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1149" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C1149" t="s">
-        <v>2488</v>
-      </c>
-      <c r="E1149" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1149" t="s">
-        <v>1635</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1150" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C1150" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E1150" t="s">
         <v>1635</v>
@@ -20654,10 +20660,10 @@
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1151" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C1151" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E1151" t="s">
         <v>1635</v>
@@ -20668,10 +20674,10 @@
     </row>
     <row r="1152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1152" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C1152" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E1152" t="s">
         <v>1635</v>
@@ -20682,10 +20688,10 @@
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1153" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C1153" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E1153" t="s">
         <v>1635</v>
@@ -20696,48 +20702,48 @@
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1154" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C1154" t="s">
-        <v>2493</v>
+        <v>2492</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1155" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C1155" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1156" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C1156" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C1157" t="s">
-        <v>2496</v>
-      </c>
-      <c r="E1157" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1157" t="s">
-        <v>1635</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1158" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C1158" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E1158" t="s">
         <v>1635</v>
@@ -20748,252 +20754,252 @@
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1159" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C1159" t="s">
-        <v>2498</v>
+        <v>2497</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1160" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C1160" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1161" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C1161" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1162" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C1162" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1163" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C1163" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1164" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C1164" t="s">
-        <v>2503</v>
-      </c>
-      <c r="E1164" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>1635</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1165" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1165" t="s">
-        <v>2504</v>
+        <v>2503</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1166" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1166" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1167" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C1167" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1168" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1169" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C1168" t="s">
+      <c r="C1169" t="s">
         <v>2507</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1169" s="1" t="s">
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1170" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C1169" t="s">
+      <c r="C1170" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1170" s="1" t="s">
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1171" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C1170" t="s">
+      <c r="C1171" t="s">
         <v>2509</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1171" s="1" t="s">
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1172" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C1171" t="s">
+      <c r="C1172" t="s">
         <v>2510</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1172" s="1" t="s">
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1173" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C1172" t="s">
+      <c r="C1173" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1173" s="1" t="s">
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1174" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C1173" t="s">
+      <c r="C1174" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1174" s="1" t="s">
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1175" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C1174" t="s">
+      <c r="C1175" t="s">
         <v>2513</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1175" s="1" t="s">
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1176" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C1175" t="s">
+      <c r="C1176" t="s">
         <v>2514</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1176" s="1" t="s">
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1177" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C1176" t="s">
+      <c r="C1177" t="s">
         <v>2515</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1177" s="1" t="s">
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1178" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C1177" t="s">
+      <c r="C1178" t="s">
         <v>2516</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1178" s="1" t="s">
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1179" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C1178" t="s">
+      <c r="C1179" t="s">
         <v>2517</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1179" s="1" t="s">
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1180" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C1179" t="s">
+      <c r="C1180" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1180" s="1" t="s">
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1181" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C1180" t="s">
+      <c r="C1181" t="s">
         <v>2519</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1181" s="1" t="s">
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1182" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C1181" t="s">
+      <c r="C1182" t="s">
         <v>2520</v>
       </c>
     </row>
-    <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1182" s="1" t="s">
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1183" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C1182" t="s">
+      <c r="C1183" t="s">
         <v>2521</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1183" s="1" t="s">
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1184" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C1183" t="s">
+      <c r="C1184" t="s">
         <v>2522</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1184" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="C1184" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E1184" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1184" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1185" s="1" t="s">
-        <v>2524</v>
+        <v>891</v>
       </c>
       <c r="C1185" t="s">
-        <v>2525</v>
+        <v>1579</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1186" s="1" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="C1186" t="s">
-        <v>2547</v>
-      </c>
-      <c r="E1186" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1186" t="s">
-        <v>1635</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C1187" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E1187" t="s">
         <v>1635</v>
@@ -21004,10 +21010,10 @@
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1188" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C1188" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="E1188" t="s">
         <v>1635</v>
@@ -21018,10 +21024,10 @@
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1189" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C1189" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="E1189" t="s">
         <v>1635</v>
@@ -21032,10 +21038,10 @@
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1190" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C1190" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="E1190" t="s">
         <v>1635</v>
@@ -21046,10 +21052,10 @@
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1191" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="C1191" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E1191" t="s">
         <v>1635</v>
@@ -21060,10 +21066,10 @@
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C1192" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="E1192" t="s">
         <v>1635</v>
@@ -21074,10 +21080,10 @@
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1193" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="C1193" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="E1193" t="s">
         <v>1635</v>
@@ -21088,10 +21094,10 @@
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1194" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C1194" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="E1194" t="s">
         <v>1635</v>
@@ -21102,10 +21108,10 @@
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1195" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="C1195" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="E1195" t="s">
         <v>1635</v>
@@ -21116,10 +21122,10 @@
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C1196" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="E1196" t="s">
         <v>1635</v>
@@ -21130,10 +21136,10 @@
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1197" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C1197" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="E1197" t="s">
         <v>1635</v>
@@ -21144,10 +21150,10 @@
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1198" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C1198" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="E1198" t="s">
         <v>1635</v>
@@ -21158,10 +21164,10 @@
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1199" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C1199" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="E1199" t="s">
         <v>1635</v>
@@ -21172,10 +21178,10 @@
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1200" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="C1200" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="E1200" t="s">
         <v>1635</v>
@@ -21186,10 +21192,10 @@
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1201" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C1201" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="E1201" t="s">
         <v>1635</v>
@@ -21200,10 +21206,10 @@
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1202" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="C1202" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="E1202" t="s">
         <v>1635</v>
@@ -21214,10 +21220,10 @@
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C1203" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E1203" t="s">
         <v>1635</v>
@@ -21228,10 +21234,10 @@
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1204" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C1204" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E1204" t="s">
         <v>1635</v>
@@ -21242,10 +21248,10 @@
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1205" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C1205" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E1205" t="s">
         <v>1635</v>
@@ -21256,10 +21262,10 @@
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1206" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C1206" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="E1206" t="s">
         <v>1635</v>
@@ -21270,126 +21276,137 @@
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1207" s="1" t="s">
-        <v>2753</v>
+        <v>2546</v>
       </c>
       <c r="C1207" t="s">
-        <v>2759</v>
+        <v>2567</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1208" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C1208" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1209" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C1209" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C1210" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C1211" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1212" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C1212" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1213" s="1" t="s">
-        <v>2795</v>
+        <v>2758</v>
       </c>
       <c r="C1213" t="s">
-        <v>2804</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1214" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="C1214" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1215" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="C1215" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1216" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="C1216" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1217" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="C1217" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1218" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="C1218" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1219" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C1219" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1220" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="C1220" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1221" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="C1221" t="s">
+      <c r="C1222" t="s">
         <v>2812</v>
       </c>
-    </row>
-    <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1222" s="1"/>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1223" s="1"/>
@@ -21627,6 +21644,9 @@
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301" s="1"/>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Input Sheets/Pokemon Catalog.xlsx
+++ b/Data Input Sheets/Pokemon Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2672" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{45700B2E-D7C0-4C95-AA1E-82A7A7D59EC5}"/>
+  <xr:revisionPtr revIDLastSave="2680" documentId="DE3FD06E475FCEB72DEDE5913E57B6CC40135365" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{76BAF89E-FAC6-4250-BAB0-BEED4FA55941}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{101D4D07-5255-4A2A-A616-1E9E0D053B19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="2816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="2822">
   <si>
     <t>Pokemon Number</t>
   </si>
@@ -8473,6 +8473,24 @@
   </si>
   <si>
     <t>SOLGALEO-1</t>
+  </si>
+  <si>
+    <t>483-M</t>
+  </si>
+  <si>
+    <t>484-M</t>
+  </si>
+  <si>
+    <t>DIALGA-1</t>
+  </si>
+  <si>
+    <t>PALKIA-1</t>
+  </si>
+  <si>
+    <t>Primal Dialga</t>
+  </si>
+  <si>
+    <t>Primal Palkia</t>
   </si>
 </sst>
 </file>
@@ -8835,10 +8853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD19ACFF-61E2-4975-9D09-66201BD97DAC}">
-  <dimension ref="A1:U1302"/>
+  <dimension ref="A1:U1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="D880" sqref="D880:D898"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="D660" sqref="D660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15651,904 +15669,907 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>492</v>
+        <v>2816</v>
       </c>
       <c r="C658" t="s">
-        <v>1932</v>
+        <v>2818</v>
+      </c>
+      <c r="D658" t="s">
+        <v>2820</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C659" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>494</v>
+        <v>2817</v>
       </c>
       <c r="C660" t="s">
-        <v>1934</v>
+        <v>2819</v>
+      </c>
+      <c r="D660" t="s">
+        <v>2821</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C661" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>1003</v>
+        <v>494</v>
       </c>
       <c r="C662" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D662" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C663" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>497</v>
+        <v>1003</v>
       </c>
       <c r="C664" t="s">
-        <v>1939</v>
+        <v>1936</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C665" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C666" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C667" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>1004</v>
+        <v>499</v>
       </c>
       <c r="C668" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D668" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C669" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C670" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="D670" t="s">
-        <v>2627</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>1006</v>
+        <v>501</v>
       </c>
       <c r="C671" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D671" t="s">
-        <v>2628</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C672" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D672" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C673" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D673" t="s">
-        <v>1833</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C674" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D674" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C675" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D675" t="s">
-        <v>2631</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C676" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D676" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C677" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D677" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C678" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D678" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C679" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D679" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C680" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D680" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C681" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="D681" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C682" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D682" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C683" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D683" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C684" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D684" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C685" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D685" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C686" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D686" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>502</v>
+        <v>1020</v>
       </c>
       <c r="C687" t="s">
-        <v>1963</v>
+        <v>1961</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2641</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>503</v>
+        <v>1021</v>
       </c>
       <c r="C688" t="s">
-        <v>2041</v>
+        <v>1962</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2642</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C689" t="s">
-        <v>2042</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C690" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C691" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C692" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C693" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>1022</v>
+        <v>507</v>
       </c>
       <c r="C694" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D694" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C695" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>510</v>
+        <v>1022</v>
       </c>
       <c r="C696" t="s">
-        <v>2050</v>
+        <v>2047</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2048</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C697" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C698" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C699" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C700" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C701" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C702" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C703" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C704" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C705" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C706" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C707" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C708" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C709" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C710" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C711" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C712" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C713" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C714" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C715" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C716" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C717" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C718" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C719" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C720" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C721" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C722" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C723" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C724" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C725" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>1023</v>
+        <v>538</v>
       </c>
       <c r="C726" t="s">
-        <v>2080</v>
-      </c>
-      <c r="D726" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C727" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>541</v>
+        <v>1023</v>
       </c>
       <c r="C728" t="s">
-        <v>2083</v>
+        <v>2080</v>
+      </c>
+      <c r="D728" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C729" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C730" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C731" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C732" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C733" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C734" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C735" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C736" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C737" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C738" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C739" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C740" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C741" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C742" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C743" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C744" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>2643</v>
+        <v>556</v>
       </c>
       <c r="C745" t="s">
-        <v>2771</v>
-      </c>
-      <c r="D745" t="s">
-        <v>2772</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C746" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D746" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>2101</v>
+        <v>2643</v>
       </c>
       <c r="C747" t="s">
-        <v>2102</v>
+        <v>2771</v>
       </c>
       <c r="D747" t="s">
-        <v>2103</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C748" t="s">
-        <v>2105</v>
+        <v>2100</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2104</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>560</v>
+        <v>2101</v>
       </c>
       <c r="C749" t="s">
-        <v>2106</v>
+        <v>2102</v>
+      </c>
+      <c r="D749" t="s">
+        <v>2103</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C750" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C751" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C752" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>1024</v>
+        <v>562</v>
       </c>
       <c r="C753" t="s">
-        <v>2110</v>
-      </c>
-      <c r="D753" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C754" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>565</v>
+        <v>1024</v>
       </c>
       <c r="C755" t="s">
-        <v>2113</v>
+        <v>2110</v>
+      </c>
+      <c r="D755" t="s">
+        <v>2111</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C756" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C757" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>2813</v>
+        <v>566</v>
       </c>
       <c r="C758" t="s">
-        <v>2814</v>
-      </c>
-      <c r="D758" t="s">
-        <v>2721</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C759" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>2644</v>
+        <v>2813</v>
       </c>
       <c r="C760" t="s">
-        <v>2770</v>
+        <v>2814</v>
       </c>
       <c r="D760" t="s">
         <v>2721</v>
@@ -16556,731 +16577,716 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C761" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>570</v>
+        <v>2644</v>
       </c>
       <c r="C762" t="s">
-        <v>2118</v>
+        <v>2770</v>
+      </c>
+      <c r="D762" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C763" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C764" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C765" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C766" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C767" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C768" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C769" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C770" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C771" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C772" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C773" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>1025</v>
+        <v>580</v>
       </c>
       <c r="C774" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D774" t="s">
-        <v>2131</v>
-      </c>
-      <c r="E774" t="s">
-        <v>1635</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C775" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
-        <v>583</v>
+        <v>1025</v>
       </c>
       <c r="C776" t="s">
-        <v>2133</v>
+        <v>2130</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C777" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C778" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C779" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C780" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C781" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C782" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
-        <v>1026</v>
+        <v>588</v>
       </c>
       <c r="C783" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D783" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C784" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
-        <v>591</v>
+        <v>1026</v>
       </c>
       <c r="C785" t="s">
-        <v>2143</v>
+        <v>2140</v>
+      </c>
+      <c r="D785" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C786" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C787" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C788" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C789" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
-        <v>1027</v>
+        <v>594</v>
       </c>
       <c r="C790" t="s">
-        <v>2179</v>
-      </c>
-      <c r="D790" t="s">
-        <v>2180</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C791" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
-        <v>597</v>
+        <v>1027</v>
       </c>
       <c r="C792" t="s">
-        <v>2149</v>
+        <v>2179</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2180</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C793" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C794" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C795" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C796" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C797" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C798" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C799" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C800" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C801" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C802" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C803" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C804" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C805" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C806" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C807" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C808" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C809" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C810" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C811" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C812" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C813" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C814" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C815" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C816" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C817" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C818" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C819" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C820" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C821" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>1028</v>
+        <v>625</v>
       </c>
       <c r="C822" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D822" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C823" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>628</v>
+        <v>1028</v>
       </c>
       <c r="C824" t="s">
-        <v>2184</v>
+        <v>2181</v>
+      </c>
+      <c r="D824" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C825" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C826" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C827" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C828" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C829" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C830" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C831" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C832" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C833" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C834" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C835" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C836" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C837" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C838" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C839" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C840" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C841" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C842" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C843" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C844" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C845" t="s">
-        <v>2205</v>
-      </c>
-      <c r="D845" t="s">
-        <v>2208</v>
-      </c>
-      <c r="E845" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F845" t="s">
-        <v>1635</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>1029</v>
+        <v>648</v>
       </c>
       <c r="C846" t="s">
-        <v>2206</v>
-      </c>
-      <c r="D846" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E846" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F846" t="s">
-        <v>1635</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C847" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="D847" t="s">
         <v>2208</v>
@@ -17294,10 +17300,10 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C848" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="D848" t="s">
         <v>2207</v>
@@ -17311,71 +17317,80 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C849" t="s">
-        <v>2211</v>
+        <v>2209</v>
+      </c>
+      <c r="D849" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>652</v>
+        <v>1030</v>
       </c>
       <c r="C850" t="s">
-        <v>2212</v>
+        <v>2210</v>
+      </c>
+      <c r="D850" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F850" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C851" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D851" t="s">
-        <v>2208</v>
-      </c>
-      <c r="E851" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F851" t="s">
-        <v>1635</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>1031</v>
+        <v>652</v>
       </c>
       <c r="C852" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D852" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E852" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F852" t="s">
-        <v>1635</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C853" t="s">
-        <v>2214</v>
+        <v>2213</v>
+      </c>
+      <c r="D853" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F853" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C854" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D854" t="s">
-        <v>2228</v>
+        <v>2207</v>
       </c>
       <c r="E854" t="s">
         <v>1635</v>
@@ -17386,38 +17401,38 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>1033</v>
+        <v>654</v>
       </c>
       <c r="C855" t="s">
-        <v>2216</v>
-      </c>
-      <c r="D855" t="s">
-        <v>2229</v>
-      </c>
-      <c r="E855" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F855" t="s">
-        <v>1635</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>655</v>
+        <v>1032</v>
       </c>
       <c r="C856" t="s">
-        <v>2217</v>
+        <v>2215</v>
+      </c>
+      <c r="D856" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F856" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>2218</v>
+        <v>1033</v>
       </c>
       <c r="C857" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="D857" t="s">
-        <v>2220</v>
+        <v>2229</v>
       </c>
       <c r="E857" t="s">
         <v>1635</v>
@@ -17428,30 +17443,21 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C858" t="s">
-        <v>2221</v>
-      </c>
-      <c r="D858" t="s">
-        <v>2224</v>
-      </c>
-      <c r="E858" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F858" t="s">
-        <v>1635</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>1034</v>
+        <v>2218</v>
       </c>
       <c r="C859" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="D859" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="E859" t="s">
         <v>1635</v>
@@ -17462,630 +17468,645 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C860" t="s">
-        <v>2225</v>
+        <v>2221</v>
+      </c>
+      <c r="D860" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F860" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>658</v>
+        <v>1034</v>
       </c>
       <c r="C861" t="s">
-        <v>2226</v>
+        <v>2222</v>
+      </c>
+      <c r="D861" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C862" t="s">
-        <v>2247</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C863" t="s">
-        <v>2248</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C864" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C865" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C864" t="s">
+      <c r="C866" t="s">
         <v>2249</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" s="1" t="s">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C865" t="s">
+      <c r="C867" t="s">
         <v>2250</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" s="1" t="s">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C866" t="s">
+      <c r="C868" t="s">
         <v>2251</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A867" s="1" t="s">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C867" t="s">
+      <c r="C869" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A868" s="1" t="s">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C868" t="s">
+      <c r="C870" t="s">
         <v>2253</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C869" t="s">
+      <c r="C871" t="s">
         <v>2254</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" s="1" t="s">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C870" t="s">
+      <c r="C872" t="s">
         <v>2255</v>
       </c>
-      <c r="D870" t="s">
+      <c r="D872" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A871" s="1" t="s">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C871" t="s">
+      <c r="C873" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C872" t="s">
+      <c r="C874" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A873" s="1" t="s">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C873" t="s">
+      <c r="C875" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A874" s="1" t="s">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C874" t="s">
+      <c r="C876" t="s">
         <v>2259</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A875" s="1" t="s">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C875" t="s">
+      <c r="C877" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A876" s="1" t="s">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C876" t="s">
+      <c r="C878" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A877" s="1" t="s">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C877" t="s">
+      <c r="C879" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A878" s="1" t="s">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C878" t="s">
+      <c r="C880" t="s">
         <v>2263</v>
       </c>
-      <c r="D878" t="s">
+      <c r="D880" t="s">
         <v>2663</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A879" s="1" t="s">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C879" t="s">
+      <c r="C881" t="s">
         <v>2264</v>
       </c>
-      <c r="D879" t="s">
+      <c r="D881" t="s">
         <v>2266</v>
       </c>
-      <c r="E879" t="s">
+      <c r="E881" t="s">
         <v>2246</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A880" s="1" t="s">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="C880" t="s">
+      <c r="C882" t="s">
         <v>2645</v>
       </c>
-      <c r="D880" t="s">
+      <c r="D882" t="s">
         <v>2664</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A881" s="1" t="s">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="C881" t="s">
+      <c r="C883" t="s">
         <v>2646</v>
       </c>
-      <c r="D881" t="s">
+      <c r="D883" t="s">
         <v>2665</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A882" s="1" t="s">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="C882" t="s">
+      <c r="C884" t="s">
         <v>2647</v>
       </c>
-      <c r="D882" t="s">
+      <c r="D884" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A883" s="1" t="s">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="C883" t="s">
+      <c r="C885" t="s">
         <v>2648</v>
       </c>
-      <c r="D883" t="s">
+      <c r="D885" t="s">
         <v>2667</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A884" s="1" t="s">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="C884" t="s">
+      <c r="C886" t="s">
         <v>2649</v>
       </c>
-      <c r="D884" t="s">
+      <c r="D886" t="s">
         <v>2668</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A885" s="1" t="s">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="C885" t="s">
+      <c r="C887" t="s">
         <v>2650</v>
       </c>
-      <c r="D885" t="s">
+      <c r="D887" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A886" s="1" t="s">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="C886" t="s">
+      <c r="C888" t="s">
         <v>2651</v>
       </c>
-      <c r="D886" t="s">
+      <c r="D888" t="s">
         <v>2670</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A887" s="1" t="s">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="C887" t="s">
+      <c r="C889" t="s">
         <v>2652</v>
       </c>
-      <c r="D887" t="s">
+      <c r="D889" t="s">
         <v>2671</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A888" s="1" t="s">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="C888" t="s">
+      <c r="C890" t="s">
         <v>2653</v>
       </c>
-      <c r="D888" t="s">
+      <c r="D890" t="s">
         <v>2672</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A889" s="1" t="s">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A891" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="C889" t="s">
+      <c r="C891" t="s">
         <v>2654</v>
       </c>
-      <c r="D889" t="s">
+      <c r="D891" t="s">
         <v>2673</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A890" s="1" t="s">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A892" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="C890" t="s">
+      <c r="C892" t="s">
         <v>2655</v>
       </c>
-      <c r="D890" t="s">
+      <c r="D892" t="s">
         <v>2674</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A891" s="1" t="s">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A893" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="C891" t="s">
+      <c r="C893" t="s">
         <v>2656</v>
       </c>
-      <c r="D891" t="s">
+      <c r="D893" t="s">
         <v>2675</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A892" s="1" t="s">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="C892" t="s">
+      <c r="C894" t="s">
         <v>2657</v>
       </c>
-      <c r="D892" t="s">
+      <c r="D894" t="s">
         <v>2676</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A893" s="1" t="s">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A895" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="C893" t="s">
+      <c r="C895" t="s">
         <v>2658</v>
       </c>
-      <c r="D893" t="s">
+      <c r="D895" t="s">
         <v>2677</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A894" s="1" t="s">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A896" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="C894" t="s">
+      <c r="C896" t="s">
         <v>2659</v>
       </c>
-      <c r="D894" t="s">
+      <c r="D896" t="s">
         <v>2678</v>
-      </c>
-    </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A895" s="1" t="s">
-        <v>2699</v>
-      </c>
-      <c r="C895" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D895" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A896" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="C896" t="s">
-        <v>2661</v>
-      </c>
-      <c r="D896" t="s">
-        <v>2680</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="C897" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="D897" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="C898" t="s">
-        <v>2682</v>
+        <v>2661</v>
       </c>
       <c r="D898" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>675</v>
+        <v>2701</v>
       </c>
       <c r="C899" t="s">
-        <v>2267</v>
+        <v>2662</v>
+      </c>
+      <c r="D899" t="s">
+        <v>2681</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>676</v>
+        <v>2702</v>
       </c>
       <c r="C900" t="s">
-        <v>2268</v>
+        <v>2682</v>
+      </c>
+      <c r="D900" t="s">
+        <v>2683</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C901" t="s">
-        <v>2269</v>
-      </c>
-      <c r="D901" t="s">
-        <v>2103</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>2722</v>
+        <v>676</v>
       </c>
       <c r="C902" t="s">
-        <v>2703</v>
-      </c>
-      <c r="D902" t="s">
-        <v>2718</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>2723</v>
+        <v>677</v>
       </c>
       <c r="C903" t="s">
-        <v>2704</v>
+        <v>2269</v>
       </c>
       <c r="D903" t="s">
-        <v>2719</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="C904" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="D904" t="s">
-        <v>2104</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="C905" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="D905" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="C906" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="D906" t="s">
-        <v>2721</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>678</v>
+        <v>2725</v>
       </c>
       <c r="C907" t="s">
-        <v>2270</v>
+        <v>2706</v>
       </c>
       <c r="D907" t="s">
-        <v>2103</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>2281</v>
+        <v>2726</v>
       </c>
       <c r="C908" t="s">
-        <v>2272</v>
+        <v>2707</v>
       </c>
       <c r="D908" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E908" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F908" t="s">
-        <v>1470</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>2727</v>
+        <v>678</v>
       </c>
       <c r="C909" t="s">
-        <v>2708</v>
+        <v>2270</v>
       </c>
       <c r="D909" t="s">
-        <v>2718</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>2728</v>
+        <v>2281</v>
       </c>
       <c r="C910" t="s">
-        <v>2709</v>
+        <v>2272</v>
       </c>
       <c r="D910" t="s">
-        <v>2719</v>
+        <v>2273</v>
+      </c>
+      <c r="E910" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F910" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="C911" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="D911" t="s">
-        <v>2104</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="C912" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="D912" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="C913" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="D913" t="s">
-        <v>2721</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>679</v>
+        <v>2730</v>
       </c>
       <c r="C914" t="s">
-        <v>2271</v>
+        <v>2711</v>
       </c>
       <c r="D914" t="s">
-        <v>2103</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="C915" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D915" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>2733</v>
+        <v>679</v>
       </c>
       <c r="C916" t="s">
-        <v>2714</v>
+        <v>2271</v>
       </c>
       <c r="D916" t="s">
-        <v>2719</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="C917" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="D917" t="s">
-        <v>2104</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="C918" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="D918" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="C919" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="D919" t="s">
-        <v>2721</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>680</v>
+        <v>2735</v>
       </c>
       <c r="C920" t="s">
-        <v>2274</v>
+        <v>2716</v>
+      </c>
+      <c r="D920" t="s">
+        <v>2720</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>2768</v>
+        <v>2736</v>
       </c>
       <c r="C921" t="s">
-        <v>2766</v>
+        <v>2717</v>
       </c>
       <c r="D921" t="s">
         <v>2721</v>
@@ -18093,18 +18114,18 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C922" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="C923" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D923" t="s">
         <v>2721</v>
@@ -18112,643 +18133,634 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C924" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>683</v>
+        <v>2769</v>
       </c>
       <c r="C925" t="s">
-        <v>2277</v>
+        <v>2767</v>
+      </c>
+      <c r="D925" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C926" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C927" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C928" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D928" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>2282</v>
+        <v>685</v>
       </c>
       <c r="C929" t="s">
-        <v>2283</v>
-      </c>
-      <c r="D929" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C930" t="s">
-        <v>2286</v>
+        <v>2280</v>
+      </c>
+      <c r="D930" t="s">
+        <v>2284</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>688</v>
+        <v>2282</v>
       </c>
       <c r="C931" t="s">
-        <v>2287</v>
+        <v>2283</v>
+      </c>
+      <c r="D931" t="s">
+        <v>2285</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C932" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D932" t="s">
-        <v>2001</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>1037</v>
+        <v>688</v>
       </c>
       <c r="C933" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D933" t="s">
-        <v>2742</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>1038</v>
+        <v>689</v>
       </c>
       <c r="C934" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D934" t="s">
-        <v>2293</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C935" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D935" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C936" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="D936" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>2747</v>
+        <v>1039</v>
       </c>
       <c r="C937" t="s">
-        <v>2737</v>
+        <v>2291</v>
       </c>
       <c r="D937" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>2750</v>
+        <v>1040</v>
       </c>
       <c r="C938" t="s">
-        <v>2738</v>
+        <v>2292</v>
       </c>
       <c r="D938" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C939" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="D939" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C940" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="D940" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C941" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="D941" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>690</v>
+        <v>2751</v>
       </c>
       <c r="C942" t="s">
-        <v>2297</v>
+        <v>2740</v>
+      </c>
+      <c r="D942" t="s">
+        <v>2296</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>691</v>
+        <v>2749</v>
       </c>
       <c r="C943" t="s">
-        <v>2298</v>
+        <v>2741</v>
+      </c>
+      <c r="D943" t="s">
+        <v>2746</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C944" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C945" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C946" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C947" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C948" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C949" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C950" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C951" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C952" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C953" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C954" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C955" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C956" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C957" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>2752</v>
+        <v>704</v>
       </c>
       <c r="C958" t="s">
-        <v>2765</v>
-      </c>
-      <c r="D958" t="s">
-        <v>2752</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C959" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>707</v>
+        <v>2752</v>
       </c>
       <c r="C960" t="s">
-        <v>2314</v>
+        <v>2765</v>
+      </c>
+      <c r="D960" t="s">
+        <v>2752</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C961" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C962" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>1041</v>
+        <v>708</v>
       </c>
       <c r="C963" t="s">
-        <v>2317</v>
-      </c>
-      <c r="D963" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C964" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>711</v>
+        <v>1041</v>
       </c>
       <c r="C965" t="s">
-        <v>2320</v>
+        <v>2317</v>
+      </c>
+      <c r="D965" t="s">
+        <v>2318</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C966" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C967" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C968" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>1042</v>
+        <v>713</v>
       </c>
       <c r="C969" t="s">
-        <v>2325</v>
-      </c>
-      <c r="D969" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C970" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>716</v>
+        <v>1042</v>
       </c>
       <c r="C971" t="s">
-        <v>2327</v>
+        <v>2325</v>
+      </c>
+      <c r="D971" t="s">
+        <v>2326</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C972" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C973" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C974" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C975" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C976" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C977" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C978" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>1043</v>
+        <v>722</v>
       </c>
       <c r="C979" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C980" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>725</v>
+        <v>1043</v>
       </c>
       <c r="C981" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C982" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>1044</v>
+        <v>725</v>
       </c>
       <c r="C983" t="s">
-        <v>2339</v>
-      </c>
-      <c r="D983" s="3">
-        <v>0.1</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>1045</v>
+        <v>726</v>
       </c>
       <c r="C984" t="s">
-        <v>2340</v>
-      </c>
-      <c r="D984" s="3">
-        <v>1</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>727</v>
+        <v>1044</v>
       </c>
       <c r="C985" t="s">
-        <v>2341</v>
+        <v>2339</v>
+      </c>
+      <c r="D985" s="3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C986" t="s">
-        <v>2342</v>
-      </c>
-      <c r="D986" t="s">
-        <v>2343</v>
+        <v>2340</v>
+      </c>
+      <c r="D986" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C987" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C988" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="D988" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C989" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>730</v>
+        <v>1047</v>
       </c>
       <c r="C990" t="s">
-        <v>2348</v>
-      </c>
-      <c r="E990" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F990" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G990" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H990" t="s">
-        <v>2523</v>
+        <v>2345</v>
+      </c>
+      <c r="D990" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C991" t="s">
-        <v>2355</v>
-      </c>
-      <c r="E991" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F991" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G991" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H991" t="s">
-        <v>2523</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C992" t="s">
-        <v>2356</v>
+        <v>2348</v>
+      </c>
+      <c r="E992" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F992" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G992" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H992" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C993" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="E993" t="s">
         <v>2523</v>
@@ -18765,38 +18777,38 @@
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C994" t="s">
-        <v>2358</v>
-      </c>
-      <c r="E994" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F994" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G994" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H994" t="s">
-        <v>2523</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C995" t="s">
-        <v>2359</v>
+        <v>2357</v>
+      </c>
+      <c r="E995" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F995" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G995" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H995" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C996" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="E996" t="s">
         <v>2523</v>
@@ -18813,38 +18825,38 @@
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C997" t="s">
-        <v>2361</v>
-      </c>
-      <c r="E997" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F997" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G997" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H997" t="s">
-        <v>2523</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C998" t="s">
-        <v>2362</v>
+        <v>2360</v>
+      </c>
+      <c r="E998" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F998" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G998" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H998" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C999" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E999" t="s">
         <v>2523</v>
@@ -18861,93 +18873,81 @@
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C1000" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C1001" t="s">
-        <v>2365</v>
+        <v>2363</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C1002" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C1003" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>1048</v>
+        <v>742</v>
       </c>
       <c r="C1004" t="s">
-        <v>2373</v>
-      </c>
-      <c r="D1004" t="s">
-        <v>2374</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C1005" t="s">
-        <v>2368</v>
-      </c>
-      <c r="E1005" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1005" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1005" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1005" t="s">
-        <v>2523</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>745</v>
+        <v>1048</v>
       </c>
       <c r="C1006" t="s">
-        <v>2369</v>
-      </c>
-      <c r="E1006" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1006" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1006" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1006" t="s">
-        <v>2523</v>
+        <v>2373</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>2374</v>
       </c>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C1007" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="E1007" t="s">
         <v>2523</v>
@@ -18964,338 +18964,347 @@
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C1008" t="s">
-        <v>2371</v>
+        <v>2369</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C1009" t="s">
-        <v>2372</v>
+        <v>2370</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>1049</v>
+        <v>747</v>
       </c>
       <c r="C1010" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C1011" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D1011" t="s">
-        <v>1978</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1012" t="s">
-        <v>1973</v>
+        <v>2375</v>
       </c>
       <c r="D1012" t="s">
-        <v>1979</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>1051</v>
+        <v>749</v>
       </c>
       <c r="C1013" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D1013" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C1014" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D1014" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C1015" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D1015" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>750</v>
+        <v>1052</v>
       </c>
       <c r="C1016" t="s">
-        <v>2377</v>
-      </c>
-      <c r="E1016" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1016" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1016" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1016" t="s">
-        <v>2523</v>
+        <v>1975</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>751</v>
+        <v>1056</v>
       </c>
       <c r="C1017" t="s">
-        <v>2378</v>
-      </c>
-      <c r="E1017" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1017" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1017" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1017" t="s">
-        <v>2523</v>
+        <v>1976</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C1018" t="s">
-        <v>2379</v>
+        <v>2377</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1018" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C1019" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>1969</v>
+        <v>2378</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>1053</v>
+        <v>752</v>
       </c>
       <c r="C1020" t="s">
-        <v>1967</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>1970</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>1054</v>
+        <v>753</v>
       </c>
       <c r="C1021" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="D1021" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>754</v>
+        <v>1053</v>
       </c>
       <c r="C1022" t="s">
-        <v>2388</v>
+        <v>1967</v>
       </c>
       <c r="D1022" t="s">
-        <v>2390</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C1023" t="s">
-        <v>2389</v>
+        <v>1968</v>
       </c>
       <c r="D1023" t="s">
-        <v>2391</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C1024" t="s">
-        <v>2380</v>
+        <v>2388</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>2390</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>756</v>
+        <v>1055</v>
       </c>
       <c r="C1025" t="s">
-        <v>2381</v>
+        <v>2389</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>2391</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C1026" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C1027" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C1028" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C1029" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C1030" t="s">
-        <v>2386</v>
-      </c>
-      <c r="E1030" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1030" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1030" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1030" t="s">
-        <v>2523</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C1031" t="s">
-        <v>2387</v>
-      </c>
-      <c r="E1031" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1031" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1031" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1031" t="s">
-        <v>2523</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C1032" t="s">
-        <v>2392</v>
+        <v>2386</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C1033" t="s">
-        <v>2393</v>
+        <v>2387</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C1034" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C1035" t="s">
-        <v>2395</v>
-      </c>
-      <c r="E1035" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1035" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1035" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1035" t="s">
-        <v>2523</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
-        <v>1057</v>
+        <v>765</v>
       </c>
       <c r="C1036" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D1036" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C1037" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="E1037" t="s">
         <v>2523</v>
@@ -19312,30 +19321,21 @@
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
-        <v>768</v>
+        <v>1057</v>
       </c>
       <c r="C1038" t="s">
-        <v>2399</v>
-      </c>
-      <c r="E1038" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1038" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1038" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1038" t="s">
-        <v>2523</v>
+        <v>2396</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>2397</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C1039" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="E1039" t="s">
         <v>2523</v>
@@ -19352,10 +19352,10 @@
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C1040" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="E1040" t="s">
         <v>2523</v>
@@ -19372,98 +19372,98 @@
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C1041" t="s">
-        <v>2402</v>
+        <v>2400</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C1042" t="s">
-        <v>2403</v>
+        <v>2401</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C1043" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C1044" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C1045" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C1046" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C1047" t="s">
-        <v>2408</v>
-      </c>
-      <c r="E1047" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1047" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1047" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1047" t="s">
-        <v>2523</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C1048" t="s">
-        <v>2409</v>
-      </c>
-      <c r="E1048" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1048" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1048" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1048" t="s">
-        <v>2523</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C1049" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E1049" t="s">
         <v>2523</v>
@@ -19480,286 +19480,283 @@
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C1050" t="s">
-        <v>1983</v>
+        <v>2409</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C1051" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D1051" t="s">
-        <v>2001</v>
+        <v>2410</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
-        <v>1058</v>
+        <v>780</v>
       </c>
       <c r="C1052" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>2627</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
-        <v>1059</v>
+        <v>781</v>
       </c>
       <c r="C1053" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="D1053" t="s">
-        <v>2628</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C1054" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="D1054" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C1055" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D1055" t="s">
-        <v>1833</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C1056" t="s">
+      <c r="C1058" t="s">
         <v>1988</v>
       </c>
-      <c r="D1056" t="s">
+      <c r="D1058" t="s">
         <v>2630</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1057" s="1" t="s">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C1057" t="s">
+      <c r="C1059" t="s">
         <v>1989</v>
       </c>
-      <c r="D1057" t="s">
+      <c r="D1059" t="s">
         <v>2631</v>
       </c>
     </row>
-    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1058" s="1" t="s">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C1058" t="s">
+      <c r="C1060" t="s">
         <v>1990</v>
       </c>
-      <c r="D1058" t="s">
+      <c r="D1060" t="s">
         <v>2632</v>
       </c>
     </row>
-    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1059" s="1" t="s">
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C1059" t="s">
+      <c r="C1061" t="s">
         <v>1991</v>
       </c>
-      <c r="D1059" t="s">
+      <c r="D1061" t="s">
         <v>2633</v>
       </c>
     </row>
-    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1060" s="1" t="s">
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C1060" t="s">
+      <c r="C1062" t="s">
         <v>1992</v>
       </c>
-      <c r="D1060" t="s">
+      <c r="D1062" t="s">
         <v>2634</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1061" s="1" t="s">
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C1061" t="s">
+      <c r="C1063" t="s">
         <v>1993</v>
       </c>
-      <c r="D1061" t="s">
+      <c r="D1063" t="s">
         <v>2635</v>
       </c>
     </row>
-    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1062" s="1" t="s">
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C1062" t="s">
+      <c r="C1064" t="s">
         <v>1994</v>
       </c>
-      <c r="D1062" t="s">
+      <c r="D1064" t="s">
         <v>2636</v>
       </c>
     </row>
-    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1063" s="1" t="s">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C1063" t="s">
+      <c r="C1065" t="s">
         <v>1995</v>
       </c>
-      <c r="D1063" t="s">
+      <c r="D1065" t="s">
         <v>2637</v>
       </c>
     </row>
-    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1064" s="1" t="s">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C1064" t="s">
+      <c r="C1066" t="s">
         <v>1996</v>
       </c>
-      <c r="D1064" t="s">
+      <c r="D1066" t="s">
         <v>2638</v>
       </c>
     </row>
-    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1065" s="1" t="s">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C1065" t="s">
+      <c r="C1067" t="s">
         <v>1997</v>
       </c>
-      <c r="D1065" t="s">
+      <c r="D1067" t="s">
         <v>2639</v>
       </c>
     </row>
-    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1066" s="1" t="s">
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C1066" t="s">
+      <c r="C1068" t="s">
         <v>1998</v>
       </c>
-      <c r="D1066" t="s">
+      <c r="D1068" t="s">
         <v>2640</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1067" s="1" t="s">
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C1067" t="s">
+      <c r="C1069" t="s">
         <v>1999</v>
       </c>
-      <c r="D1067" t="s">
+      <c r="D1069" t="s">
         <v>2641</v>
       </c>
     </row>
-    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1068" s="1" t="s">
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C1068" t="s">
+      <c r="C1070" t="s">
         <v>2000</v>
       </c>
-      <c r="D1068" t="s">
+      <c r="D1070" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1069" s="1" t="s">
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C1069" t="s">
+      <c r="C1071" t="s">
         <v>2411</v>
       </c>
     </row>
-    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1070" s="1" t="s">
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C1070" t="s">
+      <c r="C1072" t="s">
         <v>2412</v>
       </c>
-      <c r="D1070" t="s">
+      <c r="D1072" t="s">
         <v>2413</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1071" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1072" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>2415</v>
-      </c>
-      <c r="E1072" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1072" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1072" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1072" t="s">
-        <v>2523</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C1073" t="s">
-        <v>2416</v>
-      </c>
-      <c r="E1073" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1073" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1073" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1073" t="s">
-        <v>2523</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C1074" t="s">
-        <v>2417</v>
-      </c>
-      <c r="D1074" t="s">
-        <v>2350</v>
+        <v>2415</v>
       </c>
       <c r="E1074" t="s">
         <v>2523</v>
@@ -19776,311 +19773,326 @@
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C1075" t="s">
-        <v>2418</v>
+        <v>2416</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C1076" t="s">
-        <v>2419</v>
+        <v>2417</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>1076</v>
+        <v>787</v>
       </c>
       <c r="C1077" t="s">
-        <v>2420</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C1078" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>790</v>
+        <v>1076</v>
       </c>
       <c r="C1079" t="s">
-        <v>2423</v>
-      </c>
-      <c r="E1079" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1079" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1079" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1079" t="s">
-        <v>2523</v>
+        <v>2420</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C1080" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C1081" t="s">
-        <v>2425</v>
+        <v>2423</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C1082" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C1083" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C1084" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C1085" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C1086" t="s">
-        <v>2006</v>
-      </c>
-      <c r="E1086" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1086" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1086" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1086" t="s">
-        <v>2523</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C1087" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E1087" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1087" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1087" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1087" t="s">
-        <v>2523</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C1088" t="s">
-        <v>2004</v>
+        <v>2006</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
-        <v>2430</v>
+        <v>798</v>
       </c>
       <c r="C1089" t="s">
-        <v>2815</v>
-      </c>
-      <c r="D1089" t="s">
-        <v>2008</v>
+        <v>2005</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C1090" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E1090" t="s">
-        <v>2523</v>
-      </c>
-      <c r="F1090" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G1090" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H1090" t="s">
-        <v>2523</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>1077</v>
+        <v>2430</v>
       </c>
       <c r="C1091" t="s">
-        <v>2003</v>
+        <v>2815</v>
       </c>
       <c r="D1091" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C1092" t="s">
-        <v>2431</v>
+        <v>2002</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
-        <v>802</v>
+        <v>1077</v>
       </c>
       <c r="C1093" t="s">
-        <v>2432</v>
+        <v>2003</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C1094" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C1095" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C1096" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C1097" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C1098" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C1099" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C1100" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C1101" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C1102" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E1102" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1102" t="s">
-        <v>1635</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1103" t="s">
-        <v>2442</v>
-      </c>
-      <c r="E1103" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1103" t="s">
-        <v>1635</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C1104" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="E1104" t="s">
         <v>1635</v>
@@ -20091,10 +20103,10 @@
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C1105" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="E1105" t="s">
         <v>1635</v>
@@ -20105,10 +20117,10 @@
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C1106" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="E1106" t="s">
         <v>1635</v>
@@ -20119,10 +20131,10 @@
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C1107" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="E1107" t="s">
         <v>1635</v>
@@ -20133,10 +20145,10 @@
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C1108" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="E1108" t="s">
         <v>1635</v>
@@ -20147,10 +20159,10 @@
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C1109" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="E1109" t="s">
         <v>1635</v>
@@ -20161,10 +20173,10 @@
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C1110" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="E1110" t="s">
         <v>1635</v>
@@ -20175,10 +20187,10 @@
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C1111" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="E1111" t="s">
         <v>1635</v>
@@ -20189,10 +20201,10 @@
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C1112" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="E1112" t="s">
         <v>1635</v>
@@ -20203,10 +20215,10 @@
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C1113" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="E1113" t="s">
         <v>1635</v>
@@ -20217,10 +20229,10 @@
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C1114" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="E1114" t="s">
         <v>1635</v>
@@ -20231,10 +20243,10 @@
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C1115" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="E1115" t="s">
         <v>1635</v>
@@ -20245,10 +20257,10 @@
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C1116" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="E1116" t="s">
         <v>1635</v>
@@ -20259,10 +20271,10 @@
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C1117" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="E1117" t="s">
         <v>1635</v>
@@ -20273,13 +20285,10 @@
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
-        <v>1078</v>
+        <v>825</v>
       </c>
       <c r="C1118" t="s">
-        <v>2457</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="E1118" t="s">
         <v>1635</v>
@@ -20290,13 +20299,10 @@
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
-        <v>2568</v>
+        <v>826</v>
       </c>
       <c r="C1119" t="s">
-        <v>2570</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>2572</v>
+        <v>2456</v>
       </c>
       <c r="E1119" t="s">
         <v>1635</v>
@@ -20307,13 +20313,13 @@
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
-        <v>2569</v>
+        <v>1078</v>
       </c>
       <c r="C1120" t="s">
-        <v>2571</v>
+        <v>2457</v>
       </c>
       <c r="D1120" t="s">
-        <v>2573</v>
+        <v>2458</v>
       </c>
       <c r="E1120" t="s">
         <v>1635</v>
@@ -20324,10 +20330,13 @@
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
-        <v>827</v>
+        <v>2568</v>
       </c>
       <c r="C1121" t="s">
-        <v>2459</v>
+        <v>2570</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>2572</v>
       </c>
       <c r="E1121" t="s">
         <v>1635</v>
@@ -20338,10 +20347,13 @@
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
-        <v>828</v>
+        <v>2569</v>
       </c>
       <c r="C1122" t="s">
-        <v>2460</v>
+        <v>2571</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>2573</v>
       </c>
       <c r="E1122" t="s">
         <v>1635</v>
@@ -20352,10 +20364,10 @@
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C1123" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="E1123" t="s">
         <v>1635</v>
@@ -20366,10 +20378,10 @@
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C1124" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="E1124" t="s">
         <v>1635</v>
@@ -20380,10 +20392,10 @@
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C1125" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="E1125" t="s">
         <v>1635</v>
@@ -20394,10 +20406,10 @@
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C1126" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="E1126" t="s">
         <v>1635</v>
@@ -20408,10 +20420,10 @@
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C1127" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="E1127" t="s">
         <v>1635</v>
@@ -20422,10 +20434,10 @@
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1128" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C1128" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="E1128" t="s">
         <v>1635</v>
@@ -20436,10 +20448,10 @@
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1129" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C1129" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="E1129" t="s">
         <v>1635</v>
@@ -20450,10 +20462,10 @@
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1130" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C1130" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="E1130" t="s">
         <v>1635</v>
@@ -20464,10 +20476,10 @@
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1131" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C1131" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="E1131" t="s">
         <v>1635</v>
@@ -20478,72 +20490,78 @@
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C1132" t="s">
-        <v>2470</v>
+        <v>2468</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C1133" t="s">
-        <v>2471</v>
+        <v>2469</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C1134" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C1135" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1136" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C1136" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1137" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C1137" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E1137" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1137" t="s">
-        <v>1635</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C1138" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1139" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C1139" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="E1139" t="s">
         <v>1635</v>
@@ -20554,130 +20572,124 @@
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1140" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C1140" t="s">
-        <v>2478</v>
-      </c>
-      <c r="E1140" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1140" t="s">
-        <v>1635</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1141" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C1141" t="s">
-        <v>2479</v>
+        <v>2477</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1142" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C1142" t="s">
-        <v>2480</v>
+        <v>2478</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1143" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C1143" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1144" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C1144" t="s">
-        <v>2482</v>
-      </c>
-      <c r="E1144" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1144" t="s">
-        <v>1635</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1145" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C1145" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C1146" t="s">
-        <v>2484</v>
+        <v>2482</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C1147" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1148" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C1148" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1149" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C1149" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1150" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C1150" t="s">
-        <v>2488</v>
-      </c>
-      <c r="E1150" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1150" t="s">
-        <v>1635</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1151" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C1151" t="s">
-        <v>2489</v>
-      </c>
-      <c r="E1151" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1151" t="s">
-        <v>1635</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1152" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C1152" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="E1152" t="s">
         <v>1635</v>
@@ -20688,10 +20700,10 @@
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1153" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C1153" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="E1153" t="s">
         <v>1635</v>
@@ -20702,10 +20714,10 @@
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1154" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C1154" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="E1154" t="s">
         <v>1635</v>
@@ -20716,290 +20728,296 @@
     </row>
     <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1155" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C1155" t="s">
-        <v>2493</v>
+        <v>2491</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1156" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C1156" t="s">
-        <v>2494</v>
+        <v>2492</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C1157" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1158" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C1158" t="s">
-        <v>2496</v>
-      </c>
-      <c r="E1158" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1158" t="s">
-        <v>1635</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1159" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C1159" t="s">
-        <v>2497</v>
-      </c>
-      <c r="E1159" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1159" t="s">
-        <v>1635</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1160" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C1160" t="s">
-        <v>2498</v>
+        <v>2496</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1161" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C1161" t="s">
-        <v>2499</v>
+        <v>2497</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1162" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C1162" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1163" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C1163" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1164" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C1164" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1165" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C1165" t="s">
-        <v>2503</v>
-      </c>
-      <c r="E1165" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1165" t="s">
-        <v>1635</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1166" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C1166" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1167" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C1167" t="s">
-        <v>2505</v>
+        <v>2503</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1168" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C1168" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1169" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C1169" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1170" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C1170" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1171" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C1171" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1172" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C1172" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1173" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C1173" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1174" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C1174" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1175" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C1175" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1176" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C1176" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1177" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C1177" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1178" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C1178" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1179" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C1179" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1180" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C1180" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1181" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1181" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C1182" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1183" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C1183" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1184" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C1184" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1185" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C1185" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E1185" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1185" t="s">
-        <v>1635</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1186" s="1" t="s">
-        <v>2524</v>
+        <v>890</v>
       </c>
       <c r="C1186" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
-        <v>2526</v>
+        <v>891</v>
       </c>
       <c r="C1187" t="s">
-        <v>2547</v>
+        <v>1579</v>
       </c>
       <c r="E1187" t="s">
         <v>1635</v>
@@ -21010,24 +21028,18 @@
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1188" s="1" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="C1188" t="s">
-        <v>2548</v>
-      </c>
-      <c r="E1188" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F1188" t="s">
-        <v>1635</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1189" s="1" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="C1189" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="E1189" t="s">
         <v>1635</v>
@@ -21038,10 +21050,10 @@
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1190" s="1" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="C1190" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="E1190" t="s">
         <v>1635</v>
@@ -21052,10 +21064,10 @@
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1191" s="1" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="C1191" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="E1191" t="s">
         <v>1635</v>
@@ -21066,10 +21078,10 @@
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="C1192" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="E1192" t="s">
         <v>1635</v>
@@ -21080,10 +21092,10 @@
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1193" s="1" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C1193" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="E1193" t="s">
         <v>1635</v>
@@ -21094,10 +21106,10 @@
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1194" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="C1194" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="E1194" t="s">
         <v>1635</v>
@@ -21108,10 +21120,10 @@
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1195" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="C1195" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="E1195" t="s">
         <v>1635</v>
@@ -21122,10 +21134,10 @@
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="C1196" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="E1196" t="s">
         <v>1635</v>
@@ -21136,10 +21148,10 @@
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1197" s="1" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="C1197" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="E1197" t="s">
         <v>1635</v>
@@ -21150,10 +21162,10 @@
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1198" s="1" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="C1198" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="E1198" t="s">
         <v>1635</v>
@@ -21164,10 +21176,10 @@
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1199" s="1" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="C1199" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="E1199" t="s">
         <v>1635</v>
@@ -21178,10 +21190,10 @@
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1200" s="1" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="C1200" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="E1200" t="s">
         <v>1635</v>
@@ -21192,10 +21204,10 @@
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1201" s="1" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="C1201" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="E1201" t="s">
         <v>1635</v>
@@ -21206,10 +21218,10 @@
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1202" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="C1202" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="E1202" t="s">
         <v>1635</v>
@@ -21220,10 +21232,10 @@
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="C1203" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="E1203" t="s">
         <v>1635</v>
@@ -21234,10 +21246,10 @@
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1204" s="1" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="C1204" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="E1204" t="s">
         <v>1635</v>
@@ -21248,10 +21260,10 @@
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1205" s="1" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="C1205" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="E1205" t="s">
         <v>1635</v>
@@ -21262,10 +21274,10 @@
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1206" s="1" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="C1206" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="E1206" t="s">
         <v>1635</v>
@@ -21276,10 +21288,10 @@
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1207" s="1" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="C1207" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="E1207" t="s">
         <v>1635</v>
@@ -21290,129 +21302,151 @@
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1208" s="1" t="s">
-        <v>2753</v>
+        <v>2545</v>
       </c>
       <c r="C1208" t="s">
-        <v>2759</v>
+        <v>2566</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1209" s="1" t="s">
-        <v>2754</v>
+        <v>2546</v>
       </c>
       <c r="C1209" t="s">
-        <v>2760</v>
+        <v>2567</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="C1210" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="C1211" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1212" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="C1212" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1213" s="1" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="C1213" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1214" s="1" t="s">
-        <v>2795</v>
+        <v>2757</v>
       </c>
       <c r="C1214" t="s">
-        <v>2804</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1215" s="1" t="s">
-        <v>2796</v>
+        <v>2758</v>
       </c>
       <c r="C1215" t="s">
-        <v>2805</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1216" s="1" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="C1216" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1217" s="1" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="C1217" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1218" s="1" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="C1218" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1219" s="1" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="C1219" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1220" s="1" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="C1220" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1221" s="1" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="C1221" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1222" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="C1222" t="s">
+      <c r="C1224" t="s">
         <v>2812</v>
       </c>
-    </row>
-    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1223" s="1"/>
-    </row>
-    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1224" s="1"/>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1225" s="1"/>
@@ -21647,6 +21681,12 @@
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1"/>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1303" s="1"/>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1304" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
